--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21105"/>
-  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Leeres Kriterienblatt" sheetId="1" r:id="rId1"/>
     <sheet name="Beispiele" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
   <si>
     <t>#</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Nützlichkeit und Kreativität der Lösung</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -567,6 +564,153 @@
   </si>
   <si>
     <t xml:space="preserve">Abgabe der unterschriebenen Selbstädigkeitserklärungen, Lizenzvereinbarungen und Aufgabenstellung als Teil des Pdf </t>
+  </si>
+  <si>
+    <t>ev auf 0 setzen weil Deployment nicht  möglich</t>
+  </si>
+  <si>
+    <t>können wir einen Mix machen aus Scrum und RUP?</t>
+  </si>
+  <si>
+    <t>Redmine ok?</t>
+  </si>
+  <si>
+    <t>Anz. Seiten</t>
+  </si>
+  <si>
+    <t>Wie viele Szenarios, wie lang?</t>
+  </si>
+  <si>
+    <t>genügt es, wenn als Ticket in Redmine? Wie viele?</t>
+  </si>
+  <si>
+    <t>Gewichtung reduzieren?</t>
+  </si>
+  <si>
+    <t>abhängig von Interviews, Iteration 1 passt nicht</t>
+  </si>
+  <si>
+    <t>genügen Tickets im Redmine?</t>
+  </si>
+  <si>
+    <t>mit wem besprechen? Auch schriftlich möglich?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Dokumentation in Redmine?</t>
+  </si>
+  <si>
+    <t>Redmine-Wiki? Was bedeutet Change message?</t>
+  </si>
+  <si>
+    <t>Redmine ok? Csv-export, ist er nötig?</t>
+  </si>
+  <si>
+    <t>Datum des OK?</t>
+  </si>
+  <si>
+    <t>Welche Reviews? Von Dokumenten oder Code?</t>
+  </si>
+  <si>
+    <t>SVN, Redmine, Resharper, noch mehr als diese?</t>
+  </si>
+  <si>
+    <t>Gewichtung fehlt</t>
+  </si>
+  <si>
+    <t>Ist nötig, das Inhaltsverzeichnis mit HTML und Links zu erstellen?</t>
+  </si>
+  <si>
+    <t>benötigen wir Lizenzvereinbarung?</t>
+  </si>
+  <si>
+    <t>alles in 1 Dokument oder mehrere Dokumente?</t>
+  </si>
+  <si>
+    <t>nötig?</t>
+  </si>
+  <si>
+    <t>Was ist ein Extended Management Summary, Umfang? Struktur?</t>
+  </si>
+  <si>
+    <t>Video ohne Gerät? Gewichtung red.?</t>
+  </si>
+  <si>
+    <t>löschen?</t>
+  </si>
+  <si>
+    <t>ist Komplexität unseres Projektes gut, genügend?</t>
+  </si>
+  <si>
+    <t>kein Benutzerproblem</t>
+  </si>
+  <si>
+    <t>wir verkaufen nicht</t>
+  </si>
+  <si>
+    <t>keine Konkurrenz?</t>
+  </si>
+  <si>
+    <t>was heisst fokussiert? Wie viele Personas?</t>
+  </si>
+  <si>
+    <t>nicht optional</t>
+  </si>
+  <si>
+    <t>genügen Tickets im Redmine als Dokumentation?</t>
+  </si>
+  <si>
+    <t>Gewichtung?</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>Domain Model nötig?</t>
+  </si>
+  <si>
+    <t>Domain Analyse Daten, ist das nötig?</t>
+  </si>
+  <si>
+    <t>macht das Sinn?</t>
+  </si>
+  <si>
+    <t>Surface Guidelines, es sind nicht alle einhaltbar, können wir uns einschränken?</t>
+  </si>
+  <si>
+    <t>Wie sieht so eine Dokumentation aus?</t>
+  </si>
+  <si>
+    <t>was ist Ndepend? Visual Studio? Gewichtung fehlt</t>
+  </si>
+  <si>
+    <t>Visual Studio UML?</t>
+  </si>
+  <si>
+    <t>Unit Test für UI nicht sinnvoll?</t>
+  </si>
+  <si>
+    <t>alle NF Anforderungen?</t>
+  </si>
+  <si>
+    <t>gleich wie Punkt 2?</t>
+  </si>
+  <si>
+    <t>? Gewichtung?</t>
+  </si>
+  <si>
+    <t>SVN Checkout</t>
+  </si>
+  <si>
+    <t>VS auf Mac?</t>
+  </si>
+  <si>
+    <t>VS macht das, genügt das?</t>
+  </si>
+  <si>
+    <t>Resharper macht das, genügt das?</t>
   </si>
 </sst>
 </file>
@@ -576,7 +720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +900,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -908,7 +1059,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,9 +1201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1097,6 +1245,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="123">
@@ -1227,426 +1393,6 @@
   <dxfs count="111">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1674,6 +1420,542 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1705,37 +1987,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1787,62 +2038,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1874,36 +2070,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3104,67 +3270,67 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E34" totalsRowCount="1" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A4:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="6" name="G" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="3" name="N" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="1" name="#" dataDxfId="37" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="36" totalsRowDxfId="3"/>
+    <tableColumn id="6" name="G" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="N" dataDxfId="34" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A86:E92"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="24"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="23"/>
-    <tableColumn id="5" name="G" dataDxfId="22"/>
-    <tableColumn id="3" name="N" dataDxfId="21"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="20"/>
+    <tableColumn id="1" name="#" dataDxfId="29"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="28"/>
+    <tableColumn id="5" name="G" dataDxfId="27"/>
+    <tableColumn id="3" name="N" dataDxfId="26"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A77:E82"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="16"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
-    <tableColumn id="5" name="G" dataDxfId="14"/>
-    <tableColumn id="3" name="N" dataDxfId="13"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="21"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="20"/>
+    <tableColumn id="5" name="G" dataDxfId="19"/>
+    <tableColumn id="3" name="N" dataDxfId="18"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A137:E145"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="10"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
-    <tableColumn id="5" name="G" dataDxfId="8"/>
-    <tableColumn id="3" name="N" dataDxfId="7"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="15"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="14"/>
+    <tableColumn id="5" name="G" dataDxfId="13"/>
+    <tableColumn id="3" name="N" dataDxfId="12"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A124:E134"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="5" name="G" dataDxfId="2"/>
-    <tableColumn id="3" name="N" dataDxfId="1"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="9"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="8"/>
+    <tableColumn id="5" name="G" dataDxfId="7"/>
+    <tableColumn id="3" name="N" dataDxfId="6"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3199,8 +3365,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A106:E110" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85">
-  <autoFilter ref="A106:E110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A106:E111" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85">
+  <autoFilter ref="A106:E111"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="84"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="83"/>
@@ -3255,8 +3421,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E56" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
-  <autoFilter ref="A50:E56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
+  <autoFilter ref="A50:E57"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="54"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="53"/>
@@ -3269,8 +3435,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A166:E170" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="A166:E170"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A166:E171" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
+  <autoFilter ref="A166:E171"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="46"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="45"/>
@@ -3574,28 +3740,28 @@
   </sheetPr>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="30">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="24" t="s">
         <v>94</v>
       </c>
@@ -3611,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -3619,21 +3785,21 @@
         <v>1</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="35">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="46">
         <v>5</v>
@@ -3641,7 +3807,7 @@
       <c r="D5" s="47"/>
       <c r="E5" s="48"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="17" customHeight="1">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="35">
         <v>2</v>
       </c>
@@ -3654,7 +3820,7 @@
       <c r="D6" s="47"/>
       <c r="E6" s="48"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="35">
         <v>3</v>
       </c>
@@ -3665,35 +3831,41 @@
         <v>5</v>
       </c>
       <c r="D7" s="47"/>
-      <c r="E7" s="66"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E7" s="65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="46">
         <v>5</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="49"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="27" customHeight="1">
+      <c r="E8" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="46">
         <v>5</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="49"/>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E9" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -3704,9 +3876,11 @@
         <v>5</v>
       </c>
       <c r="D10" s="39"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E10" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -3719,7 +3893,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -3730,22 +3904,26 @@
         <v>5</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="25" customHeight="1">
+      <c r="E12" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="46">
         <v>5</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="49"/>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E13" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -3756,9 +3934,11 @@
         <v>5</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="49"/>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="E14" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -3769,14 +3949,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E15" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="46">
         <v>5</v>
@@ -3784,7 +3966,7 @@
       <c r="D16" s="39"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -3795,9 +3977,11 @@
         <v>5</v>
       </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E17" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -3808,9 +3992,11 @@
         <v>5</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="49"/>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="E18" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="25">
         <v>15</v>
       </c>
@@ -3821,9 +4007,11 @@
         <v>5</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E19" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="34">
         <v>16</v>
       </c>
@@ -3836,7 +4024,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="25">
         <v>17</v>
       </c>
@@ -3847,9 +4035,11 @@
         <v>5</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E21" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="25">
         <v>18</v>
       </c>
@@ -3860,9 +4050,11 @@
         <v>5</v>
       </c>
       <c r="D22" s="39"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E22" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="25">
         <v>19</v>
       </c>
@@ -3875,7 +4067,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="25">
         <v>20</v>
       </c>
@@ -3888,25 +4080,27 @@
       <c r="D24" s="39"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A25" s="25">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="46">
         <v>5</v>
       </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" ht="15">
+      <c r="E25" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>119</v>
+      <c r="B26" s="74" t="s">
+        <v>118</v>
       </c>
       <c r="C26" s="46">
         <v>5</v>
@@ -3914,7 +4108,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="25">
         <v>23</v>
       </c>
@@ -3925,22 +4119,26 @@
         <v>5</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E27" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A28" s="25">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="46">
         <v>5</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E28" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A29" s="25">
         <v>25</v>
       </c>
@@ -3953,7 +4151,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A30" s="25">
         <v>26</v>
       </c>
@@ -3964,9 +4162,11 @@
         <v>5</v>
       </c>
       <c r="D30" s="39"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E30" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A31" s="25">
         <v>27</v>
       </c>
@@ -3979,23 +4179,25 @@
       <c r="D31" s="39"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A32" s="21">
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="72">
+      <c r="E32" s="48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A33" s="71">
         <v>29</v>
       </c>
-      <c r="B33" s="73" t="s">
-        <v>121</v>
+      <c r="B33" s="72" t="s">
+        <v>120</v>
       </c>
       <c r="C33" s="46">
         <v>5</v>
@@ -4003,14 +4205,14 @@
       <c r="D33" s="50"/>
       <c r="E33" s="36"/>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="15"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
       <c r="E34" s="53"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="23">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>95</v>
       </c>
@@ -4025,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>0</v>
       </c>
@@ -4033,16 +4235,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A37" s="14">
         <v>1</v>
       </c>
@@ -4053,35 +4255,41 @@
         <v>5</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="30"/>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E37" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A38" s="12">
         <v>2</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="38">
         <v>5</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="48"/>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E38" s="48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="12">
         <v>3</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="38">
         <v>5</v>
       </c>
       <c r="D39" s="39"/>
-      <c r="E39" s="48"/>
-    </row>
-    <row r="40" spans="1:5" ht="15">
+      <c r="E39" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>4</v>
       </c>
@@ -4094,7 +4302,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="49"/>
     </row>
-    <row r="41" spans="1:5" ht="15">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -4107,12 +4315,12 @@
       <c r="D41" s="39"/>
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:5" ht="15">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="38">
         <v>5</v>
@@ -4120,7 +4328,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:5" ht="15">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>7</v>
       </c>
@@ -4133,12 +4341,12 @@
       <c r="D43" s="39"/>
       <c r="E43" s="27"/>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="38">
         <v>5</v>
@@ -4146,7 +4354,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="1:5" ht="15">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>10</v>
       </c>
@@ -4159,12 +4367,12 @@
       <c r="D45" s="39"/>
       <c r="E45" s="27"/>
     </row>
-    <row r="46" spans="1:5" ht="28">
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="38">
         <v>5</v>
@@ -4172,7 +4380,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="27"/>
     </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="15">
+    <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>13</v>
       </c>
@@ -4183,14 +4391,16 @@
         <v>5</v>
       </c>
       <c r="D47" s="39"/>
-      <c r="E47" s="49"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="23">
+    <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
         <v>96</v>
       </c>
@@ -4206,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -4214,16 +4424,16 @@
         <v>1</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -4234,9 +4444,11 @@
         <v>5</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="15">
+      <c r="E51" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -4249,7 +4461,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="44"/>
     </row>
-    <row r="53" spans="1:5" ht="15">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>3</v>
       </c>
@@ -4262,7 +4474,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="54"/>
     </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="32" customHeight="1">
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>4</v>
       </c>
@@ -4273,9 +4485,9 @@
         <v>5</v>
       </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="65"/>
-    </row>
-    <row r="55" spans="1:5" ht="33.75" customHeight="1">
+      <c r="E54" s="64"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>5</v>
       </c>
@@ -4288,7 +4500,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="54"/>
     </row>
-    <row r="56" spans="1:5" ht="15">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>6</v>
       </c>
@@ -4299,14 +4511,19 @@
         <v>5</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="55"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="23">
+      <c r="E56" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="68"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
         <v>97</v>
       </c>
@@ -4322,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18" customHeight="1">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -4330,16 +4547,16 @@
         <v>1</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -4350,9 +4567,11 @@
         <v>9</v>
       </c>
       <c r="D60" s="39"/>
-      <c r="E60" s="44"/>
-    </row>
-    <row r="61" spans="1:5" ht="15">
+      <c r="E60" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>2</v>
       </c>
@@ -4363,22 +4582,26 @@
         <v>5</v>
       </c>
       <c r="D61" s="39"/>
-      <c r="E61" s="54"/>
-    </row>
-    <row r="62" spans="1:5" ht="15">
+      <c r="E61" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="44">
         <v>5</v>
       </c>
       <c r="D62" s="39"/>
-      <c r="E62" s="54"/>
-    </row>
-    <row r="63" spans="1:5" ht="15">
+      <c r="E62" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>4</v>
       </c>
@@ -4391,20 +4614,22 @@
       <c r="D63" s="39"/>
       <c r="E63" s="44"/>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="44">
         <v>5</v>
       </c>
       <c r="D64" s="39"/>
-      <c r="E64" s="44"/>
-    </row>
-    <row r="65" spans="1:5" ht="15">
+      <c r="E64" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>6</v>
       </c>
@@ -4415,14 +4640,16 @@
         <v>9</v>
       </c>
       <c r="D65" s="39"/>
-      <c r="E65" s="44"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" s="1" customFormat="1" ht="23">
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
         <v>85</v>
       </c>
@@ -4437,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18" customHeight="1">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
@@ -4445,16 +4672,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -4467,7 +4694,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="44"/>
     </row>
-    <row r="70" spans="1:5" ht="15">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2</v>
       </c>
@@ -4478,9 +4705,11 @@
         <v>5</v>
       </c>
       <c r="D70" s="39"/>
-      <c r="E70" s="44"/>
-    </row>
-    <row r="71" spans="1:5" ht="15">
+      <c r="E70" s="44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>3</v>
       </c>
@@ -4493,7 +4722,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="54"/>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>4</v>
       </c>
@@ -4506,12 +4735,12 @@
       <c r="D72" s="39"/>
       <c r="E72" s="54"/>
     </row>
-    <row r="73" spans="1:5" ht="15">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="40">
         <v>5</v>
@@ -4519,17 +4748,17 @@
       <c r="D73" s="39"/>
       <c r="E73" s="54"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" s="1" customFormat="1" ht="23">
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
         <v>86</v>
       </c>
@@ -4544,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>0</v>
       </c>
@@ -4552,16 +4781,16 @@
         <v>1</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>1</v>
       </c>
@@ -4572,9 +4801,11 @@
         <v>5</v>
       </c>
       <c r="D78" s="39"/>
-      <c r="E78" s="44"/>
-    </row>
-    <row r="79" spans="1:5" ht="15">
+      <c r="E78" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2</v>
       </c>
@@ -4585,22 +4816,26 @@
         <v>5</v>
       </c>
       <c r="D79" s="39"/>
-      <c r="E79" s="44"/>
-    </row>
-    <row r="80" spans="1:5" ht="15">
+      <c r="E79" s="44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" s="40">
         <v>5</v>
       </c>
       <c r="D80" s="39"/>
-      <c r="E80" s="54"/>
-    </row>
-    <row r="81" spans="1:5" ht="28">
+      <c r="E80" s="54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>4</v>
       </c>
@@ -4611,9 +4846,11 @@
         <v>5</v>
       </c>
       <c r="D81" s="39"/>
-      <c r="E81" s="54"/>
-    </row>
-    <row r="82" spans="1:5" ht="20.25" customHeight="1">
+      <c r="E81" s="54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>5</v>
       </c>
@@ -4626,12 +4863,12 @@
       <c r="D82" s="39"/>
       <c r="E82" s="54"/>
     </row>
-    <row r="84" spans="1:5" s="1" customFormat="1">
+    <row r="84" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="1:5" ht="18" customHeight="1">
+    <row r="85" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
         <v>87</v>
       </c>
@@ -4647,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>0</v>
       </c>
@@ -4655,16 +4892,16 @@
         <v>1</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15">
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -4675,22 +4912,26 @@
         <v>5</v>
       </c>
       <c r="D87" s="39"/>
-      <c r="E87" s="44"/>
-    </row>
-    <row r="88" spans="1:5" ht="15">
+      <c r="E87" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" s="44">
         <v>5</v>
       </c>
       <c r="D88" s="39"/>
-      <c r="E88" s="44"/>
-    </row>
-    <row r="89" spans="1:5" ht="15">
+      <c r="E88" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>3</v>
       </c>
@@ -4703,7 +4944,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="54"/>
     </row>
-    <row r="90" spans="1:5" ht="20.25" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>4</v>
       </c>
@@ -4716,20 +4957,22 @@
       <c r="D90" s="39"/>
       <c r="E90" s="54"/>
     </row>
-    <row r="91" spans="1:5" ht="20.25" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="44">
         <v>5</v>
       </c>
       <c r="D91" s="39"/>
-      <c r="E91" s="54"/>
-    </row>
-    <row r="92" spans="1:5" ht="15">
+      <c r="E91" s="54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>6</v>
       </c>
@@ -4742,12 +4985,12 @@
       <c r="D92" s="39"/>
       <c r="E92" s="54"/>
     </row>
-    <row r="93" spans="1:5" s="1" customFormat="1">
+    <row r="93" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:5" ht="18" customHeight="1">
+    <row r="94" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
         <v>88</v>
       </c>
@@ -4763,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>0</v>
       </c>
@@ -4771,16 +5014,16 @@
         <v>1</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E95" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18" customHeight="1">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>1</v>
       </c>
@@ -4791,27 +5034,31 @@
         <v>5</v>
       </c>
       <c r="D96" s="39"/>
-      <c r="E96" s="44"/>
-    </row>
-    <row r="97" spans="1:5" ht="15">
+      <c r="E96" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" s="40">
         <v>5</v>
       </c>
       <c r="D97" s="39"/>
-      <c r="E97" s="29"/>
-    </row>
-    <row r="98" spans="1:5" ht="15">
+      <c r="E97" s="54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="40">
         <v>5</v>
@@ -4819,31 +5066,35 @@
       <c r="D98" s="39"/>
       <c r="E98" s="44"/>
     </row>
-    <row r="99" spans="1:5" ht="15">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="40"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="54"/>
-    </row>
-    <row r="100" spans="1:5" ht="15">
+      <c r="E99" s="54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" s="40">
         <v>5</v>
       </c>
       <c r="D100" s="39"/>
-      <c r="E100" s="54"/>
-    </row>
-    <row r="101" spans="1:5" ht="15">
+      <c r="E100" s="54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>6</v>
       </c>
@@ -4854,9 +5105,11 @@
         <v>5</v>
       </c>
       <c r="D101" s="39"/>
-      <c r="E101" s="54"/>
-    </row>
-    <row r="102" spans="1:5" ht="15">
+      <c r="E101" s="54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>7</v>
       </c>
@@ -4867,14 +5120,16 @@
         <v>5</v>
       </c>
       <c r="D102" s="39"/>
-      <c r="E102" s="54"/>
-    </row>
-    <row r="103" spans="1:5" ht="15">
+      <c r="E102" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C103" s="40">
         <v>5</v>
@@ -4882,18 +5137,18 @@
       <c r="D103" s="39"/>
       <c r="E103" s="54"/>
     </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" ht="15">
-      <c r="B104" s="69"/>
+    <row r="104" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="68"/>
       <c r="C104" s="40"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="71"/>
-    </row>
-    <row r="105" spans="1:5" ht="18" customHeight="1">
+      <c r="D104" s="69"/>
+      <c r="E104" s="70"/>
+    </row>
+    <row r="105" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="32" t="s">
@@ -4904,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>0</v>
       </c>
@@ -4912,16 +5167,16 @@
         <v>1</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E106" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18" customHeight="1">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -4932,9 +5187,11 @@
         <v>5</v>
       </c>
       <c r="D107" s="39"/>
-      <c r="E107" s="44"/>
-    </row>
-    <row r="108" spans="1:5" ht="15">
+      <c r="E107" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2</v>
       </c>
@@ -4947,12 +5204,12 @@
       <c r="D108" s="39"/>
       <c r="E108" s="29"/>
     </row>
-    <row r="109" spans="1:5" ht="15">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" s="40">
         <v>5</v>
@@ -4960,7 +5217,7 @@
       <c r="D109" s="39"/>
       <c r="E109" s="44"/>
     </row>
-    <row r="110" spans="1:5" ht="15">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>4</v>
       </c>
@@ -4971,19 +5228,25 @@
         <v>5</v>
       </c>
       <c r="D110" s="39"/>
-      <c r="E110" s="44"/>
-    </row>
-    <row r="111" spans="1:5" s="1" customFormat="1">
-      <c r="B111"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="1:5" ht="18" customHeight="1">
+      <c r="E110" s="44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="78"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="32" t="s">
@@ -4994,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -5002,16 +5265,16 @@
         <v>1</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E113" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>1</v>
       </c>
@@ -5022,14 +5285,16 @@
         <v>5</v>
       </c>
       <c r="D114" s="39"/>
-      <c r="E114" s="44"/>
-    </row>
-    <row r="115" spans="1:5" ht="15">
+      <c r="E114" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C115" s="40">
         <v>5</v>
@@ -5037,7 +5302,7 @@
       <c r="D115" s="39"/>
       <c r="E115" s="44"/>
     </row>
-    <row r="116" spans="1:5" ht="15">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>3</v>
       </c>
@@ -5048,9 +5313,11 @@
         <v>5</v>
       </c>
       <c r="D116" s="39"/>
-      <c r="E116" s="44"/>
-    </row>
-    <row r="117" spans="1:5" ht="15">
+      <c r="E116" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>4</v>
       </c>
@@ -5063,7 +5330,7 @@
       <c r="D117" s="39"/>
       <c r="E117" s="54"/>
     </row>
-    <row r="118" spans="1:5" ht="15">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>5</v>
       </c>
@@ -5074,22 +5341,26 @@
         <v>5</v>
       </c>
       <c r="D118" s="39"/>
-      <c r="E118" s="54"/>
-    </row>
-    <row r="119" spans="1:5" ht="15">
+      <c r="E118" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" s="40">
         <v>5</v>
       </c>
       <c r="D119" s="39"/>
-      <c r="E119" s="54"/>
-    </row>
-    <row r="120" spans="1:5" ht="15">
+      <c r="E119" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>7</v>
       </c>
@@ -5100,27 +5371,31 @@
         <v>5</v>
       </c>
       <c r="D120" s="39"/>
-      <c r="E120" s="54"/>
-    </row>
-    <row r="121" spans="1:5" ht="15">
+      <c r="E120" s="54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="40">
         <v>5</v>
       </c>
       <c r="D121" s="39"/>
-      <c r="E121" s="54"/>
-    </row>
-    <row r="122" spans="1:5" s="1" customFormat="1">
+      <c r="E121" s="54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="1:5" ht="18" customHeight="1">
+    <row r="123" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
         <v>90</v>
       </c>
@@ -5136,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>0</v>
       </c>
@@ -5144,16 +5419,16 @@
         <v>1</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E124" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>1</v>
       </c>
@@ -5164,9 +5439,11 @@
         <v>5</v>
       </c>
       <c r="D125" s="39"/>
-      <c r="E125" s="44"/>
-    </row>
-    <row r="126" spans="1:5" ht="15">
+      <c r="E125" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>2</v>
       </c>
@@ -5177,25 +5454,29 @@
         <v>5</v>
       </c>
       <c r="D126" s="39"/>
-      <c r="E126" s="54"/>
-    </row>
-    <row r="127" spans="1:5" ht="28">
+      <c r="E126" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="40"/>
       <c r="D127" s="39"/>
-      <c r="E127" s="54"/>
-    </row>
-    <row r="128" spans="1:5" ht="15">
+      <c r="E127" s="54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>4</v>
       </c>
-      <c r="B128" s="69" t="s">
-        <v>150</v>
+      <c r="B128" s="68" t="s">
+        <v>149</v>
       </c>
       <c r="C128" s="40">
         <v>5</v>
@@ -5203,7 +5484,7 @@
       <c r="D128" s="39"/>
       <c r="E128" s="54"/>
     </row>
-    <row r="129" spans="1:5" ht="15">
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>5</v>
       </c>
@@ -5214,9 +5495,11 @@
         <v>5</v>
       </c>
       <c r="D129" s="39"/>
-      <c r="E129" s="54"/>
-    </row>
-    <row r="130" spans="1:5" ht="15">
+      <c r="E129" s="54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>6</v>
       </c>
@@ -5227,9 +5510,11 @@
         <v>5</v>
       </c>
       <c r="D130" s="39"/>
-      <c r="E130" s="54"/>
-    </row>
-    <row r="131" spans="1:5" ht="28">
+      <c r="E130" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>7</v>
       </c>
@@ -5240,22 +5525,26 @@
         <v>5</v>
       </c>
       <c r="D131" s="39"/>
-      <c r="E131" s="54"/>
-    </row>
-    <row r="132" spans="1:5" ht="19" customHeight="1">
+      <c r="E131" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>8</v>
       </c>
-      <c r="B132" s="69" t="s">
-        <v>151</v>
+      <c r="B132" s="68" t="s">
+        <v>150</v>
       </c>
       <c r="C132" s="40">
         <v>5</v>
       </c>
       <c r="D132" s="39"/>
-      <c r="E132" s="54"/>
-    </row>
-    <row r="133" spans="1:5" ht="15">
+      <c r="E132" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>9</v>
       </c>
@@ -5268,7 +5557,7 @@
       <c r="D133" s="39"/>
       <c r="E133" s="54"/>
     </row>
-    <row r="134" spans="1:5" ht="28">
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="26">
         <v>10</v>
       </c>
@@ -5279,14 +5568,16 @@
         <v>5</v>
       </c>
       <c r="D134" s="39"/>
-      <c r="E134" s="54"/>
-    </row>
-    <row r="135" spans="1:5" s="1" customFormat="1">
+      <c r="E134" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:5" ht="18" customHeight="1">
+    <row r="136" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
         <v>91</v>
       </c>
@@ -5302,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -5310,16 +5601,16 @@
         <v>1</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D137" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E137" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>1</v>
       </c>
@@ -5330,9 +5621,11 @@
         <v>5</v>
       </c>
       <c r="D138" s="39"/>
-      <c r="E138" s="54"/>
-    </row>
-    <row r="139" spans="1:5" ht="15">
+      <c r="E138" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>2</v>
       </c>
@@ -5345,7 +5638,7 @@
       <c r="D139" s="39"/>
       <c r="E139" s="54"/>
     </row>
-    <row r="140" spans="1:5" ht="15">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>3</v>
       </c>
@@ -5358,7 +5651,7 @@
       <c r="D140" s="39"/>
       <c r="E140" s="54"/>
     </row>
-    <row r="141" spans="1:5" ht="15">
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>4</v>
       </c>
@@ -5369,9 +5662,11 @@
         <v>5</v>
       </c>
       <c r="D141" s="39"/>
-      <c r="E141" s="54"/>
-    </row>
-    <row r="142" spans="1:5" ht="15">
+      <c r="E141" s="54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>5</v>
       </c>
@@ -5382,25 +5677,29 @@
         <v>5</v>
       </c>
       <c r="D142" s="39"/>
-      <c r="E142" s="54"/>
-    </row>
-    <row r="143" spans="1:5" ht="15">
+      <c r="E142" s="54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143" s="40"/>
       <c r="D143" s="39"/>
-      <c r="E143" s="44"/>
-    </row>
-    <row r="144" spans="1:5" ht="15">
+      <c r="E143" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="40">
         <v>5</v>
@@ -5408,7 +5707,7 @@
       <c r="D144" s="39"/>
       <c r="E144" s="54"/>
     </row>
-    <row r="145" spans="1:5" ht="15">
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>8</v>
       </c>
@@ -5421,17 +5720,17 @@
       <c r="D145" s="39"/>
       <c r="E145" s="54"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" s="1" customFormat="1">
+    <row r="147" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="1:5" ht="18" customHeight="1">
+    <row r="148" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A148" s="23" t="s">
         <v>92</v>
       </c>
@@ -5447,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>0</v>
       </c>
@@ -5455,16 +5754,16 @@
         <v>1</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>1</v>
       </c>
@@ -5475,9 +5774,11 @@
         <v>5</v>
       </c>
       <c r="D150" s="39"/>
-      <c r="E150" s="54"/>
-    </row>
-    <row r="151" spans="1:5" ht="15">
+      <c r="E150" s="54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2</v>
       </c>
@@ -5488,9 +5789,11 @@
         <v>5</v>
       </c>
       <c r="D151" s="39"/>
-      <c r="E151" s="44"/>
-    </row>
-    <row r="152" spans="1:5" ht="15">
+      <c r="E151" s="44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>3</v>
       </c>
@@ -5503,7 +5806,7 @@
       <c r="D152" s="39"/>
       <c r="E152" s="44"/>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>4</v>
       </c>
@@ -5514,14 +5817,16 @@
         <v>5</v>
       </c>
       <c r="D153" s="39"/>
-      <c r="E153" s="54"/>
-    </row>
-    <row r="154" spans="1:5" ht="15">
+      <c r="E153" s="54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>5</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C154" s="40">
         <v>5</v>
@@ -5529,20 +5834,22 @@
       <c r="D154" s="39"/>
       <c r="E154" s="54"/>
     </row>
-    <row r="155" spans="1:5" ht="31" customHeight="1">
+    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C155" s="40">
         <v>5</v>
       </c>
       <c r="D155" s="39"/>
-      <c r="E155" s="65"/>
-    </row>
-    <row r="156" spans="1:5" ht="15">
+      <c r="E155" s="64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>7</v>
       </c>
@@ -5553,22 +5860,26 @@
         <v>5</v>
       </c>
       <c r="D156" s="39"/>
-      <c r="E156" s="54"/>
-    </row>
-    <row r="157" spans="1:5" ht="15">
+      <c r="E156" s="54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C157" s="40">
         <v>5</v>
       </c>
       <c r="D157" s="39"/>
-      <c r="E157" s="54"/>
-    </row>
-    <row r="158" spans="1:5" ht="15">
+      <c r="E157" s="54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>9</v>
       </c>
@@ -5579,14 +5890,14 @@
         <v>5</v>
       </c>
       <c r="D158" s="39"/>
-      <c r="E158" s="65"/>
-    </row>
-    <row r="159" spans="1:5" ht="15">
+      <c r="E158" s="64"/>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>10</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C159" s="40">
         <v>5</v>
@@ -5594,7 +5905,7 @@
       <c r="D159" s="39"/>
       <c r="E159" s="54"/>
     </row>
-    <row r="160" spans="1:5" ht="15">
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>11</v>
       </c>
@@ -5605,14 +5916,16 @@
         <v>5</v>
       </c>
       <c r="D160" s="39"/>
-      <c r="E160" s="54"/>
-    </row>
-    <row r="161" spans="1:6" ht="15">
-      <c r="A161" s="74">
+      <c r="E160" s="54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="73">
         <v>12</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C161" s="40">
         <v>5</v>
@@ -5620,12 +5933,12 @@
       <c r="D161" s="39"/>
       <c r="E161" s="54"/>
     </row>
-    <row r="162" spans="1:6" ht="15">
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
         <v>13</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C162" s="40">
         <v>5</v>
@@ -5633,25 +5946,27 @@
       <c r="D162" s="39"/>
       <c r="E162" s="54"/>
     </row>
-    <row r="163" spans="1:6" ht="15">
+    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="26">
         <v>14</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C163" s="40">
         <v>5</v>
       </c>
       <c r="D163" s="39"/>
-      <c r="E163" s="54"/>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="E163" s="54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:6" ht="23">
+    <row r="165" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
         <v>93</v>
       </c>
@@ -5667,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="19.5" customHeight="1">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>0</v>
       </c>
@@ -5675,16 +5990,16 @@
         <v>1</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D166" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="32.25" customHeight="1">
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -5696,23 +6011,25 @@
       </c>
       <c r="D167" s="39"/>
       <c r="E167" s="44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="32.25" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C168" s="40">
         <v>5</v>
       </c>
       <c r="D168" s="39"/>
-      <c r="E168" s="44"/>
-    </row>
-    <row r="169" spans="1:6" ht="32.25" customHeight="1">
+      <c r="E168" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>3</v>
       </c>
@@ -5723,32 +6040,40 @@
         <v>5</v>
       </c>
       <c r="D169" s="39"/>
-      <c r="E169" s="44"/>
-    </row>
-    <row r="170" spans="1:6" ht="15">
+      <c r="E169" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>4</v>
       </c>
-      <c r="B170" s="69" t="s">
-        <v>144</v>
+      <c r="B170" s="68" t="s">
+        <v>143</v>
       </c>
       <c r="C170" s="40">
         <v>5</v>
       </c>
       <c r="D170" s="39"/>
-      <c r="E170" s="54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" s="68" customFormat="1" ht="28">
-      <c r="A173" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F173" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="23">
+      <c r="E170" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B171" s="68"/>
+      <c r="C171" s="75"/>
+      <c r="D171" s="76"/>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="173" spans="1:6" s="67" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F173" s="67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A174" s="24" t="s">
         <v>94</v>
       </c>
@@ -5767,313 +6092,312 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="18">
-      <c r="A176" s="59" t="s">
+    <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A176" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C176" s="10"/>
-      <c r="D176" s="60" t="s">
+      <c r="D176" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E176" s="61">
+      <c r="E176" s="60">
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
-      <c r="F176" s="62">
+      <c r="F176" s="61">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18">
-      <c r="A177" s="59" t="s">
+    <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A177" s="58" t="s">
         <v>96</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="10"/>
-      <c r="D177" s="60" t="s">
+      <c r="D177" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="61">
+      <c r="E177" s="60">
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
-      <c r="F177" s="62">
+      <c r="F177" s="61">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="18">
-      <c r="A178" s="59" t="s">
+    <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A178" s="58" t="s">
         <v>97</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C178" s="10"/>
-      <c r="D178" s="60" t="s">
+      <c r="D178" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="61">
+      <c r="E178" s="60">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-      <c r="F178" s="62">
+      <c r="F178" s="61">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="23">
-      <c r="A179" s="56">
+    <row r="179" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A179" s="55">
         <v>2</v>
       </c>
-      <c r="B179" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E179" s="57">
+      <c r="B179" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E179" s="56">
         <f>SUMPRODUCT(F176:F178,E176:E178)/SUM(F176:F178)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="63">
+      <c r="F179" s="62">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="18">
-      <c r="A181" s="59" t="s">
+    <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A181" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C181" s="10"/>
-      <c r="D181" s="60" t="s">
+      <c r="D181" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E181" s="61">
+      <c r="E181" s="60">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
-      <c r="F181" s="62">
+      <c r="F181" s="61">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18">
-      <c r="A182" s="59" t="s">
+    <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A182" s="58" t="s">
         <v>86</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C182" s="10"/>
-      <c r="D182" s="60" t="s">
+      <c r="D182" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E182" s="61">
+      <c r="E182" s="60">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
-      <c r="F182" s="62">
+      <c r="F182" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18">
-      <c r="A183" s="59" t="s">
+    <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A183" s="58" t="s">
         <v>87</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C183" s="10"/>
-      <c r="D183" s="60" t="s">
+      <c r="D183" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="61">
+      <c r="E183" s="60">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
-      <c r="F183" s="62">
+      <c r="F183" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="18">
-      <c r="A184" s="59" t="s">
+    <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A184" s="58" t="s">
         <v>88</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C184" s="10"/>
-      <c r="D184" s="60" t="s">
+      <c r="D184" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="61">
+      <c r="E184" s="60">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
-      <c r="F184" s="62">
+      <c r="F184" s="61">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="18">
-      <c r="A185" s="59" t="s">
+    <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A185" s="58" t="s">
         <v>89</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C185" s="10"/>
-      <c r="D185" s="60" t="s">
+      <c r="D185" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E185" s="61">
+      <c r="E185" s="60">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
-      <c r="F185" s="62">
+      <c r="F185" s="61">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="18">
-      <c r="A186" s="59" t="s">
-        <v>109</v>
+    <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A186" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C186" s="10"/>
-      <c r="D186" s="60" t="s">
+      <c r="D186" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E186" s="61">
+      <c r="E186" s="60">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
-      <c r="F186" s="62">
+      <c r="F186" s="61">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="18">
-      <c r="A187" s="59" t="s">
+    <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A187" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C187" s="10"/>
-      <c r="D187" s="60" t="s">
+      <c r="D187" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E187" s="61">
+      <c r="E187" s="60">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
-      <c r="F187" s="62">
+      <c r="F187" s="61">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="18">
-      <c r="A188" s="59" t="s">
+    <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A188" s="58" t="s">
         <v>91</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="10"/>
-      <c r="D188" s="60" t="s">
+      <c r="D188" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E188" s="61">
+      <c r="E188" s="60">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
-      <c r="F188" s="62">
+      <c r="F188" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="18">
-      <c r="A189" s="59" t="s">
+    <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A189" s="58" t="s">
         <v>92</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C189" s="10"/>
-      <c r="D189" s="60" t="s">
+      <c r="D189" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E189" s="61">
+      <c r="E189" s="60">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
-      <c r="F189" s="62">
+      <c r="F189" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18">
-      <c r="A190" s="59" t="s">
+    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A190" s="58" t="s">
         <v>93</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C190" s="64"/>
-      <c r="D190" s="60" t="s">
+      <c r="C190" s="63"/>
+      <c r="D190" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E190" s="61">
+      <c r="E190" s="60">
         <v>0</v>
       </c>
-      <c r="F190" s="62">
+      <c r="F190" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="23">
-      <c r="A191" s="56">
+    <row r="191" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A191" s="55">
         <v>2</v>
       </c>
-      <c r="B191" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E191" s="57">
+      <c r="B191" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E191" s="56">
         <f>SUMPRODUCT(F181:F190,E181:E190)/SUM(F181:F190)</f>
         <v>0</v>
       </c>
-      <c r="F191" s="63">
+      <c r="F191" s="62">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E194">
         <f>((E174*F174)+E179*F179+E191*F191)/(F174+F179+F191)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="42" fitToHeight="2" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="14">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -6087,6 +6411,7 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6104,7 +6429,7 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Leeres Kriterienblatt" sheetId="1" r:id="rId1"/>
@@ -1119,18 +1119,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1143,12 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1198,20 +1180,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1234,9 +1207,6 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,78 +1225,108 @@
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="123">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1388,7 +1388,7 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="111">
     <dxf>
@@ -1547,7 +1547,195 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1639,18 +1827,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1739,18 +1915,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1849,18 +2013,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1956,38 +2108,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2153,17 +2273,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2262,18 +2371,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2372,18 +2469,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2482,18 +2567,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2582,18 +2655,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2701,24 +2762,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF505050"/>
         <name val="Calibri"/>
@@ -2821,18 +2864,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2931,18 +2962,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3038,24 +3057,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3260,76 +3261,76 @@
     <tableColumn id="2" name="Beschreibung" dataDxfId="107"/>
     <tableColumn id="5" name="G" dataDxfId="106"/>
     <tableColumn id="3" name="N" dataDxfId="105"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="104"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E34" totalsRowCount="1" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E34" totalsRowCount="1" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
   <autoFilter ref="A4:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="37" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="36" totalsRowDxfId="3"/>
-    <tableColumn id="6" name="G" dataDxfId="35" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="N" dataDxfId="34" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="46" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="45" totalsRowDxfId="3"/>
+    <tableColumn id="6" name="G" dataDxfId="44" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="N" dataDxfId="43" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A86:E92"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="29"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="28"/>
-    <tableColumn id="5" name="G" dataDxfId="27"/>
-    <tableColumn id="3" name="N" dataDxfId="26"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="25"/>
+    <tableColumn id="1" name="#" dataDxfId="39"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="38"/>
+    <tableColumn id="5" name="G" dataDxfId="37"/>
+    <tableColumn id="3" name="N" dataDxfId="36"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A77:E82"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="21"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="20"/>
-    <tableColumn id="5" name="G" dataDxfId="19"/>
-    <tableColumn id="3" name="N" dataDxfId="18"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="17"/>
+    <tableColumn id="1" name="#" dataDxfId="32"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
+    <tableColumn id="5" name="G" dataDxfId="30"/>
+    <tableColumn id="3" name="N" dataDxfId="29"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A137:E145"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="15"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="14"/>
-    <tableColumn id="5" name="G" dataDxfId="13"/>
-    <tableColumn id="3" name="N" dataDxfId="12"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="11"/>
+    <tableColumn id="1" name="#" dataDxfId="27"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="26"/>
+    <tableColumn id="5" name="G" dataDxfId="25"/>
+    <tableColumn id="3" name="N" dataDxfId="24"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A124:E134"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="9"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="8"/>
-    <tableColumn id="5" name="G" dataDxfId="7"/>
-    <tableColumn id="3" name="N" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="22"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="21"/>
+    <tableColumn id="5" name="G" dataDxfId="20"/>
+    <tableColumn id="3" name="N" dataDxfId="19"/>
     <tableColumn id="4" name="Kommentar" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3337,121 +3338,121 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="104" headerRowBorderDxfId="103" tableBorderDxfId="102">
   <autoFilter ref="A36:E47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="100"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="99"/>
-    <tableColumn id="5" name="G" dataDxfId="98"/>
-    <tableColumn id="3" name="N" dataDxfId="97"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="96"/>
+    <tableColumn id="1" name="#" dataDxfId="101"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="100"/>
+    <tableColumn id="5" name="G" dataDxfId="99"/>
+    <tableColumn id="3" name="N" dataDxfId="98"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A95:E103" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A95:E103" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95">
   <autoFilter ref="A95:E103"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="92"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="91"/>
-    <tableColumn id="5" name="G" dataDxfId="90"/>
-    <tableColumn id="3" name="N" dataDxfId="89"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="88"/>
+    <tableColumn id="1" name="#" dataDxfId="94"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="93"/>
+    <tableColumn id="5" name="G" dataDxfId="92"/>
+    <tableColumn id="3" name="N" dataDxfId="91"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A106:E111" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A106:E111" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88">
   <autoFilter ref="A106:E111"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="84"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="83"/>
-    <tableColumn id="5" name="G" dataDxfId="82"/>
-    <tableColumn id="3" name="N" dataDxfId="81"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="80"/>
+    <tableColumn id="1" name="#" dataDxfId="87"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="86"/>
+    <tableColumn id="5" name="G" dataDxfId="85"/>
+    <tableColumn id="3" name="N" dataDxfId="84"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A113:E121" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A113:E121" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
   <autoFilter ref="A113:E121"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="76"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="75"/>
-    <tableColumn id="5" name="G" dataDxfId="74"/>
-    <tableColumn id="3" name="N" dataDxfId="73"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="72"/>
+    <tableColumn id="1" name="#" dataDxfId="80"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="79"/>
+    <tableColumn id="5" name="G" dataDxfId="78"/>
+    <tableColumn id="3" name="N" dataDxfId="77"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A149:E163" totalsRowShown="0" headerRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A149:E163" totalsRowShown="0" headerRowDxfId="76">
   <autoFilter ref="A149:E163"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="70"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="69"/>
-    <tableColumn id="5" name="G" dataDxfId="68"/>
-    <tableColumn id="3" name="N" dataDxfId="67"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="66"/>
+    <tableColumn id="1" name="#" dataDxfId="75"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="74"/>
+    <tableColumn id="5" name="G" dataDxfId="73"/>
+    <tableColumn id="3" name="N" dataDxfId="72"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A68:E73" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A68:E73" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="A68:E73"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="62"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="61"/>
-    <tableColumn id="5" name="G" dataDxfId="60"/>
-    <tableColumn id="3" name="N" dataDxfId="59"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="58"/>
+    <tableColumn id="1" name="#" dataDxfId="68"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="67"/>
+    <tableColumn id="5" name="G" dataDxfId="66"/>
+    <tableColumn id="3" name="N" dataDxfId="65"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="A50:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="54"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="53"/>
-    <tableColumn id="5" name="G" dataDxfId="52"/>
-    <tableColumn id="3" name="N" dataDxfId="51"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="50"/>
+    <tableColumn id="1" name="#" dataDxfId="61"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="60"/>
+    <tableColumn id="5" name="G" dataDxfId="59"/>
+    <tableColumn id="3" name="N" dataDxfId="58"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A166:E171" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A166:E171" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="A166:E171"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="46"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="45"/>
-    <tableColumn id="5" name="G" dataDxfId="44"/>
-    <tableColumn id="3" name="N" dataDxfId="43"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="42"/>
+    <tableColumn id="1" name="#" dataDxfId="54"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="53"/>
+    <tableColumn id="5" name="G" dataDxfId="52"/>
+    <tableColumn id="3" name="N" dataDxfId="51"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3489,7 +3490,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3561,7 +3562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3740,26 +3741,28 @@
   </sheetPr>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="89.140625" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="24" t="s">
@@ -3768,70 +3771,70 @@
       <c r="B3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="70">
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="46">
-        <v>5</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="40">
+        <v>5</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="46">
-        <v>5</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="40">
+        <v>5</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46">
-        <v>5</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="65" t="s">
+      <c r="C7" s="40">
+        <v>5</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="56" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3842,11 +3845,11 @@
       <c r="B8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="46">
-        <v>5</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="49" t="s">
+      <c r="C8" s="40">
+        <v>5</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="43" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3857,11 +3860,11 @@
       <c r="B9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="46">
-        <v>5</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="49" t="s">
+      <c r="C9" s="40">
+        <v>5</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="43" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3872,11 +3875,11 @@
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="46">
-        <v>5</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="40">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="43" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3887,11 +3890,11 @@
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="46">
-        <v>5</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="40">
+        <v>5</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="5">
@@ -3900,11 +3903,11 @@
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="46">
-        <v>5</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="40">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="43" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3915,11 +3918,11 @@
       <c r="B13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="46">
-        <v>5</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="40">
+        <v>5</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3930,11 +3933,11 @@
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="46">
-        <v>5</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="49" t="s">
+      <c r="C14" s="40">
+        <v>5</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="43" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3945,11 +3948,11 @@
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="46">
-        <v>5</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="27" t="s">
+      <c r="C15" s="40">
+        <v>5</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="43" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3960,11 +3963,11 @@
       <c r="B16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="46">
-        <v>5</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="40">
+        <v>5</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="5">
@@ -3973,11 +3976,11 @@
       <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="46">
-        <v>5</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="27" t="s">
+      <c r="C17" s="40">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="43" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3988,11 +3991,11 @@
       <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="46">
-        <v>5</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="49" t="s">
+      <c r="C18" s="40">
+        <v>5</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="43" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4003,26 +4006,26 @@
       <c r="B19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="46">
-        <v>5</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="48" t="s">
+      <c r="C19" s="40">
+        <v>5</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="42" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A20" s="34">
+      <c r="A20" s="30">
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="46">
-        <v>5</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="40">
+        <v>5</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="25">
@@ -4031,11 +4034,11 @@
       <c r="B21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="46">
-        <v>5</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="27" t="s">
+      <c r="C21" s="40">
+        <v>5</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="43" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4046,11 +4049,11 @@
       <c r="B22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="46">
-        <v>5</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="27" t="s">
+      <c r="C22" s="40">
+        <v>5</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="43" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4061,11 +4064,11 @@
       <c r="B23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="46">
-        <v>5</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="27"/>
+      <c r="C23" s="40">
+        <v>5</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="25">
@@ -4074,11 +4077,11 @@
       <c r="B24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="46">
-        <v>5</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="40">
+        <v>5</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A25" s="25">
@@ -4087,11 +4090,11 @@
       <c r="B25" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="46">
-        <v>5</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="27" t="s">
+      <c r="C25" s="40">
+        <v>5</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="43" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4099,14 +4102,14 @@
       <c r="A26" s="25">
         <v>22</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="46">
-        <v>5</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="40">
+        <v>5</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="25">
@@ -4115,11 +4118,11 @@
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="46">
-        <v>5</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="27" t="s">
+      <c r="C27" s="40">
+        <v>5</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="43" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4130,11 +4133,11 @@
       <c r="B28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="46">
-        <v>5</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="27" t="s">
+      <c r="C28" s="40">
+        <v>5</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="43" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4145,11 +4148,11 @@
       <c r="B29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="46">
-        <v>5</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="40">
+        <v>5</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A30" s="25">
@@ -4158,11 +4161,11 @@
       <c r="B30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="46">
-        <v>5</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="27" t="s">
+      <c r="C30" s="40">
+        <v>5</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="43" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4173,11 +4176,11 @@
       <c r="B31" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="46">
-        <v>5</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="27"/>
+      <c r="C31" s="40">
+        <v>5</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A32" s="21">
@@ -4186,31 +4189,31 @@
       <c r="B32" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="71">
+      <c r="A33" s="61">
         <v>29</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="46">
-        <v>5</v>
-      </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="36"/>
+      <c r="C33" s="40">
+        <v>5</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="72"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
@@ -4219,10 +4222,10 @@
       <c r="B35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="70">
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
@@ -4234,13 +4237,13 @@
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4251,11 +4254,11 @@
       <c r="B37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="38">
-        <v>5</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="30" t="s">
+      <c r="C37" s="32">
+        <v>5</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="47" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4266,11 +4269,11 @@
       <c r="B38" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="38">
-        <v>5</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="48" t="s">
+      <c r="C38" s="32">
+        <v>5</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="42" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4281,11 +4284,11 @@
       <c r="B39" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="38">
-        <v>5</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="48" t="s">
+      <c r="C39" s="32">
+        <v>5</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="42" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4296,11 +4299,11 @@
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="38">
-        <v>5</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="49"/>
+      <c r="C40" s="32">
+        <v>5</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
@@ -4309,11 +4312,11 @@
       <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="38">
-        <v>5</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="27"/>
+      <c r="C41" s="32">
+        <v>5</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
@@ -4322,11 +4325,11 @@
       <c r="B42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="38">
-        <v>5</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="27"/>
+      <c r="C42" s="32">
+        <v>5</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -4335,11 +4338,11 @@
       <c r="B43" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="38">
-        <v>5</v>
-      </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="27"/>
+      <c r="C43" s="32">
+        <v>5</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -4348,11 +4351,11 @@
       <c r="B44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="38">
-        <v>5</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="27"/>
+      <c r="C44" s="32">
+        <v>5</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -4361,11 +4364,11 @@
       <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="38">
-        <v>5</v>
-      </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="27"/>
+      <c r="C45" s="32">
+        <v>5</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
@@ -4374,11 +4377,11 @@
       <c r="B46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="38">
-        <v>5</v>
-      </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="27"/>
+      <c r="C46" s="32">
+        <v>5</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
@@ -4387,18 +4390,18 @@
       <c r="B47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="38">
-        <v>5</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="49" t="s">
+      <c r="C47" s="32">
+        <v>5</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="43" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="73"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
@@ -4408,10 +4411,10 @@
         <v>9</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="70">
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
@@ -4423,13 +4426,13 @@
       <c r="B50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4440,11 +4443,11 @@
       <c r="B51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="40">
-        <v>5</v>
-      </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="29" t="s">
+      <c r="C51" s="34">
+        <v>5</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="74" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4455,11 +4458,11 @@
       <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="40">
-        <v>5</v>
-      </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="44"/>
+      <c r="C52" s="34">
+        <v>5</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -4468,11 +4471,11 @@
       <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="40">
-        <v>5</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="54"/>
+      <c r="C53" s="34">
+        <v>5</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -4481,11 +4484,11 @@
       <c r="B54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="40">
-        <v>5</v>
-      </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="64"/>
+      <c r="C54" s="34">
+        <v>5</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="55"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -4494,11 +4497,11 @@
       <c r="B55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="40">
-        <v>5</v>
-      </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="54"/>
+      <c r="C55" s="34">
+        <v>5</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -4507,19 +4510,19 @@
       <c r="B56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="40">
-        <v>5</v>
-      </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="49" t="s">
+      <c r="C56" s="34">
+        <v>5</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="68"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="77" t="s">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="59"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="68" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4531,10 +4534,10 @@
         <v>75</v>
       </c>
       <c r="C58" s="8"/>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="70">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
@@ -4546,13 +4549,13 @@
       <c r="B59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4563,11 +4566,11 @@
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="44">
+      <c r="C60" s="38">
         <v>9</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="44" t="s">
+      <c r="D60" s="33"/>
+      <c r="E60" s="38" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4578,11 +4581,11 @@
       <c r="B61" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="44">
-        <v>5</v>
-      </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="54" t="s">
+      <c r="C61" s="38">
+        <v>5</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4593,11 +4596,11 @@
       <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="44">
-        <v>5</v>
-      </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="54" t="s">
+      <c r="C62" s="38">
+        <v>5</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4608,11 +4611,11 @@
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="44">
+      <c r="C63" s="38">
         <v>9</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="44"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -4621,11 +4624,11 @@
       <c r="B64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="44">
-        <v>5</v>
-      </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="44" t="s">
+      <c r="C64" s="38">
+        <v>5</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="38" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4636,18 +4639,18 @@
       <c r="B65" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="38">
         <v>9</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="44" t="s">
+      <c r="D65" s="33"/>
+      <c r="E65" s="38" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="73"/>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
@@ -4656,10 +4659,10 @@
       <c r="B67" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="70">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
@@ -4671,13 +4674,13 @@
       <c r="B68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E68" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4688,11 +4691,11 @@
       <c r="B69" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="40">
-        <v>5</v>
-      </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="44"/>
+      <c r="C69" s="34">
+        <v>5</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
@@ -4701,11 +4704,11 @@
       <c r="B70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="40">
-        <v>5</v>
-      </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="44" t="s">
+      <c r="C70" s="34">
+        <v>5</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="38" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4716,11 +4719,11 @@
       <c r="B71" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="40">
-        <v>5</v>
-      </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="54"/>
+      <c r="C71" s="34">
+        <v>5</v>
+      </c>
+      <c r="D71" s="33"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
@@ -4729,11 +4732,11 @@
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="40">
-        <v>5</v>
-      </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="54"/>
+      <c r="C72" s="34">
+        <v>5</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -4742,21 +4745,21 @@
       <c r="B73" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="40">
-        <v>5</v>
-      </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="54"/>
+      <c r="C73" s="34">
+        <v>5</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="73"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="73"/>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
@@ -4765,10 +4768,10 @@
       <c r="B76" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="37">
+      <c r="E76" s="70">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
@@ -4780,13 +4783,13 @@
       <c r="B77" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4797,11 +4800,11 @@
       <c r="B78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="40">
-        <v>5</v>
-      </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="44" t="s">
+      <c r="C78" s="34">
+        <v>5</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="E78" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4812,11 +4815,11 @@
       <c r="B79" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="40">
-        <v>5</v>
-      </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="44" t="s">
+      <c r="C79" s="34">
+        <v>5</v>
+      </c>
+      <c r="D79" s="33"/>
+      <c r="E79" s="38" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4827,11 +4830,11 @@
       <c r="B80" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="40">
-        <v>5</v>
-      </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="54" t="s">
+      <c r="C80" s="34">
+        <v>5</v>
+      </c>
+      <c r="D80" s="33"/>
+      <c r="E80" s="38" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4842,11 +4845,11 @@
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="40">
-        <v>5</v>
-      </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="54" t="s">
+      <c r="C81" s="34">
+        <v>5</v>
+      </c>
+      <c r="D81" s="33"/>
+      <c r="E81" s="38" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4857,16 +4860,17 @@
       <c r="B82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="40">
-        <v>5</v>
-      </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="54"/>
+      <c r="C82" s="34">
+        <v>5</v>
+      </c>
+      <c r="D82" s="33"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="84" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
+      <c r="E84" s="75"/>
     </row>
     <row r="85" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
@@ -4876,10 +4880,10 @@
         <v>77</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="37">
+      <c r="E85" s="70">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
@@ -4891,13 +4895,13 @@
       <c r="B86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4908,11 +4912,11 @@
       <c r="B87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="44">
-        <v>5</v>
-      </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="44" t="s">
+      <c r="C87" s="38">
+        <v>5</v>
+      </c>
+      <c r="D87" s="33"/>
+      <c r="E87" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4923,11 +4927,11 @@
       <c r="B88" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="44">
-        <v>5</v>
-      </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="44" t="s">
+      <c r="C88" s="38">
+        <v>5</v>
+      </c>
+      <c r="D88" s="33"/>
+      <c r="E88" s="38" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4938,11 +4942,11 @@
       <c r="B89" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="44">
-        <v>5</v>
-      </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="54"/>
+      <c r="C89" s="38">
+        <v>5</v>
+      </c>
+      <c r="D89" s="33"/>
+      <c r="E89" s="38"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
@@ -4951,11 +4955,11 @@
       <c r="B90" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="44">
-        <v>5</v>
-      </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="54"/>
+      <c r="C90" s="38">
+        <v>5</v>
+      </c>
+      <c r="D90" s="33"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
@@ -4964,11 +4968,11 @@
       <c r="B91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="44">
-        <v>5</v>
-      </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="54" t="s">
+      <c r="C91" s="38">
+        <v>5</v>
+      </c>
+      <c r="D91" s="33"/>
+      <c r="E91" s="38" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4979,16 +4983,17 @@
       <c r="B92" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="44">
-        <v>5</v>
-      </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="54"/>
+      <c r="C92" s="38">
+        <v>5</v>
+      </c>
+      <c r="D92" s="33"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
+      <c r="E93" s="75"/>
     </row>
     <row r="94" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
@@ -4998,10 +5003,10 @@
         <v>81</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="37">
+      <c r="E94" s="70">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
@@ -5013,13 +5018,13 @@
       <c r="B95" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="42" t="s">
+      <c r="D95" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="41" t="s">
+      <c r="E95" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5030,11 +5035,11 @@
       <c r="B96" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="40">
-        <v>5</v>
-      </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="44" t="s">
+      <c r="C96" s="34">
+        <v>5</v>
+      </c>
+      <c r="D96" s="33"/>
+      <c r="E96" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5045,11 +5050,11 @@
       <c r="B97" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="40">
-        <v>5</v>
-      </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="54" t="s">
+      <c r="C97" s="34">
+        <v>5</v>
+      </c>
+      <c r="D97" s="33"/>
+      <c r="E97" s="38" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5060,11 +5065,11 @@
       <c r="B98" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="40">
-        <v>5</v>
-      </c>
-      <c r="D98" s="39"/>
-      <c r="E98" s="44"/>
+      <c r="C98" s="34">
+        <v>5</v>
+      </c>
+      <c r="D98" s="33"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -5073,9 +5078,9 @@
       <c r="B99" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="54" t="s">
+      <c r="C99" s="34"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="38" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5086,11 +5091,11 @@
       <c r="B100" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="40">
-        <v>5</v>
-      </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="54" t="s">
+      <c r="C100" s="34">
+        <v>0</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="38" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5101,11 +5106,11 @@
       <c r="B101" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="40">
-        <v>5</v>
-      </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="54" t="s">
+      <c r="C101" s="34">
+        <v>0</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="38" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5116,11 +5121,11 @@
       <c r="B102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="40">
-        <v>5</v>
-      </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="54" t="s">
+      <c r="C102" s="34">
+        <v>5</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5131,17 +5136,17 @@
       <c r="B103" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="40">
-        <v>5</v>
-      </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="54"/>
+      <c r="C103" s="34">
+        <v>5</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="68"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="70"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="76"/>
     </row>
     <row r="105" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
@@ -5151,10 +5156,10 @@
         <v>109</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="37">
+      <c r="E105" s="70">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
@@ -5166,13 +5171,13 @@
       <c r="B106" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E106" s="41" t="s">
+      <c r="E106" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5183,11 +5188,11 @@
       <c r="B107" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="40">
-        <v>5</v>
-      </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="44" t="s">
+      <c r="C107" s="34">
+        <v>5</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5198,11 +5203,11 @@
       <c r="B108" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="40">
-        <v>5</v>
-      </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="29"/>
+      <c r="C108" s="34">
+        <v>5</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="74"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -5211,11 +5216,11 @@
       <c r="B109" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C109" s="40">
-        <v>5</v>
-      </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="44"/>
+      <c r="C109" s="34">
+        <v>5</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="38"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
@@ -5224,20 +5229,20 @@
       <c r="B110" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C110" s="40">
-        <v>5</v>
-      </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="44" t="s">
+      <c r="C110" s="34">
+        <v>5</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="38" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="78"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="79" t="s">
+      <c r="A111" s="67"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="68" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5249,10 +5254,10 @@
         <v>110</v>
       </c>
       <c r="C112" s="1"/>
-      <c r="D112" s="32" t="s">
+      <c r="D112" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="37">
+      <c r="E112" s="70">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
@@ -5264,13 +5269,13 @@
       <c r="B113" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="42" t="s">
+      <c r="D113" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E113" s="41" t="s">
+      <c r="E113" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5281,11 +5286,11 @@
       <c r="B114" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="40">
-        <v>5</v>
-      </c>
-      <c r="D114" s="39"/>
-      <c r="E114" s="44" t="s">
+      <c r="C114" s="34">
+        <v>5</v>
+      </c>
+      <c r="D114" s="33"/>
+      <c r="E114" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5296,11 +5301,11 @@
       <c r="B115" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="40">
-        <v>5</v>
-      </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="44"/>
+      <c r="C115" s="34">
+        <v>5</v>
+      </c>
+      <c r="D115" s="33"/>
+      <c r="E115" s="38"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
@@ -5309,11 +5314,11 @@
       <c r="B116" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="40">
-        <v>5</v>
-      </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="44" t="s">
+      <c r="C116" s="34">
+        <v>5</v>
+      </c>
+      <c r="D116" s="33"/>
+      <c r="E116" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5324,11 +5329,11 @@
       <c r="B117" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C117" s="40">
-        <v>5</v>
-      </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="54"/>
+      <c r="C117" s="34">
+        <v>5</v>
+      </c>
+      <c r="D117" s="33"/>
+      <c r="E117" s="38"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
@@ -5337,26 +5342,26 @@
       <c r="B118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="40">
-        <v>5</v>
-      </c>
-      <c r="D118" s="39"/>
-      <c r="E118" s="54" t="s">
+      <c r="C118" s="34">
+        <v>5</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="38" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C119" s="40">
-        <v>5</v>
-      </c>
-      <c r="D119" s="39"/>
-      <c r="E119" s="54" t="s">
+      <c r="C119" s="34">
+        <v>5</v>
+      </c>
+      <c r="D119" s="33"/>
+      <c r="E119" s="38" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5367,11 +5372,11 @@
       <c r="B120" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="40">
-        <v>5</v>
-      </c>
-      <c r="D120" s="39"/>
-      <c r="E120" s="54" t="s">
+      <c r="C120" s="34">
+        <v>5</v>
+      </c>
+      <c r="D120" s="33"/>
+      <c r="E120" s="38" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5382,11 +5387,11 @@
       <c r="B121" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C121" s="40">
-        <v>5</v>
-      </c>
-      <c r="D121" s="39"/>
-      <c r="E121" s="54" t="s">
+      <c r="C121" s="34">
+        <v>5</v>
+      </c>
+      <c r="D121" s="33"/>
+      <c r="E121" s="38" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5394,6 +5399,7 @@
       <c r="B122"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
+      <c r="E122" s="75"/>
     </row>
     <row r="123" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
@@ -5403,10 +5409,10 @@
         <v>78</v>
       </c>
       <c r="C123" s="1"/>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="37">
+      <c r="E123" s="70">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
@@ -5418,13 +5424,13 @@
       <c r="B124" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C124" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D124" s="42" t="s">
+      <c r="D124" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E124" s="41" t="s">
+      <c r="E124" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5435,11 +5441,11 @@
       <c r="B125" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C125" s="40">
-        <v>5</v>
-      </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="44" t="s">
+      <c r="C125" s="34">
+        <v>5</v>
+      </c>
+      <c r="D125" s="33"/>
+      <c r="E125" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5450,11 +5456,11 @@
       <c r="B126" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="40">
-        <v>5</v>
-      </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="54" t="s">
+      <c r="C126" s="34">
+        <v>5</v>
+      </c>
+      <c r="D126" s="33"/>
+      <c r="E126" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5465,9 +5471,9 @@
       <c r="B127" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="40"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="54" t="s">
+      <c r="C127" s="34"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="38" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5475,14 +5481,14 @@
       <c r="A128" s="9">
         <v>4</v>
       </c>
-      <c r="B128" s="68" t="s">
+      <c r="B128" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="40">
-        <v>5</v>
-      </c>
-      <c r="D128" s="39"/>
-      <c r="E128" s="54"/>
+      <c r="C128" s="34">
+        <v>5</v>
+      </c>
+      <c r="D128" s="33"/>
+      <c r="E128" s="38"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
@@ -5491,11 +5497,11 @@
       <c r="B129" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="40">
-        <v>5</v>
-      </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="54" t="s">
+      <c r="C129" s="34">
+        <v>5</v>
+      </c>
+      <c r="D129" s="33"/>
+      <c r="E129" s="38" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5506,11 +5512,11 @@
       <c r="B130" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C130" s="40">
-        <v>5</v>
-      </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="54" t="s">
+      <c r="C130" s="34">
+        <v>5</v>
+      </c>
+      <c r="D130" s="33"/>
+      <c r="E130" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5521,11 +5527,11 @@
       <c r="B131" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="40">
-        <v>5</v>
-      </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="54" t="s">
+      <c r="C131" s="34">
+        <v>5</v>
+      </c>
+      <c r="D131" s="33"/>
+      <c r="E131" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5533,14 +5539,14 @@
       <c r="A132" s="5">
         <v>8</v>
       </c>
-      <c r="B132" s="68" t="s">
+      <c r="B132" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="40">
-        <v>5</v>
-      </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="54" t="s">
+      <c r="C132" s="34">
+        <v>5</v>
+      </c>
+      <c r="D132" s="33"/>
+      <c r="E132" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5551,11 +5557,11 @@
       <c r="B133" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C133" s="40">
-        <v>5</v>
-      </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="54"/>
+      <c r="C133" s="34">
+        <v>5</v>
+      </c>
+      <c r="D133" s="33"/>
+      <c r="E133" s="38"/>
     </row>
     <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="26">
@@ -5564,11 +5570,11 @@
       <c r="B134" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C134" s="40">
-        <v>5</v>
-      </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="54" t="s">
+      <c r="C134" s="34">
+        <v>5</v>
+      </c>
+      <c r="D134" s="33"/>
+      <c r="E134" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5576,6 +5582,7 @@
       <c r="B135"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
+      <c r="E135" s="75"/>
     </row>
     <row r="136" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
@@ -5585,10 +5592,10 @@
         <v>79</v>
       </c>
       <c r="C136" s="1"/>
-      <c r="D136" s="32" t="s">
+      <c r="D136" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="37">
+      <c r="E136" s="70">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
@@ -5600,13 +5607,13 @@
       <c r="B137" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C137" s="41" t="s">
+      <c r="C137" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D137" s="42" t="s">
+      <c r="D137" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E137" s="41" t="s">
+      <c r="E137" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5617,11 +5624,11 @@
       <c r="B138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C138" s="40">
-        <v>5</v>
-      </c>
-      <c r="D138" s="39"/>
-      <c r="E138" s="54" t="s">
+      <c r="C138" s="34">
+        <v>5</v>
+      </c>
+      <c r="D138" s="33"/>
+      <c r="E138" s="38" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5632,11 +5639,11 @@
       <c r="B139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="40">
-        <v>5</v>
-      </c>
-      <c r="D139" s="39"/>
-      <c r="E139" s="54"/>
+      <c r="C139" s="34">
+        <v>5</v>
+      </c>
+      <c r="D139" s="33"/>
+      <c r="E139" s="38"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
@@ -5645,11 +5652,11 @@
       <c r="B140" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C140" s="40">
-        <v>5</v>
-      </c>
-      <c r="D140" s="39"/>
-      <c r="E140" s="54"/>
+      <c r="C140" s="34">
+        <v>5</v>
+      </c>
+      <c r="D140" s="33"/>
+      <c r="E140" s="38"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
@@ -5658,11 +5665,11 @@
       <c r="B141" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C141" s="40">
-        <v>5</v>
-      </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="54" t="s">
+      <c r="C141" s="34">
+        <v>5</v>
+      </c>
+      <c r="D141" s="33"/>
+      <c r="E141" s="38" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5673,11 +5680,11 @@
       <c r="B142" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="40">
-        <v>5</v>
-      </c>
-      <c r="D142" s="39"/>
-      <c r="E142" s="54" t="s">
+      <c r="C142" s="34">
+        <v>5</v>
+      </c>
+      <c r="D142" s="33"/>
+      <c r="E142" s="38" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5688,9 +5695,9 @@
       <c r="B143" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="40"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="44" t="s">
+      <c r="C143" s="34"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="38" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5701,11 +5708,11 @@
       <c r="B144" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="40">
-        <v>5</v>
-      </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="54"/>
+      <c r="C144" s="34">
+        <v>5</v>
+      </c>
+      <c r="D144" s="33"/>
+      <c r="E144" s="38"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
@@ -5714,21 +5721,22 @@
       <c r="B145" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="40">
-        <v>5</v>
-      </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="54"/>
+      <c r="C145" s="34">
+        <v>5</v>
+      </c>
+      <c r="D145" s="33"/>
+      <c r="E145" s="38"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
+      <c r="E146" s="73"/>
     </row>
     <row r="147" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
+      <c r="E147" s="75"/>
     </row>
     <row r="148" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A148" s="23" t="s">
@@ -5738,10 +5746,10 @@
         <v>80</v>
       </c>
       <c r="C148" s="1"/>
-      <c r="D148" s="32" t="s">
+      <c r="D148" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E148" s="37">
+      <c r="E148" s="70">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
@@ -5753,13 +5761,13 @@
       <c r="B149" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C149" s="41" t="s">
+      <c r="C149" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D149" s="42" t="s">
+      <c r="D149" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E149" s="41" t="s">
+      <c r="E149" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5770,11 +5778,11 @@
       <c r="B150" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C150" s="40">
-        <v>5</v>
-      </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="54" t="s">
+      <c r="C150" s="34">
+        <v>5</v>
+      </c>
+      <c r="D150" s="33"/>
+      <c r="E150" s="38" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5785,11 +5793,11 @@
       <c r="B151" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="40">
-        <v>5</v>
-      </c>
-      <c r="D151" s="39"/>
-      <c r="E151" s="44" t="s">
+      <c r="C151" s="34">
+        <v>5</v>
+      </c>
+      <c r="D151" s="33"/>
+      <c r="E151" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5800,11 +5808,11 @@
       <c r="B152" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C152" s="40">
-        <v>5</v>
-      </c>
-      <c r="D152" s="39"/>
-      <c r="E152" s="44"/>
+      <c r="C152" s="34">
+        <v>5</v>
+      </c>
+      <c r="D152" s="33"/>
+      <c r="E152" s="38"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
@@ -5813,11 +5821,11 @@
       <c r="B153" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C153" s="40">
-        <v>5</v>
-      </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="54" t="s">
+      <c r="C153" s="34">
+        <v>5</v>
+      </c>
+      <c r="D153" s="33"/>
+      <c r="E153" s="38" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5828,11 +5836,11 @@
       <c r="B154" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C154" s="40">
-        <v>5</v>
-      </c>
-      <c r="D154" s="39"/>
-      <c r="E154" s="54"/>
+      <c r="C154" s="34">
+        <v>5</v>
+      </c>
+      <c r="D154" s="33"/>
+      <c r="E154" s="38"/>
     </row>
     <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
@@ -5841,11 +5849,11 @@
       <c r="B155" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C155" s="40">
-        <v>5</v>
-      </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="64" t="s">
+      <c r="C155" s="34">
+        <v>5</v>
+      </c>
+      <c r="D155" s="33"/>
+      <c r="E155" s="55" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5856,11 +5864,11 @@
       <c r="B156" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="40">
-        <v>5</v>
-      </c>
-      <c r="D156" s="39"/>
-      <c r="E156" s="54" t="s">
+      <c r="C156" s="34">
+        <v>5</v>
+      </c>
+      <c r="D156" s="33"/>
+      <c r="E156" s="38" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5871,11 +5879,11 @@
       <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="40">
-        <v>5</v>
-      </c>
-      <c r="D157" s="39"/>
-      <c r="E157" s="54" t="s">
+      <c r="C157" s="34">
+        <v>5</v>
+      </c>
+      <c r="D157" s="33"/>
+      <c r="E157" s="38" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5886,11 +5894,11 @@
       <c r="B158" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="40">
-        <v>5</v>
-      </c>
-      <c r="D158" s="39"/>
-      <c r="E158" s="64"/>
+      <c r="C158" s="34">
+        <v>5</v>
+      </c>
+      <c r="D158" s="33"/>
+      <c r="E158" s="55"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
@@ -5899,11 +5907,11 @@
       <c r="B159" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C159" s="40">
-        <v>5</v>
-      </c>
-      <c r="D159" s="39"/>
-      <c r="E159" s="54"/>
+      <c r="C159" s="34">
+        <v>5</v>
+      </c>
+      <c r="D159" s="33"/>
+      <c r="E159" s="38"/>
     </row>
     <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
@@ -5912,26 +5920,26 @@
       <c r="B160" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C160" s="40">
-        <v>5</v>
-      </c>
-      <c r="D160" s="39"/>
-      <c r="E160" s="54" t="s">
+      <c r="C160" s="34">
+        <v>5</v>
+      </c>
+      <c r="D160" s="33"/>
+      <c r="E160" s="38" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="73">
+      <c r="A161" s="63">
         <v>12</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C161" s="40">
-        <v>5</v>
-      </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="54"/>
+      <c r="C161" s="34">
+        <v>5</v>
+      </c>
+      <c r="D161" s="33"/>
+      <c r="E161" s="38"/>
     </row>
     <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
@@ -5940,11 +5948,11 @@
       <c r="B162" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C162" s="40">
-        <v>5</v>
-      </c>
-      <c r="D162" s="39"/>
-      <c r="E162" s="54"/>
+      <c r="C162" s="34">
+        <v>5</v>
+      </c>
+      <c r="D162" s="33"/>
+      <c r="E162" s="38"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="26">
@@ -5953,18 +5961,18 @@
       <c r="B163" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C163" s="40">
-        <v>5</v>
-      </c>
-      <c r="D163" s="39"/>
-      <c r="E163" s="54" t="s">
+      <c r="C163" s="34">
+        <v>5</v>
+      </c>
+      <c r="D163" s="33"/>
+      <c r="E163" s="38" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
+      <c r="E164" s="73"/>
     </row>
     <row r="165" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
@@ -5974,10 +5982,10 @@
         <v>83</v>
       </c>
       <c r="C165" s="7"/>
-      <c r="D165" s="32" t="s">
+      <c r="D165" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E165" s="37">
+      <c r="E165" s="70">
         <f>SUMPRODUCT(Table15[G],Table15[N])/SUM(Table15[G])</f>
         <v>0</v>
       </c>
@@ -5989,13 +5997,13 @@
       <c r="B166" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="41" t="s">
+      <c r="C166" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D166" s="42" t="s">
+      <c r="D166" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E166" s="41" t="s">
+      <c r="E166" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6006,11 +6014,11 @@
       <c r="B167" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C167" s="40">
-        <v>5</v>
-      </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="44" t="s">
+      <c r="C167" s="34">
+        <v>5</v>
+      </c>
+      <c r="D167" s="33"/>
+      <c r="E167" s="38" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6021,11 +6029,11 @@
       <c r="B168" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C168" s="40">
-        <v>5</v>
-      </c>
-      <c r="D168" s="39"/>
-      <c r="E168" s="44" t="s">
+      <c r="C168" s="34">
+        <v>5</v>
+      </c>
+      <c r="D168" s="33"/>
+      <c r="E168" s="38" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6036,11 +6044,11 @@
       <c r="B169" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C169" s="40">
-        <v>5</v>
-      </c>
-      <c r="D169" s="39"/>
-      <c r="E169" s="44" t="s">
+      <c r="C169" s="34">
+        <v>5</v>
+      </c>
+      <c r="D169" s="33"/>
+      <c r="E169" s="38" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6048,28 +6056,29 @@
       <c r="A170" s="9">
         <v>4</v>
       </c>
-      <c r="B170" s="68" t="s">
+      <c r="B170" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C170" s="40">
-        <v>5</v>
-      </c>
-      <c r="D170" s="39"/>
-      <c r="E170" s="44" t="s">
+      <c r="C170" s="34">
+        <v>5</v>
+      </c>
+      <c r="D170" s="33"/>
+      <c r="E170" s="38" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="68"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="76"/>
-      <c r="E171" s="7"/>
-    </row>
-    <row r="173" spans="1:6" s="67" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="66" t="s">
+      <c r="B171" s="59"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="66"/>
+      <c r="E171" s="73"/>
+    </row>
+    <row r="173" spans="1:6" s="58" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F173" s="67" t="s">
+      <c r="E173" s="77"/>
+      <c r="F173" s="58" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6080,11 +6089,11 @@
       <c r="B174" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C174" s="31"/>
-      <c r="D174" s="32" t="s">
+      <c r="C174" s="27"/>
+      <c r="D174" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E174" s="37">
+      <c r="E174" s="70">
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
@@ -6093,278 +6102,278 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="58" t="s">
+      <c r="A176" s="50" t="s">
         <v>95</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C176" s="10"/>
-      <c r="D176" s="59" t="s">
+      <c r="D176" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E176" s="60">
+      <c r="E176" s="78">
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
-      <c r="F176" s="61">
+      <c r="F176" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A177" s="58" t="s">
+      <c r="A177" s="50" t="s">
         <v>96</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="10"/>
-      <c r="D177" s="59" t="s">
+      <c r="D177" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="60">
+      <c r="E177" s="78">
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
-      <c r="F177" s="61">
+      <c r="F177" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A178" s="58" t="s">
+      <c r="A178" s="50" t="s">
         <v>97</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C178" s="10"/>
-      <c r="D178" s="59" t="s">
+      <c r="D178" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="60">
+      <c r="E178" s="78">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-      <c r="F178" s="61">
+      <c r="F178" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A179" s="55">
+      <c r="A179" s="48">
         <v>2</v>
       </c>
-      <c r="B179" s="57" t="s">
+      <c r="B179" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E179" s="56">
+      <c r="E179" s="79">
         <f>SUMPRODUCT(F176:F178,E176:E178)/SUM(F176:F178)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="62">
+      <c r="F179" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A181" s="58" t="s">
+      <c r="A181" s="50" t="s">
         <v>85</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C181" s="10"/>
-      <c r="D181" s="59" t="s">
+      <c r="D181" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E181" s="60">
+      <c r="E181" s="78">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
-      <c r="F181" s="61">
+      <c r="F181" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182" s="58" t="s">
+      <c r="A182" s="50" t="s">
         <v>86</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C182" s="10"/>
-      <c r="D182" s="59" t="s">
+      <c r="D182" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E182" s="60">
+      <c r="E182" s="78">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
-      <c r="F182" s="61">
+      <c r="F182" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="58" t="s">
+      <c r="A183" s="50" t="s">
         <v>87</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C183" s="10"/>
-      <c r="D183" s="59" t="s">
+      <c r="D183" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="60">
+      <c r="E183" s="78">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
-      <c r="F183" s="61">
+      <c r="F183" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A184" s="58" t="s">
+      <c r="A184" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C184" s="10"/>
-      <c r="D184" s="59" t="s">
+      <c r="D184" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="60">
+      <c r="E184" s="78">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
-      <c r="F184" s="61">
+      <c r="F184" s="52">
         <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A185" s="58" t="s">
+      <c r="A185" s="50" t="s">
         <v>89</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C185" s="10"/>
-      <c r="D185" s="59" t="s">
+      <c r="D185" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E185" s="60">
+      <c r="E185" s="78">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
-      <c r="F185" s="61">
+      <c r="F185" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A186" s="58" t="s">
+      <c r="A186" s="50" t="s">
         <v>108</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C186" s="10"/>
-      <c r="D186" s="59" t="s">
+      <c r="D186" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E186" s="60">
+      <c r="E186" s="78">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
-      <c r="F186" s="61">
+      <c r="F186" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A187" s="58" t="s">
+      <c r="A187" s="50" t="s">
         <v>90</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C187" s="10"/>
-      <c r="D187" s="59" t="s">
+      <c r="D187" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E187" s="60">
+      <c r="E187" s="78">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
-      <c r="F187" s="61">
+      <c r="F187" s="52">
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A188" s="58" t="s">
+      <c r="A188" s="50" t="s">
         <v>91</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="10"/>
-      <c r="D188" s="59" t="s">
+      <c r="D188" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E188" s="60">
+      <c r="E188" s="78">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
-      <c r="F188" s="61">
+      <c r="F188" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A189" s="58" t="s">
+      <c r="A189" s="50" t="s">
         <v>92</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C189" s="10"/>
-      <c r="D189" s="59" t="s">
+      <c r="D189" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E189" s="60">
+      <c r="E189" s="78">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
-      <c r="F189" s="61">
+      <c r="F189" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A190" s="58" t="s">
+      <c r="A190" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C190" s="63"/>
-      <c r="D190" s="59" t="s">
+      <c r="C190" s="54"/>
+      <c r="D190" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E190" s="60">
+      <c r="E190" s="78">
         <v>0</v>
       </c>
-      <c r="F190" s="61">
+      <c r="F190" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A191" s="55">
+      <c r="A191" s="48">
         <v>2</v>
       </c>
-      <c r="B191" s="57" t="s">
+      <c r="B191" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E191" s="56">
+      <c r="E191" s="79">
         <f>SUMPRODUCT(F181:F190,E181:E190)/SUM(F181:F190)</f>
         <v>0</v>
       </c>
-      <c r="F191" s="62">
+      <c r="F191" s="53">
         <v>3</v>
       </c>
     </row>
@@ -6372,7 +6381,7 @@
       <c r="B194" t="s">
         <v>111</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="64">
         <f>((E174*F174)+E179*F179+E191*F191)/(F174+F179+F191)</f>
         <v>0</v>
       </c>
@@ -6429,7 +6438,7 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
   <si>
     <t>#</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Abgabe aller Teile der Arbeit auf CD (mit leicht navigierbarem Inhaltsverzeichnis: z.B. html)</t>
   </si>
   <si>
-    <t>Externe Wiki Seite exisiert mit Link zu einem YouTube Video exisiert zum Zeitpunkt der Abgabe</t>
-  </si>
-  <si>
     <t>Tests decken in Gesammtheit alle funktionalen und nichtfunktionalen Anforderungen ab</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Enthält eine erste Beschreibung eines mimalen nützlichen Systems (was muss V1 können für die Pilotnutzer)</t>
   </si>
   <si>
-    <t>Szenarios sind glaubwürdige "Future" Szearios und haben Referenzen auf Interview log</t>
-  </si>
-  <si>
     <t>Optional (wo sinnvoll) Storyboards</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>Keine Design Elemente</t>
   </si>
   <si>
-    <t>Domain Model ist korretes UML</t>
-  </si>
-  <si>
     <t>Testabdeckung (Unit Tests) dokumentiert und sinnvoll</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
     <t>Projekt Extended Management Summary &amp; Wiki Page (Anzahl Reviews)</t>
   </si>
   <si>
-    <t>MS: Vision Dokument V0 verabschiedet mit Preliminary Personas &amp; Scenarios</t>
-  </si>
-  <si>
     <t>MS: Benutzerbeobachtung / Befragung  beendet</t>
   </si>
   <si>
@@ -264,9 +252,6 @@
     <t>MS: Domain Model (formelles OK Stolze (UML), inhaltliches OK Auftraggeber)</t>
   </si>
   <si>
-    <t xml:space="preserve">MS: Iteration 1 Feature Set (oder User stories) festgelegt (alle Features; Meeting mit Auftraggeber; Review mit Stolze) </t>
-  </si>
-  <si>
     <t>MS: Review der geplanten Aufwände der User Stories und Tasks für die nächste Iteration</t>
   </si>
   <si>
@@ -279,19 +264,10 @@
     <t>Dok: Aufwand dokumentiert (nachgeführte Arbeitsliste pro Person) und sinnvoll analysiert (PieCart)</t>
   </si>
   <si>
-    <t>Com: Sitzungsprotokolle und Change msgs nicht mehr als 1 Arbeitstag nach Durchführung (pub auf Wiki)</t>
-  </si>
-  <si>
     <t>Com: Vor jeder Sitzung wird Agenda geschickt (z.B. Content auf Wiki; eMail= Link)</t>
   </si>
   <si>
-    <t>Dok: Sitzungsprotokolle sind vollständig mit: Author, Datum der Erstellung, Teilnehmer, Beschlüsse, Datum des OK</t>
-  </si>
-  <si>
     <t>Dok: Tests dokumentiert (Was, wann, wer, welche Resultate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Com: E-Mail be Zeitüberscheitungen um +/-30% zu plan pro Woche </t>
   </si>
   <si>
     <t xml:space="preserve">Generelle Kriterien für Bericht </t>
@@ -418,12 +394,6 @@
     <t>Gesammtnote</t>
   </si>
   <si>
-    <t>MS: Super-Set der "User Stories" (vollständiges Backlog, Sammlung von möglichen Anwendungs-Features mit klassifizierung als Must/Should/Could) entwickelt (formelles OK Stolze, inhaltliches OK Auftraggeber)</t>
-  </si>
-  <si>
-    <t>(optinal) Alle aus User Stories ableitbaren Features dokumentiert</t>
-  </si>
-  <si>
     <t>Code sinnvoll dokumentiert</t>
   </si>
   <si>
@@ -436,15 +406,9 @@
     <t>Bewertungskriterien SA/BA Stolze</t>
   </si>
   <si>
-    <t>Dok: Es wird eine Liste mit Risiken (und aktuellen Impediments) geführt (zugreifbar) und änderungen kommuniziert</t>
-  </si>
-  <si>
     <t>Gutes Mgmt des Auftraggebers: Erwartungen werden gemanaged: keine Überraschungen</t>
   </si>
   <si>
-    <t>Selbsständigkeit &amp; Einsatz (zB Kommunikation mit Auftraggeber)</t>
-  </si>
-  <si>
     <t>Abgabe des Berichtes in einem PDF mit Inhaltsverzeichnis und durchgehenden Kapitel- und Seitennummern</t>
   </si>
   <si>
@@ -461,9 +425,6 @@
   </si>
   <si>
     <t>Enthält initiale Stakeholderanalyse (wer kauft die SW; wer braucht die SW; indirekte Nutzer)</t>
-  </si>
-  <si>
-    <t>Optional (wo sinnvoll) Ist Szenations</t>
   </si>
   <si>
     <t>Alle aus User Stories ableitbaren NF Anforderungen dokumentiert</t>
@@ -524,10 +485,6 @@
     <t>Alle User Stories (oder Use Cases "brief") dokumentiert (mit Datum: identified, started, tested, completed)</t>
   </si>
   <si>
-    <t>MS: Projektplan inkl. Plan für Benutzerbeobachtung (OK des Kunden) und Aufgabenteilung (mindestens 4 Milestones)
-Sinnvolle Arbeitspackete pr Milestone mit soll und ist Aufwänden</t>
-  </si>
-  <si>
     <t>Quellen korrekt zitiert (gängigen Zitierstil eingehalten; WebLinks mit Seitentitel und "last visited")  
 Wikipedia Quellen mit Permalink zitiert; Von zitierten WebSeiten PDF in einem Verzeichnis auf CD</t>
   </si>
@@ -556,161 +513,125 @@
     <t>Keine Features ohne Bedüfnistest (Papierprototyp) "erfinden". Nach Papier-Test ist Zustimmung/Priorisierung des Project Owners nötig</t>
   </si>
   <si>
-    <t>Dok: Es wird eine Liste mit offenen Tasks (mit Zuständigkeit) und abgeschlossenen Tasks (mit "Done Date") geführt 
-(Abgabe der wöchetlichen Dumps)</t>
-  </si>
-  <si>
     <t>Dok: Reviews dokumentiert (auch im Team)</t>
   </si>
   <si>
     <t xml:space="preserve">Abgabe der unterschriebenen Selbstädigkeitserklärungen, Lizenzvereinbarungen und Aufgabenstellung als Teil des Pdf </t>
   </si>
   <si>
-    <t>ev auf 0 setzen weil Deployment nicht  möglich</t>
-  </si>
-  <si>
-    <t>können wir einen Mix machen aus Scrum und RUP?</t>
-  </si>
-  <si>
-    <t>Redmine ok?</t>
-  </si>
-  <si>
-    <t>Anz. Seiten</t>
-  </si>
-  <si>
-    <t>Wie viele Szenarios, wie lang?</t>
-  </si>
-  <si>
-    <t>genügt es, wenn als Ticket in Redmine? Wie viele?</t>
-  </si>
-  <si>
     <t>Gewichtung reduzieren?</t>
   </si>
   <si>
-    <t>abhängig von Interviews, Iteration 1 passt nicht</t>
-  </si>
-  <si>
-    <t>genügen Tickets im Redmine?</t>
-  </si>
-  <si>
-    <t>mit wem besprechen? Auch schriftlich möglich?</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Dokumentation in Redmine?</t>
-  </si>
-  <si>
-    <t>Redmine-Wiki? Was bedeutet Change message?</t>
-  </si>
-  <si>
-    <t>Redmine ok? Csv-export, ist er nötig?</t>
-  </si>
-  <si>
-    <t>Datum des OK?</t>
-  </si>
-  <si>
-    <t>Welche Reviews? Von Dokumenten oder Code?</t>
-  </si>
-  <si>
-    <t>SVN, Redmine, Resharper, noch mehr als diese?</t>
+    <t xml:space="preserve">MS: Iteration 2 Feature Set (oder User stories) festgelegt (alle Features; Meeting mit Auftraggeber; Review mit Stolze) </t>
+  </si>
+  <si>
+    <t>Com: Sitzungsprotokolle nicht mehr als 1 Arbeitstag nach Durchführung (pub auf Wiki)</t>
+  </si>
+  <si>
+    <t>Dok: Es wird eine Liste mit offenen Tasks (mit Zuständigkeit) und abgeschlossenen Tasks (mit "Done Date") geführt</t>
+  </si>
+  <si>
+    <t>2 Dokumente (Bericht und Technischer Teil) mit gleicher Seitennummerierung sind ok</t>
+  </si>
+  <si>
+    <t>empfehlenswert (üben für Bachelorarbeit)</t>
+  </si>
+  <si>
+    <t>Management Summary</t>
+  </si>
+  <si>
+    <t>Komplexität von Project Flip 2.0 ist hoch</t>
+  </si>
+  <si>
+    <t>Domain Model ist korrektes UML</t>
+  </si>
+  <si>
+    <t>Externe Wiki Seite existiert mit Link zu einem YouTube Video, existiert zum Zeitpunkt der Abgabe</t>
+  </si>
+  <si>
+    <t>MS: Projektplan inkl. Plan für Benutzerbeobachtung (OK des Kunden) und Aufgabenteilung (mindestens 4 Milestones)
+Sinnvolle Arbeitspackete pro Milestone mit soll und ist Aufwänden</t>
+  </si>
+  <si>
+    <t>MS: Vision Dokument V0 verabschiedet mit Preliminary Personas &amp; Szenarios</t>
+  </si>
+  <si>
+    <t>MS: Super-Set der "User Stories" (vollständiges Backlog, Sammlung von möglichen Anwendungs-Features mit Klassifizierung als Must/Should/Could) entwickelt (formelles OK Stolze, inhaltliches OK Auftraggeber)</t>
+  </si>
+  <si>
+    <t>Dok: Es wird eine Liste mit Risiken (und aktuellen Impediments) geführt (zugreifbar) und Änderungen kommuniziert</t>
+  </si>
+  <si>
+    <t>Dok: Sitzungsprotokolle sind vollständig mit: Autor, Datum der Erstellung, Teilnehmer, Beschlüsse, Datum des OK</t>
+  </si>
+  <si>
+    <t>Selbständigkeit &amp; Einsatz (zB Kommunikation mit Auftraggeber)</t>
+  </si>
+  <si>
+    <t>besprochen am</t>
+  </si>
+  <si>
+    <t>ist bis Ende der Arbeit keine Surface 2 Hardware vorhanden, so wird dieser Punkt auf 0 gesetzt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com: E-Mail bei Zeitüberschreitungen um +/-30% zu plan pro Woche </t>
+  </si>
+  <si>
+    <t>auf Redmine-Wiki, aktuelles Protokoll als Email</t>
+  </si>
+  <si>
+    <t>Code- und Dokumentreviews</t>
+  </si>
+  <si>
+    <t>Einfache Auflistung benutzter Tools ist ausreichend</t>
+  </si>
+  <si>
+    <t>Inhaltsverzeichnis mit HTML nicht nötig, sofern gut beschriftete Ordner</t>
+  </si>
+  <si>
+    <t>Association for Computer Machinery, acm.org</t>
+  </si>
+  <si>
+    <t>enthält Problemstellung und Demo. Demo auch auf Bildschrim möglich (falls Surface2 nicht vorhanden)</t>
+  </si>
+  <si>
+    <t>Ist Szenarios</t>
+  </si>
+  <si>
+    <t>Szenarios sind glaubwürdige "Future" Szenarios und haben Referenzen auf Interview log</t>
+  </si>
+  <si>
+    <t>(optional) Alle aus User Stories ableitbaren Features dokumentiert</t>
+  </si>
+  <si>
+    <t>gegebene Architekturentscheide</t>
   </si>
   <si>
     <t>Gewichtung fehlt</t>
   </si>
   <si>
-    <t>Ist nötig, das Inhaltsverzeichnis mit HTML und Links zu erstellen?</t>
-  </si>
-  <si>
-    <t>benötigen wir Lizenzvereinbarung?</t>
-  </si>
-  <si>
-    <t>alles in 1 Dokument oder mehrere Dokumente?</t>
-  </si>
-  <si>
-    <t>nötig?</t>
-  </si>
-  <si>
-    <t>Was ist ein Extended Management Summary, Umfang? Struktur?</t>
-  </si>
-  <si>
-    <t>Video ohne Gerät? Gewichtung red.?</t>
-  </si>
-  <si>
-    <t>löschen?</t>
-  </si>
-  <si>
-    <t>ist Komplexität unseres Projektes gut, genügend?</t>
-  </si>
-  <si>
-    <t>kein Benutzerproblem</t>
-  </si>
-  <si>
-    <t>wir verkaufen nicht</t>
-  </si>
-  <si>
-    <t>keine Konkurrenz?</t>
-  </si>
-  <si>
-    <t>was heisst fokussiert? Wie viele Personas?</t>
-  </si>
-  <si>
-    <t>nicht optional</t>
-  </si>
-  <si>
-    <t>genügen Tickets im Redmine als Dokumentation?</t>
-  </si>
-  <si>
-    <t>Gewichtung?</t>
-  </si>
-  <si>
-    <t>löschen</t>
-  </si>
-  <si>
-    <t>Domain Model nötig?</t>
-  </si>
-  <si>
-    <t>Domain Analyse Daten, ist das nötig?</t>
-  </si>
-  <si>
-    <t>macht das Sinn?</t>
-  </si>
-  <si>
-    <t>Surface Guidelines, es sind nicht alle einhaltbar, können wir uns einschränken?</t>
-  </si>
-  <si>
-    <t>Wie sieht so eine Dokumentation aus?</t>
-  </si>
-  <si>
-    <t>was ist Ndepend? Visual Studio? Gewichtung fehlt</t>
-  </si>
-  <si>
-    <t>Visual Studio UML?</t>
-  </si>
-  <si>
-    <t>Unit Test für UI nicht sinnvoll?</t>
-  </si>
-  <si>
-    <t>alle NF Anforderungen?</t>
-  </si>
-  <si>
-    <t>gleich wie Punkt 2?</t>
-  </si>
-  <si>
-    <t>? Gewichtung?</t>
-  </si>
-  <si>
-    <t>SVN Checkout</t>
-  </si>
-  <si>
-    <t>VS auf Mac?</t>
-  </si>
-  <si>
-    <t>VS macht das, genügt das?</t>
-  </si>
-  <si>
-    <t>Resharper macht das, genügt das?</t>
+    <t>Visual Studio UML ok</t>
+  </si>
+  <si>
+    <t>Arch Decision = Architekturentscheidungen</t>
+  </si>
+  <si>
+    <t>0 als Gewichtung möglich</t>
+  </si>
+  <si>
+    <t>gelöscht da gleich wie Punkt 2</t>
+  </si>
+  <si>
+    <t>Tests durch Screenshots dokumentieren</t>
+  </si>
+  <si>
+    <t>Screenshot in Doku</t>
+  </si>
+  <si>
+    <t>Resharper ok, aber benutztes Profil beschreiben, Dokumentation mittels Screenshot</t>
+  </si>
+  <si>
+    <t>Installationsanleitung nur sofern HW bis dann vorhanden</t>
   </si>
 </sst>
 </file>
@@ -720,7 +641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,12 +782,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -901,6 +816,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Calibri"/>
@@ -1059,7 +998,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,26 +1120,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1218,18 +1151,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1255,14 +1176,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="123">
@@ -1390,7 +1335,25 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="113">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1544,46 +1507,16 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1608,7 +1541,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -1624,114 +1557,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1827,6 +1652,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1915,6 +1752,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2010,6 +1859,18 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2273,6 +2134,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2371,6 +2244,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2469,6 +2354,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2567,6 +2464,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2655,6 +2564,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2762,6 +2683,24 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF505050"/>
         <name val="Calibri"/>
@@ -2864,6 +2803,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2962,6 +2913,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3057,6 +3020,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3254,98 +3235,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A59:E65" totalsRowShown="0" headerRowDxfId="110" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A59:E65" totalsRowShown="0" headerRowDxfId="112" tableBorderDxfId="111">
   <autoFilter ref="A59:E65"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="108"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="107"/>
-    <tableColumn id="5" name="G" dataDxfId="106"/>
-    <tableColumn id="3" name="N" dataDxfId="105"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="18"/>
+    <tableColumn id="1" name="#" dataDxfId="110"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="109"/>
+    <tableColumn id="5" name="G" dataDxfId="108"/>
+    <tableColumn id="3" name="N" dataDxfId="107"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E34" totalsRowCount="1" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
-  <autoFilter ref="A4:E33"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="46" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="45" totalsRowDxfId="3"/>
-    <tableColumn id="6" name="G" dataDxfId="44" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="N" dataDxfId="43" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="9" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+  <autoFilter ref="A4:F33"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="39" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="38" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="N" dataDxfId="36" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A86:E92"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="39"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="38"/>
-    <tableColumn id="5" name="G" dataDxfId="37"/>
-    <tableColumn id="3" name="N" dataDxfId="36"/>
+    <tableColumn id="1" name="#" dataDxfId="32"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
+    <tableColumn id="5" name="G" dataDxfId="30"/>
+    <tableColumn id="3" name="N" dataDxfId="29"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A77:E82"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#" dataDxfId="24"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="23"/>
+    <tableColumn id="5" name="G" dataDxfId="22"/>
+    <tableColumn id="3" name="N" dataDxfId="21"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A137:E145"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#" dataDxfId="18"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="17"/>
+    <tableColumn id="5" name="G" dataDxfId="16"/>
+    <tableColumn id="3" name="N" dataDxfId="15"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A124:E134"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#" dataDxfId="12"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="11"/>
+    <tableColumn id="5" name="G" dataDxfId="10"/>
+    <tableColumn id="3" name="N" dataDxfId="9"/>
     <tableColumn id="4" name="Kommentar" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A77:E82"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="32"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
-    <tableColumn id="5" name="G" dataDxfId="30"/>
-    <tableColumn id="3" name="N" dataDxfId="29"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="A137:E145"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="27"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="26"/>
-    <tableColumn id="5" name="G" dataDxfId="25"/>
-    <tableColumn id="3" name="N" dataDxfId="24"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A124:E134"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="22"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="21"/>
-    <tableColumn id="5" name="G" dataDxfId="20"/>
-    <tableColumn id="3" name="N" dataDxfId="19"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="104" headerRowBorderDxfId="103" tableBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="104" tableBorderDxfId="103">
   <autoFilter ref="A36:E47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="101"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="100"/>
-    <tableColumn id="5" name="G" dataDxfId="99"/>
-    <tableColumn id="3" name="N" dataDxfId="98"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="17"/>
+    <tableColumn id="1" name="#" dataDxfId="102"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="101"/>
+    <tableColumn id="5" name="G" dataDxfId="100"/>
+    <tableColumn id="3" name="N" dataDxfId="99"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3359,91 +3341,91 @@
     <tableColumn id="2" name="Beschreibung" dataDxfId="93"/>
     <tableColumn id="5" name="G" dataDxfId="92"/>
     <tableColumn id="3" name="N" dataDxfId="91"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="16"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A106:E111" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88">
-  <autoFilter ref="A106:E111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A106:E110" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87">
+  <autoFilter ref="A106:E110"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="87"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="86"/>
-    <tableColumn id="5" name="G" dataDxfId="85"/>
-    <tableColumn id="3" name="N" dataDxfId="84"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="15"/>
+    <tableColumn id="1" name="#" dataDxfId="86"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="85"/>
+    <tableColumn id="5" name="G" dataDxfId="84"/>
+    <tableColumn id="3" name="N" dataDxfId="83"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A113:E121" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A113:E121" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79">
   <autoFilter ref="A113:E121"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="80"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="79"/>
-    <tableColumn id="5" name="G" dataDxfId="78"/>
-    <tableColumn id="3" name="N" dataDxfId="77"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="14"/>
+    <tableColumn id="1" name="#" dataDxfId="78"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="77"/>
+    <tableColumn id="5" name="G" dataDxfId="76"/>
+    <tableColumn id="3" name="N" dataDxfId="75"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A149:E163" totalsRowShown="0" headerRowDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A149:E163" totalsRowShown="0" headerRowDxfId="73">
   <autoFilter ref="A149:E163"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="75"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="74"/>
-    <tableColumn id="5" name="G" dataDxfId="73"/>
-    <tableColumn id="3" name="N" dataDxfId="72"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
+    <tableColumn id="1" name="#" dataDxfId="72"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="71"/>
+    <tableColumn id="5" name="G" dataDxfId="70"/>
+    <tableColumn id="3" name="N" dataDxfId="69"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A68:E73" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A68:E73" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65">
   <autoFilter ref="A68:E73"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="68"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="67"/>
-    <tableColumn id="5" name="G" dataDxfId="66"/>
-    <tableColumn id="3" name="N" dataDxfId="65"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="64"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="63"/>
+    <tableColumn id="5" name="G" dataDxfId="62"/>
+    <tableColumn id="3" name="N" dataDxfId="61"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62">
-  <autoFilter ref="A50:E57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E56" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57">
+  <autoFilter ref="A50:E56"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="61"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="60"/>
-    <tableColumn id="5" name="G" dataDxfId="59"/>
-    <tableColumn id="3" name="N" dataDxfId="58"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="11"/>
+    <tableColumn id="1" name="#" dataDxfId="56"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="55"/>
+    <tableColumn id="5" name="G" dataDxfId="54"/>
+    <tableColumn id="3" name="N" dataDxfId="53"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A166:E171" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
-  <autoFilter ref="A166:E171"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A166:E170" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
+  <autoFilter ref="A166:E170"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="54"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="53"/>
-    <tableColumn id="5" name="G" dataDxfId="52"/>
-    <tableColumn id="3" name="N" dataDxfId="51"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="10"/>
+    <tableColumn id="1" name="#" dataDxfId="48"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="47"/>
+    <tableColumn id="5" name="G" dataDxfId="46"/>
+    <tableColumn id="3" name="N" dataDxfId="45"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3741,46 +3723,50 @@
   </sheetPr>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>107</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E2" s="63"/>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="64">
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F3" s="74"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
@@ -3788,42 +3774,47 @@
         <v>1</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F4" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="31">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C5" s="40">
         <v>5</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F5" s="75"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="31">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C6" s="40">
         <v>5</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F6" s="75"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A7" s="31">
         <v>3</v>
       </c>
@@ -3834,403 +3825,409 @@
         <v>5</v>
       </c>
       <c r="D7" s="41"/>
-      <c r="E7" s="56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E7" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="75"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C8" s="40">
         <v>5</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
+      <c r="E8" s="43"/>
+      <c r="F8" s="76">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C9" s="40">
         <v>5</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E9" s="43"/>
+      <c r="F9" s="75"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="C10" s="40">
         <v>5</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E10" s="43"/>
+      <c r="F10" s="75"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="40">
         <v>5</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="40">
         <v>5</v>
       </c>
       <c r="D12" s="33"/>
-      <c r="E12" s="43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
+      <c r="E12" s="43"/>
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C13" s="40">
         <v>5</v>
       </c>
       <c r="D13" s="33"/>
-      <c r="E13" s="43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E13" s="43"/>
+      <c r="F13" s="75"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="40">
         <v>5</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+      <c r="F14" s="75"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C15" s="40">
         <v>5</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="E15" s="43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E15" s="43"/>
+      <c r="F15" s="75"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C16" s="40">
         <v>5</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="43"/>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F16" s="75"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="40">
         <v>5</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E17" s="43"/>
+      <c r="F17" s="75"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="5">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="40">
         <v>5</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E18" s="43"/>
+      <c r="F18" s="75"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="25">
         <v>15</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19" s="40">
         <v>5</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E19" s="42"/>
+      <c r="F19" s="75"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="30">
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" s="40">
         <v>5</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F20" s="75"/>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="25">
         <v>17</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="40">
         <v>5</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E21" s="43"/>
+      <c r="F21" s="75"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="25">
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="C22" s="40">
         <v>5</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+      <c r="F22" s="75"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="25">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>70</v>
+      <c r="B23" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C23" s="40">
         <v>5</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="43"/>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F23" s="75"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="25">
         <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" s="40">
         <v>5</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="43"/>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
+      <c r="F24" s="75"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="25">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C25" s="40">
         <v>5</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="43"/>
+      <c r="F25" s="75"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>22</v>
       </c>
-      <c r="B26" s="64" t="s">
-        <v>118</v>
+      <c r="B26" s="62" t="s">
+        <v>158</v>
       </c>
       <c r="C26" s="40">
         <v>5</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="71"/>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E26" s="65"/>
+      <c r="F26" s="75"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="25">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="C27" s="40">
         <v>5</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E27" s="43"/>
+      <c r="F27" s="75"/>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A28" s="25">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C28" s="40">
         <v>5</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>165</v>
+      </c>
+      <c r="F28" s="75"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A29" s="25">
         <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C29" s="40">
         <v>5</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="43"/>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F29" s="75"/>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A30" s="25">
         <v>26</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C30" s="40">
         <v>5</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>166</v>
+      </c>
+      <c r="F30" s="75"/>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A31" s="25">
         <v>27</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C31" s="40">
         <v>5</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="43"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F31" s="75"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A32" s="21">
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="40"/>
+        <v>108</v>
+      </c>
+      <c r="C32" s="40">
+        <v>5</v>
+      </c>
       <c r="D32" s="41"/>
-      <c r="E32" s="42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="61">
+      <c r="E32" s="42"/>
+      <c r="F32" s="75"/>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A33" s="59">
         <v>29</v>
       </c>
-      <c r="B33" s="62" t="s">
-        <v>120</v>
+      <c r="B33" s="60" t="s">
+        <v>160</v>
       </c>
       <c r="C33" s="40">
         <v>5</v>
       </c>
       <c r="D33" s="44"/>
-      <c r="E33" s="72"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="66"/>
+      <c r="F33" s="75"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="15"/>
       <c r="C34" s="45"/>
       <c r="D34" s="46"/>
       <c r="E34" s="47"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="64">
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>0</v>
       </c>
@@ -4238,16 +4235,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A37" s="14">
         <v>1</v>
       </c>
@@ -4259,40 +4256,41 @@
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>167</v>
+      </c>
+      <c r="F37" s="74"/>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A38" s="12">
         <v>2</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C38" s="32">
         <v>5</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E38" s="42"/>
+      <c r="F38" s="74"/>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A39" s="12">
         <v>3</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C39" s="32">
         <v>5</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F39" s="74"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>4</v>
       </c>
@@ -4305,12 +4303,12 @@
       <c r="D40" s="33"/>
       <c r="E40" s="43"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C41" s="32">
         <v>5</v>
@@ -4318,12 +4316,12 @@
       <c r="D41" s="33"/>
       <c r="E41" s="43"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C42" s="32">
         <v>5</v>
@@ -4331,12 +4329,12 @@
       <c r="D42" s="33"/>
       <c r="E42" s="43"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>7</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C43" s="32">
         <v>5</v>
@@ -4344,12 +4342,12 @@
       <c r="D43" s="33"/>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C44" s="32">
         <v>5</v>
@@ -4357,7 +4355,7 @@
       <c r="D44" s="33"/>
       <c r="E44" s="43"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>10</v>
       </c>
@@ -4370,12 +4368,12 @@
       <c r="D45" s="33"/>
       <c r="E45" s="43"/>
     </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C46" s="32">
         <v>5</v>
@@ -4383,7 +4381,7 @@
       <c r="D46" s="33"/>
       <c r="E46" s="43"/>
     </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>13</v>
       </c>
@@ -4395,17 +4393,18 @@
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F47" s="74"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="73"/>
-    </row>
-    <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E48" s="67"/>
+    </row>
+    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>9</v>
@@ -4414,12 +4413,12 @@
       <c r="D49" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="64">
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -4427,31 +4426,29 @@
         <v>1</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E50" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="34">
         <v>5</v>
       </c>
       <c r="D51" s="33"/>
-      <c r="E51" s="74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51" s="68"/>
+    </row>
+    <row r="52" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -4463,8 +4460,9 @@
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="38"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F52" s="74"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>3</v>
       </c>
@@ -4477,7 +4475,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="38"/>
     </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>4</v>
       </c>
@@ -4488,9 +4486,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="33"/>
-      <c r="E54" s="55"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E54" s="53"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>5</v>
       </c>
@@ -4503,7 +4502,7 @@
       <c r="D55" s="33"/>
       <c r="E55" s="38"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>6</v>
       </c>
@@ -4514,35 +4513,31 @@
         <v>5</v>
       </c>
       <c r="D56" s="33"/>
-      <c r="E56" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="59"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E56" s="43"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="67"/>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="64">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -4550,61 +4545,59 @@
         <v>1</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C60" s="38">
         <v>9</v>
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="38" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61" s="38">
         <v>5</v>
       </c>
       <c r="D61" s="33"/>
-      <c r="E61" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C62" s="38">
         <v>5</v>
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>4</v>
       </c>
@@ -4617,57 +4610,56 @@
       <c r="D63" s="33"/>
       <c r="E63" s="38"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C64" s="38">
         <v>5</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>6</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C65" s="38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="38"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="73"/>
-    </row>
-    <row r="67" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E66" s="67"/>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="70">
+      <c r="E67" s="64">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
@@ -4675,21 +4667,21 @@
         <v>1</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E68" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>1</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C69" s="34">
         <v>5</v>
@@ -4697,27 +4689,27 @@
       <c r="D69" s="33"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C70" s="34">
         <v>5</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C71" s="34">
         <v>5</v>
@@ -4725,7 +4717,7 @@
       <c r="D71" s="33"/>
       <c r="E71" s="38"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>4</v>
       </c>
@@ -4738,12 +4730,12 @@
       <c r="D72" s="33"/>
       <c r="E72" s="38"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C73" s="34">
         <v>5</v>
@@ -4751,32 +4743,33 @@
       <c r="D73" s="33"/>
       <c r="E73" s="38"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="73"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="67"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="73"/>
-    </row>
-    <row r="76" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E75" s="67"/>
+    </row>
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="70">
+      <c r="E76" s="64">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>0</v>
       </c>
@@ -4784,81 +4777,73 @@
         <v>1</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E77" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C78" s="34">
         <v>5</v>
       </c>
       <c r="D78" s="33"/>
-      <c r="E78" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="38"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" s="34">
         <v>5</v>
       </c>
       <c r="D79" s="33"/>
-      <c r="E79" s="38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="38"/>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C80" s="34">
         <v>5</v>
       </c>
       <c r="D80" s="33"/>
-      <c r="E80" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E80" s="38"/>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>4</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C81" s="34">
         <v>5</v>
       </c>
       <c r="D81" s="33"/>
-      <c r="E81" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E81" s="38"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" s="34">
         <v>5</v>
@@ -4866,29 +4851,30 @@
       <c r="D82" s="33"/>
       <c r="E82" s="38"/>
     </row>
-    <row r="84" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="75"/>
-    </row>
-    <row r="85" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E84" s="69"/>
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="70">
+      <c r="E85" s="64">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>0</v>
       </c>
@@ -4896,51 +4882,47 @@
         <v>1</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E86" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>1</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C87" s="38">
         <v>5</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E87" s="38"/>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C88" s="38">
         <v>5</v>
       </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E88" s="38"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="C89" s="38">
         <v>5</v>
@@ -4948,12 +4930,12 @@
       <c r="D89" s="33"/>
       <c r="E89" s="38"/>
     </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C90" s="38">
         <v>5</v>
@@ -4961,27 +4943,25 @@
       <c r="D90" s="33"/>
       <c r="E90" s="38"/>
     </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C91" s="38">
         <v>5</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="38"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C92" s="38">
         <v>5</v>
@@ -4989,29 +4969,30 @@
       <c r="D92" s="33"/>
       <c r="E92" s="38"/>
     </row>
-    <row r="93" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="75"/>
-    </row>
-    <row r="94" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E93" s="69"/>
+      <c r="F93" s="26"/>
+    </row>
+    <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="70">
+      <c r="E94" s="64">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>0</v>
       </c>
@@ -5019,51 +5000,47 @@
         <v>1</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E95" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>1</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C96" s="34">
         <v>5</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E96" s="38"/>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C97" s="34">
         <v>5</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E97" s="38"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C98" s="34">
         <v>5</v>
@@ -5071,50 +5048,46 @@
       <c r="D98" s="33"/>
       <c r="E98" s="38"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="34"/>
+        <v>132</v>
+      </c>
+      <c r="C99" s="34">
+        <v>5</v>
+      </c>
       <c r="D99" s="33"/>
-      <c r="E99" s="38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E99" s="38"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="C100" s="34">
         <v>0</v>
       </c>
       <c r="D100" s="33"/>
-      <c r="E100" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E100" s="38"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C101" s="34">
         <v>0</v>
       </c>
       <c r="D101" s="33"/>
-      <c r="E101" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E101" s="38"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>7</v>
       </c>
@@ -5126,15 +5099,15 @@
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C103" s="34">
         <v>5</v>
@@ -5142,29 +5115,30 @@
       <c r="D103" s="33"/>
       <c r="E103" s="38"/>
     </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="59"/>
+    <row r="104" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="57"/>
       <c r="C104" s="34"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="76"/>
-    </row>
-    <row r="105" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D104" s="58"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="26"/>
+    </row>
+    <row r="105" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="70">
+      <c r="E105" s="64">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>0</v>
       </c>
@@ -5172,49 +5146,47 @@
         <v>1</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E106" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>1</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C107" s="34">
         <v>5</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E107" s="38"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C108" s="34">
         <v>5</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="74"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E108" s="68"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C109" s="34">
         <v>5</v>
@@ -5222,47 +5194,43 @@
       <c r="D109" s="33"/>
       <c r="E109" s="38"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="C110" s="34">
         <v>5</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E110" s="38"/>
+    </row>
+    <row r="111" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="57"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="26"/>
+    </row>
+    <row r="112" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="70">
+      <c r="E112" s="64">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -5270,36 +5238,34 @@
         <v>1</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E113" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C114" s="34">
         <v>5</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E114" s="38"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C115" s="34">
         <v>5</v>
@@ -5307,7 +5273,7 @@
       <c r="D115" s="33"/>
       <c r="E115" s="38"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>3</v>
       </c>
@@ -5318,16 +5284,14 @@
         <v>5</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E116" s="38"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C117" s="34">
         <v>5</v>
@@ -5335,7 +5299,7 @@
       <c r="D117" s="33"/>
       <c r="E117" s="38"/>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>5</v>
       </c>
@@ -5346,26 +5310,22 @@
         <v>5</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E118" s="38"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C119" s="34">
         <v>5</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E119" s="38"/>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>7</v>
       </c>
@@ -5376,48 +5336,45 @@
         <v>5</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E120" s="38"/>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C121" s="34">
         <v>5</v>
       </c>
       <c r="D121" s="33"/>
-      <c r="E121" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E121" s="38"/>
+    </row>
+    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="75"/>
-    </row>
-    <row r="123" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E122" s="69"/>
+      <c r="F122" s="26"/>
+    </row>
+    <row r="123" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A123" s="23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="70">
+      <c r="E123" s="64">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>0</v>
       </c>
@@ -5425,64 +5382,60 @@
         <v>1</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E124" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>1</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C125" s="34">
         <v>5</v>
       </c>
       <c r="D125" s="33"/>
-      <c r="E125" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E125" s="38"/>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>2</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C126" s="34">
         <v>5</v>
       </c>
       <c r="D126" s="33"/>
-      <c r="E126" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E126" s="38"/>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C127" s="34"/>
       <c r="D127" s="33"/>
       <c r="E127" s="38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>4</v>
       </c>
-      <c r="B128" s="59" t="s">
-        <v>149</v>
+      <c r="B128" s="57" t="s">
+        <v>135</v>
       </c>
       <c r="C128" s="34">
         <v>5</v>
@@ -5490,37 +5443,37 @@
       <c r="D128" s="33"/>
       <c r="E128" s="38"/>
     </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>5</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C129" s="34">
         <v>5</v>
       </c>
       <c r="D129" s="33"/>
       <c r="E129" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>6</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C130" s="34">
         <v>5</v>
       </c>
       <c r="D130" s="33"/>
       <c r="E130" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>7</v>
       </c>
@@ -5531,26 +5484,22 @@
         <v>5</v>
       </c>
       <c r="D131" s="33"/>
-      <c r="E131" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E131" s="38"/>
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>8</v>
       </c>
-      <c r="B132" s="59" t="s">
-        <v>150</v>
+      <c r="B132" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="C132" s="34">
         <v>5</v>
       </c>
       <c r="D132" s="33"/>
-      <c r="E132" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E132" s="38"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>9</v>
       </c>
@@ -5563,7 +5512,7 @@
       <c r="D133" s="33"/>
       <c r="E133" s="38"/>
     </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="26">
         <v>10</v>
       </c>
@@ -5575,32 +5524,33 @@
       </c>
       <c r="D134" s="33"/>
       <c r="E134" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="75"/>
-    </row>
-    <row r="136" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E135" s="69"/>
+      <c r="F135" s="26"/>
+    </row>
+    <row r="136" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="70">
+      <c r="E136" s="64">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -5608,31 +5558,29 @@
         <v>1</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E137" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>1</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C138" s="34">
         <v>5</v>
       </c>
       <c r="D138" s="33"/>
-      <c r="E138" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E138" s="38"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>2</v>
       </c>
@@ -5645,12 +5593,12 @@
       <c r="D139" s="33"/>
       <c r="E139" s="38"/>
     </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>3</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C140" s="34">
         <v>5</v>
@@ -5658,55 +5606,53 @@
       <c r="D140" s="33"/>
       <c r="E140" s="38"/>
     </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>4</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C141" s="34">
         <v>5</v>
       </c>
       <c r="D141" s="33"/>
-      <c r="E141" s="38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>5</v>
-      </c>
-      <c r="B142" s="16" t="s">
+      <c r="E141" s="38"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="77">
+        <v>5</v>
+      </c>
+      <c r="B142" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="34">
-        <v>5</v>
-      </c>
-      <c r="D142" s="33"/>
-      <c r="E142" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C142" s="79">
+        <v>0</v>
+      </c>
+      <c r="D142" s="80"/>
+      <c r="E142" s="81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C143" s="34"/>
       <c r="D143" s="33"/>
       <c r="E143" s="38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C144" s="34">
         <v>5</v>
@@ -5714,7 +5660,7 @@
       <c r="D144" s="33"/>
       <c r="E144" s="38"/>
     </row>
-    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>8</v>
       </c>
@@ -5727,34 +5673,35 @@
       <c r="D145" s="33"/>
       <c r="E145" s="38"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="73"/>
-    </row>
-    <row r="147" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="67"/>
+    </row>
+    <row r="147" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="75"/>
-    </row>
-    <row r="148" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E147" s="69"/>
+      <c r="F147" s="26"/>
+    </row>
+    <row r="148" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A148" s="23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E148" s="70">
+      <c r="E148" s="64">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>0</v>
       </c>
@@ -5762,16 +5709,16 @@
         <v>1</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E149" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>1</v>
       </c>
@@ -5782,11 +5729,9 @@
         <v>5</v>
       </c>
       <c r="D150" s="33"/>
-      <c r="E150" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E150" s="38"/>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2</v>
       </c>
@@ -5798,15 +5743,15 @@
       </c>
       <c r="D151" s="33"/>
       <c r="E151" s="38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C152" s="34">
         <v>5</v>
@@ -5814,27 +5759,25 @@
       <c r="D152" s="33"/>
       <c r="E152" s="38"/>
     </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>4</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C153" s="34">
         <v>5</v>
       </c>
       <c r="D153" s="33"/>
-      <c r="E153" s="38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E153" s="38"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>5</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C154" s="34">
         <v>5</v>
@@ -5842,70 +5785,68 @@
       <c r="D154" s="33"/>
       <c r="E154" s="38"/>
     </row>
-    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C155" s="34">
         <v>5</v>
       </c>
       <c r="D155" s="33"/>
-      <c r="E155" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E155" s="53"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>7</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C156" s="34">
         <v>5</v>
       </c>
       <c r="D156" s="33"/>
       <c r="E156" s="38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C157" s="34">
         <v>5</v>
       </c>
       <c r="D157" s="33"/>
       <c r="E157" s="38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>9</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C158" s="34">
         <v>5</v>
       </c>
       <c r="D158" s="33"/>
-      <c r="E158" s="55"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E158" s="53"/>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>10</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C159" s="34">
         <v>5</v>
@@ -5913,27 +5854,25 @@
       <c r="D159" s="33"/>
       <c r="E159" s="38"/>
     </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>11</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C160" s="34">
         <v>5</v>
       </c>
       <c r="D160" s="33"/>
-      <c r="E160" s="38" t="s">
-        <v>208</v>
-      </c>
+      <c r="E160" s="38"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="63">
+      <c r="A161" s="61">
         <v>12</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C161" s="34">
         <v>5</v>
@@ -5946,7 +5885,7 @@
         <v>13</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C162" s="34">
         <v>5</v>
@@ -5959,33 +5898,31 @@
         <v>14</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C163" s="34">
         <v>5</v>
       </c>
       <c r="D163" s="33"/>
-      <c r="E163" s="38" t="s">
-        <v>208</v>
-      </c>
+      <c r="E163" s="38"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="73"/>
+      <c r="E164" s="67"/>
     </row>
     <row r="165" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E165" s="70">
+      <c r="E165" s="64">
         <f>SUMPRODUCT(Table15[G],Table15[N])/SUM(Table15[G])</f>
         <v>0</v>
       </c>
@@ -5998,16 +5935,16 @@
         <v>1</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E166" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -6019,110 +5956,103 @@
       </c>
       <c r="D167" s="33"/>
       <c r="E167" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C168" s="34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D168" s="33"/>
-      <c r="E168" s="38" t="s">
-        <v>181</v>
-      </c>
+      <c r="E168" s="38"/>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C169" s="34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D169" s="33"/>
-      <c r="E169" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E169" s="38"/>
+    </row>
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>4</v>
       </c>
-      <c r="B170" s="59" t="s">
-        <v>143</v>
+      <c r="B170" s="57" t="s">
+        <v>130</v>
       </c>
       <c r="C170" s="34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D170" s="33"/>
-      <c r="E170" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="59"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="66"/>
-      <c r="E171" s="73"/>
-    </row>
-    <row r="173" spans="1:6" s="58" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="E173" s="77"/>
-      <c r="F173" s="58" t="s">
-        <v>104</v>
+      <c r="E170" s="38"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="67"/>
+    </row>
+    <row r="173" spans="1:6" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E173" s="71"/>
+      <c r="F173" s="74" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A174" s="24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C174" s="27"/>
       <c r="D174" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E174" s="70">
+      <c r="E174" s="64">
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="50" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E176" s="78">
+      <c r="E176" s="72">
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
-      <c r="F176" s="52">
+      <c r="F176" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="50" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>9</v>
@@ -6131,30 +6061,30 @@
       <c r="D177" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="78">
+      <c r="E177" s="72">
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
-      <c r="F177" s="52">
+      <c r="F177" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="50" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="78">
+      <c r="E178" s="72">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-      <c r="F178" s="52">
+      <c r="F178" s="74">
         <v>3</v>
       </c>
     </row>
@@ -6163,202 +6093,202 @@
         <v>2</v>
       </c>
       <c r="B179" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E179" s="79">
+        <v>99</v>
+      </c>
+      <c r="E179" s="73">
         <f>SUMPRODUCT(F176:F178,E176:E178)/SUM(F176:F178)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="53">
+      <c r="F179" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="50" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E181" s="78">
+      <c r="E181" s="72">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
-      <c r="F181" s="52">
+      <c r="F181" s="74">
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="50" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E182" s="78">
+      <c r="E182" s="72">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
-      <c r="F182" s="52">
+      <c r="F182" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="50" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="78">
+      <c r="E183" s="72">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
-      <c r="F183" s="52">
+      <c r="F183" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="50" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="78">
+      <c r="E184" s="72">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
-      <c r="F184" s="52">
+      <c r="F184" s="74">
         <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="50" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E185" s="78">
+      <c r="E185" s="72">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
-      <c r="F185" s="52">
+      <c r="F185" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="50" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E186" s="78">
+      <c r="E186" s="72">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
-      <c r="F186" s="52">
+      <c r="F186" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="50" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E187" s="78">
+      <c r="E187" s="72">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
-      <c r="F187" s="52">
+      <c r="F187" s="74">
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="50" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E188" s="78">
+      <c r="E188" s="72">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
-      <c r="F188" s="52">
+      <c r="F188" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="50" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E189" s="78">
+      <c r="E189" s="72">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
-      <c r="F189" s="52">
+      <c r="F189" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="50" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C190" s="54"/>
+        <v>75</v>
+      </c>
+      <c r="C190" s="52"/>
       <c r="D190" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E190" s="78">
+      <c r="E190" s="72">
         <v>0</v>
       </c>
-      <c r="F190" s="52">
+      <c r="F190" s="74">
         <v>0</v>
       </c>
     </row>
@@ -6367,38 +6297,38 @@
         <v>2</v>
       </c>
       <c r="B191" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E191" s="79">
+        <v>99</v>
+      </c>
+      <c r="E191" s="73">
         <f>SUMPRODUCT(F181:F190,E181:E190)/SUM(F181:F190)</f>
         <v>0</v>
       </c>
-      <c r="F191" s="53">
+      <c r="F191" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>111</v>
-      </c>
-      <c r="E194" s="64">
+        <v>103</v>
+      </c>
+      <c r="E194" s="62">
         <f>((E174*F174)+E179*F179+E191*F191)/(F174+F179+F191)</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -370,9 +370,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
   </si>
   <si>
     <t>Installationsanleitung nur sofern HW bis dann vorhanden</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,6 +1208,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="123">
@@ -1338,6 +1341,37 @@
   <dxfs count="113">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1352,7 +1386,414 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1383,140 +1824,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1552,18 +1859,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1579,396 +1874,19 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <left/>
+        <right/>
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2019,7 +1937,62 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2051,6 +2024,36 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3252,34 +3255,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="39" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="38" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="N" dataDxfId="36" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="6" name="G" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" name="N" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="29" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A86:E92"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="32"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
-    <tableColumn id="5" name="G" dataDxfId="30"/>
-    <tableColumn id="3" name="N" dataDxfId="29"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="28"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A77:E82"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="24"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="23"/>
@@ -3291,29 +3280,43 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A77:E82"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#" dataDxfId="16"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
+    <tableColumn id="5" name="G" dataDxfId="14"/>
+    <tableColumn id="3" name="N" dataDxfId="13"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A137:E145"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="18"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="17"/>
-    <tableColumn id="5" name="G" dataDxfId="16"/>
-    <tableColumn id="3" name="N" dataDxfId="15"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="14"/>
+    <tableColumn id="1" name="#" dataDxfId="10"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="5" name="G" dataDxfId="8"/>
+    <tableColumn id="3" name="N" dataDxfId="7"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A124:E134"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="12"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="11"/>
-    <tableColumn id="5" name="G" dataDxfId="10"/>
-    <tableColumn id="3" name="N" dataDxfId="9"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="8"/>
+    <tableColumn id="1" name="#" dataDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="5" name="G" dataDxfId="2"/>
+    <tableColumn id="3" name="N" dataDxfId="1"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3723,23 +3726,23 @@
   </sheetPr>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="2" max="2" width="120.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" style="62" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="63"/>
       <c r="F1" s="74"/>
@@ -3777,13 +3780,13 @@
         <v>95</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
@@ -3791,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="40">
         <v>5</v>
@@ -3805,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="40">
         <v>5</v>
@@ -3814,7 +3817,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="75"/>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="31">
         <v>3</v>
       </c>
@@ -3826,7 +3829,7 @@
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="75"/>
     </row>
@@ -3835,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="40">
         <v>5</v>
@@ -3846,12 +3849,12 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="40">
         <v>5</v>
@@ -3865,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="40">
         <v>5</v>
@@ -3902,12 +3905,12 @@
       <c r="E12" s="43"/>
       <c r="F12" s="75"/>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="40">
         <v>5</v>
@@ -3928,7 +3931,7 @@
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" s="75"/>
     </row>
@@ -3937,7 +3940,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="40">
         <v>5</v>
@@ -3951,7 +3954,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="40">
         <v>5</v>
@@ -4035,14 +4038,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="40">
         <v>5</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="75"/>
     </row>
@@ -4051,7 +4054,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="40">
         <v>5</v>
@@ -4079,7 +4082,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="40">
         <v>5</v>
@@ -4093,7 +4096,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="40">
         <v>5</v>
@@ -4107,7 +4110,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="40">
         <v>5</v>
@@ -4121,14 +4124,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="40">
         <v>5</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" s="75"/>
     </row>
@@ -4158,7 +4161,7 @@
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="75"/>
     </row>
@@ -4181,7 +4184,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="40">
         <v>5</v>
@@ -4195,7 +4198,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <v>5</v>
@@ -4238,7 +4241,7 @@
         <v>95</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>3</v>
@@ -4256,7 +4259,7 @@
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="74"/>
     </row>
@@ -4265,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="32">
         <v>5</v>
@@ -4274,19 +4277,19 @@
       <c r="E38" s="42"/>
       <c r="F38" s="74"/>
     </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="12">
         <v>3</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="32">
         <v>5</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="74"/>
     </row>
@@ -4316,12 +4319,12 @@
       <c r="D41" s="33"/>
       <c r="E41" s="43"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="32">
         <v>5</v>
@@ -4342,12 +4345,12 @@
       <c r="D43" s="33"/>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="32">
         <v>5</v>
@@ -4368,12 +4371,12 @@
       <c r="D45" s="33"/>
       <c r="E45" s="43"/>
     </row>
-    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="32">
         <v>5</v>
@@ -4393,7 +4396,7 @@
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F47" s="74"/>
     </row>
@@ -4429,7 +4432,7 @@
         <v>95</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" s="35" t="s">
         <v>3</v>
@@ -4448,7 +4451,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="68"/>
     </row>
-    <row r="52" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -4475,7 +4478,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="38"/>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>4</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>95</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>3</v>
@@ -4566,7 +4569,7 @@
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4587,14 +4590,14 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="38">
         <v>5</v>
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4615,14 +4618,14 @@
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="38">
         <v>5</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4670,7 +4673,7 @@
         <v>95</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="35" t="s">
         <v>3</v>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4735,7 +4738,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="34">
         <v>5</v>
@@ -4780,7 +4783,7 @@
         <v>95</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E77" s="35" t="s">
         <v>3</v>
@@ -4812,12 +4815,12 @@
       <c r="D79" s="33"/>
       <c r="E79" s="38"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" s="34">
         <v>5</v>
@@ -4838,7 +4841,7 @@
       <c r="D81" s="33"/>
       <c r="E81" s="38"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>5</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>95</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E86" s="35" t="s">
         <v>3</v>
@@ -4904,12 +4907,12 @@
       <c r="D87" s="33"/>
       <c r="E87" s="38"/>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" s="38">
         <v>5</v>
@@ -4922,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89" s="38">
         <v>5</v>
@@ -4948,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" s="38">
         <v>5</v>
@@ -5003,7 +5006,7 @@
         <v>95</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E95" s="35" t="s">
         <v>3</v>
@@ -5022,12 +5025,12 @@
       <c r="D96" s="33"/>
       <c r="E96" s="38"/>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="34">
         <v>5</v>
@@ -5040,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C98" s="34">
         <v>5</v>
@@ -5053,7 +5056,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="34">
         <v>5</v>
@@ -5066,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="34">
         <v>0</v>
@@ -5099,7 +5102,7 @@
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5107,7 +5110,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="34">
         <v>5</v>
@@ -5127,7 +5130,7 @@
         <v>81</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="28" t="s">
@@ -5149,7 +5152,7 @@
         <v>95</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E106" s="35" t="s">
         <v>3</v>
@@ -5186,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="34">
         <v>5</v>
@@ -5199,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" s="34">
         <v>5</v>
@@ -5216,10 +5219,10 @@
     </row>
     <row r="112" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="28" t="s">
@@ -5241,7 +5244,7 @@
         <v>95</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E113" s="35" t="s">
         <v>3</v>
@@ -5265,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" s="34">
         <v>5</v>
@@ -5317,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="34">
         <v>5</v>
@@ -5325,7 +5328,7 @@
       <c r="D119" s="33"/>
       <c r="E119" s="38"/>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>7</v>
       </c>
@@ -5338,12 +5341,12 @@
       <c r="D120" s="33"/>
       <c r="E120" s="38"/>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="34">
         <v>5</v>
@@ -5385,7 +5388,7 @@
         <v>95</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E124" s="35" t="s">
         <v>3</v>
@@ -5404,7 +5407,7 @@
       <c r="D125" s="33"/>
       <c r="E125" s="38"/>
     </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>2</v>
       </c>
@@ -5422,12 +5425,12 @@
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="34"/>
       <c r="D127" s="33"/>
       <c r="E127" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5435,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="B128" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="34">
         <v>5</v>
@@ -5455,10 +5458,10 @@
       </c>
       <c r="D129" s="33"/>
       <c r="E129" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>6</v>
       </c>
@@ -5470,10 +5473,10 @@
       </c>
       <c r="D130" s="33"/>
       <c r="E130" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>7</v>
       </c>
@@ -5486,12 +5489,12 @@
       <c r="D131" s="33"/>
       <c r="E131" s="38"/>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>8</v>
       </c>
       <c r="B132" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" s="34">
         <v>5</v>
@@ -5524,7 +5527,7 @@
       </c>
       <c r="D134" s="33"/>
       <c r="E134" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5561,7 +5564,7 @@
         <v>95</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E137" s="35" t="s">
         <v>3</v>
@@ -5631,7 +5634,7 @@
       </c>
       <c r="D142" s="80"/>
       <c r="E142" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5639,12 +5642,12 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="34"/>
       <c r="D143" s="33"/>
       <c r="E143" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5652,7 +5655,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C144" s="34">
         <v>5</v>
@@ -5712,7 +5715,7 @@
         <v>95</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E149" s="35" t="s">
         <v>3</v>
@@ -5731,7 +5734,7 @@
       <c r="D150" s="33"/>
       <c r="E150" s="38"/>
     </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2</v>
       </c>
@@ -5743,7 +5746,7 @@
       </c>
       <c r="D151" s="33"/>
       <c r="E151" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5777,7 +5780,7 @@
         <v>5</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C154" s="34">
         <v>5</v>
@@ -5785,12 +5788,12 @@
       <c r="D154" s="33"/>
       <c r="E154" s="38"/>
     </row>
-    <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C155" s="34">
         <v>5</v>
@@ -5810,22 +5813,22 @@
       </c>
       <c r="D156" s="33"/>
       <c r="E156" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C157" s="34">
         <v>5</v>
       </c>
       <c r="D157" s="33"/>
       <c r="E157" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5846,7 +5849,7 @@
         <v>10</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C159" s="34">
         <v>5</v>
@@ -5872,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C161" s="34">
         <v>5</v>
@@ -5880,12 +5883,12 @@
       <c r="D161" s="33"/>
       <c r="E161" s="38"/>
     </row>
-    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
         <v>13</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C162" s="34">
         <v>5</v>
@@ -5898,7 +5901,7 @@
         <v>14</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C163" s="34">
         <v>5</v>
@@ -5938,13 +5941,13 @@
         <v>95</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E166" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -5956,15 +5959,15 @@
       </c>
       <c r="D167" s="33"/>
       <c r="E167" s="38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C168" s="34">
         <v>0</v>
@@ -5972,7 +5975,7 @@
       <c r="D168" s="33"/>
       <c r="E168" s="38"/>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>3</v>
       </c>
@@ -5985,12 +5988,12 @@
       <c r="D169" s="33"/>
       <c r="E169" s="38"/>
     </row>
-    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>4</v>
       </c>
       <c r="B170" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" s="34">
         <v>0</v>
@@ -6005,11 +6008,11 @@
     </row>
     <row r="173" spans="1:6" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A173" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E173" s="71"/>
-      <c r="F173" s="74" t="s">
-        <v>96</v>
+      <c r="F173" s="82" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -6027,9 +6030,12 @@
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
-      <c r="F174" s="74">
+      <c r="F174" s="82">
         <v>1</v>
       </c>
+    </row>
+    <row r="175" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F175" s="82"/>
     </row>
     <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="50" t="s">
@@ -6046,7 +6052,7 @@
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
-      <c r="F176" s="74">
+      <c r="F176" s="82">
         <v>3</v>
       </c>
     </row>
@@ -6065,7 +6071,7 @@
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
-      <c r="F177" s="74">
+      <c r="F177" s="82">
         <v>3</v>
       </c>
     </row>
@@ -6084,7 +6090,7 @@
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-      <c r="F178" s="74">
+      <c r="F178" s="82">
         <v>3</v>
       </c>
     </row>
@@ -6093,15 +6099,18 @@
         <v>2</v>
       </c>
       <c r="B179" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E179" s="73">
         <f>SUMPRODUCT(F176:F178,E176:E178)/SUM(F176:F178)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="74">
+      <c r="F179" s="82">
         <v>1</v>
       </c>
+    </row>
+    <row r="180" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F180" s="82"/>
     </row>
     <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="50" t="s">
@@ -6118,7 +6127,7 @@
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
-      <c r="F181" s="74">
+      <c r="F181" s="82">
         <v>4</v>
       </c>
     </row>
@@ -6137,7 +6146,7 @@
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
-      <c r="F182" s="74">
+      <c r="F182" s="82">
         <v>2</v>
       </c>
     </row>
@@ -6156,7 +6165,7 @@
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
-      <c r="F183" s="74">
+      <c r="F183" s="82">
         <v>2</v>
       </c>
     </row>
@@ -6175,7 +6184,7 @@
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
-      <c r="F184" s="74">
+      <c r="F184" s="82">
         <v>6</v>
       </c>
     </row>
@@ -6184,7 +6193,7 @@
         <v>81</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="51" t="s">
@@ -6194,16 +6203,16 @@
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
-      <c r="F185" s="74">
+      <c r="F185" s="82">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="51" t="s">
@@ -6213,7 +6222,7 @@
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
-      <c r="F186" s="74">
+      <c r="F186" s="82">
         <v>3</v>
       </c>
     </row>
@@ -6232,7 +6241,7 @@
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
-      <c r="F187" s="74">
+      <c r="F187" s="82">
         <v>6</v>
       </c>
     </row>
@@ -6251,7 +6260,7 @@
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
-      <c r="F188" s="74">
+      <c r="F188" s="82">
         <v>2</v>
       </c>
     </row>
@@ -6270,7 +6279,7 @@
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
-      <c r="F189" s="74">
+      <c r="F189" s="82">
         <v>2</v>
       </c>
     </row>
@@ -6288,7 +6297,7 @@
       <c r="E190" s="72">
         <v>0</v>
       </c>
-      <c r="F190" s="74">
+      <c r="F190" s="82">
         <v>0</v>
       </c>
     </row>
@@ -6297,38 +6306,45 @@
         <v>2</v>
       </c>
       <c r="B191" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E191" s="73">
         <f>SUMPRODUCT(F181:F190,E181:E190)/SUM(F181:F190)</f>
         <v>0</v>
       </c>
-      <c r="F191" s="74">
+      <c r="F191" s="82">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F192" s="82"/>
+    </row>
+    <row r="193" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F193" s="82"/>
+    </row>
+    <row r="194" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E194" s="62">
         <f>((E174*F174)+E179*F179+E191*F191)/(F174+F179+F191)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="82"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -1214,67 +1214,67 @@
     </xf>
   </cellXfs>
   <cellStyles count="123">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1336,42 +1336,11 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="113">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1386,414 +1355,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1824,6 +1386,560 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1855,37 +1971,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1937,62 +2022,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2024,36 +2054,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3255,34 +3255,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" name="G" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" name="N" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="1" name="#" dataDxfId="39" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="38" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="N" dataDxfId="36" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="35" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="34" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A86:E92"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="24"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="23"/>
-    <tableColumn id="5" name="G" dataDxfId="22"/>
-    <tableColumn id="3" name="N" dataDxfId="21"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="20"/>
+    <tableColumn id="1" name="#" dataDxfId="30"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="29"/>
+    <tableColumn id="5" name="G" dataDxfId="28"/>
+    <tableColumn id="3" name="N" dataDxfId="27"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A77:E82"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#" dataDxfId="22"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="21"/>
+    <tableColumn id="5" name="G" dataDxfId="20"/>
+    <tableColumn id="3" name="N" dataDxfId="19"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A137:E145"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="16"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
@@ -3294,29 +3308,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A137:E145"/>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A124:E134"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="10"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
     <tableColumn id="5" name="G" dataDxfId="8"/>
     <tableColumn id="3" name="N" dataDxfId="7"/>
     <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A124:E134"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="5" name="G" dataDxfId="2"/>
-    <tableColumn id="3" name="N" dataDxfId="1"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3435,9 +3435,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3475,7 +3475,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3547,7 +3547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3726,11 +3726,11 @@
   </sheetPr>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
@@ -4091,7 +4091,7 @@
       <c r="E25" s="43"/>
       <c r="F25" s="75"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>22</v>
       </c>
@@ -6384,7 +6384,7 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -641,7 +641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +846,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -998,7 +1004,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,9 +1115,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1210,6 +1213,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3727,7 +3742,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,21 +3751,21 @@
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="74"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="74"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="24" t="s">
@@ -3763,11 +3778,11 @@
       <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="63">
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="29" t="s">
@@ -3801,7 +3816,7 @@
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="75"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="31">
@@ -3815,7 +3830,7 @@
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="42"/>
-      <c r="F6" s="75"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="31">
@@ -3828,10 +3843,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="41"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5">
@@ -3845,7 +3860,7 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="43"/>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>40812</v>
       </c>
     </row>
@@ -3861,7 +3876,9 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="75"/>
+      <c r="F9" s="75">
+        <v>40819</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
@@ -3875,7 +3892,9 @@
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="43"/>
-      <c r="F10" s="75"/>
+      <c r="F10" s="75">
+        <v>40819</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
@@ -3889,7 +3908,9 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="75"/>
+      <c r="F11" s="75">
+        <v>40819</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="5">
@@ -3903,7 +3924,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="75"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="5">
@@ -3917,7 +3938,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="43"/>
-      <c r="F13" s="75"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="5">
@@ -3933,7 +3954,7 @@
       <c r="E14" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
@@ -3947,7 +3968,7 @@
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="75"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
@@ -3961,7 +3982,7 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="75"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="5">
@@ -3975,7 +3996,7 @@
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="75"/>
+      <c r="F17" s="74"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="5">
@@ -3989,7 +4010,7 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="75"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="25">
@@ -4003,7 +4024,7 @@
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="75"/>
+      <c r="F19" s="74"/>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="30">
@@ -4017,7 +4038,7 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="75"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="25">
@@ -4031,7 +4052,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="75"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="25">
@@ -4047,7 +4068,7 @@
       <c r="E22" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="74"/>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="25">
@@ -4061,7 +4082,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="75"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="25">
@@ -4075,7 +4096,7 @@
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="75"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="25">
@@ -4089,21 +4110,21 @@
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="43"/>
-      <c r="F25" s="75"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>22</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="61" t="s">
         <v>157</v>
       </c>
       <c r="C26" s="40">
         <v>5</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="75"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="25">
@@ -4117,7 +4138,7 @@
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="75"/>
+      <c r="F27" s="74"/>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A28" s="25">
@@ -4133,7 +4154,7 @@
       <c r="E28" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A29" s="25">
@@ -4147,7 +4168,7 @@
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="75"/>
+      <c r="F29" s="74"/>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A30" s="25">
@@ -4163,7 +4184,7 @@
       <c r="E30" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="75"/>
+      <c r="F30" s="74"/>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A31" s="25">
@@ -4177,7 +4198,7 @@
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="75"/>
+      <c r="F31" s="74"/>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A32" s="21">
@@ -4191,28 +4212,29 @@
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="75"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="59">
+      <c r="A33" s="58">
         <v>29</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>159</v>
       </c>
       <c r="C33" s="40">
         <v>5</v>
       </c>
       <c r="D33" s="44"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="75"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="74"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
@@ -4224,7 +4246,7 @@
       <c r="D35" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="63">
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
@@ -4258,10 +4280,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="33"/>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="74"/>
+      <c r="F37" s="73"/>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A38" s="12">
@@ -4275,7 +4297,7 @@
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="74"/>
+      <c r="F38" s="73"/>
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="12">
@@ -4291,7 +4313,7 @@
       <c r="E39" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="74"/>
+      <c r="F39" s="73"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -4398,12 +4420,12 @@
       <c r="E47" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="74"/>
+      <c r="F47" s="73"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="67"/>
+      <c r="E48" s="66"/>
     </row>
     <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
@@ -4416,7 +4438,7 @@
       <c r="D49" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="63">
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
@@ -4449,7 +4471,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="33"/>
-      <c r="E51" s="68"/>
+      <c r="E51" s="67"/>
     </row>
     <row r="52" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
@@ -4463,7 +4485,7 @@
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="38"/>
-      <c r="F52" s="74"/>
+      <c r="F52" s="73"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -4489,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="33"/>
-      <c r="E54" s="53"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4521,7 +4543,7 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="67"/>
+      <c r="E57" s="66"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
@@ -4534,7 +4556,7 @@
       <c r="D58" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="64">
+      <c r="E58" s="63">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
@@ -4644,7 +4666,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="67"/>
+      <c r="E66" s="66"/>
     </row>
     <row r="67" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
@@ -4656,7 +4678,7 @@
       <c r="D67" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="63">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
@@ -4749,12 +4771,12 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="67"/>
+      <c r="E74" s="66"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="67"/>
+      <c r="E75" s="66"/>
     </row>
     <row r="76" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
@@ -4766,7 +4788,7 @@
       <c r="D76" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="64">
+      <c r="E76" s="63">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
@@ -4858,7 +4880,7 @@
       <c r="B84"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="69"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="26"/>
     </row>
     <row r="85" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -4872,7 +4894,7 @@
       <c r="D85" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="64">
+      <c r="E85" s="63">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
@@ -4976,7 +4998,7 @@
       <c r="B93"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="69"/>
+      <c r="E93" s="68"/>
       <c r="F93" s="26"/>
     </row>
     <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -4990,7 +5012,7 @@
       <c r="D94" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="64">
+      <c r="E94" s="63">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
@@ -5119,10 +5141,10 @@
       <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="34"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="70"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="69"/>
       <c r="F104" s="26"/>
     </row>
     <row r="105" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -5136,7 +5158,7 @@
       <c r="D105" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="64">
+      <c r="E105" s="63">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
@@ -5182,7 +5204,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="68"/>
+      <c r="E108" s="67"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -5211,10 +5233,10 @@
       <c r="E110" s="38"/>
     </row>
     <row r="111" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="34"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="70"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="69"/>
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -5228,7 +5250,7 @@
       <c r="D112" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="64">
+      <c r="E112" s="63">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
@@ -5358,7 +5380,7 @@
       <c r="B122"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="69"/>
+      <c r="E122" s="68"/>
       <c r="F122" s="26"/>
     </row>
     <row r="123" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -5372,7 +5394,7 @@
       <c r="D123" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="64">
+      <c r="E123" s="63">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
@@ -5437,7 +5459,7 @@
       <c r="A128" s="9">
         <v>4</v>
       </c>
-      <c r="B128" s="57" t="s">
+      <c r="B128" s="56" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="34">
@@ -5493,7 +5515,7 @@
       <c r="A132" s="5">
         <v>8</v>
       </c>
-      <c r="B132" s="57" t="s">
+      <c r="B132" s="56" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="34">
@@ -5534,7 +5556,7 @@
       <c r="B135"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="69"/>
+      <c r="E135" s="68"/>
       <c r="F135" s="26"/>
     </row>
     <row r="136" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -5548,7 +5570,7 @@
       <c r="D136" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="64">
+      <c r="E136" s="63">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
@@ -5623,17 +5645,17 @@
       <c r="E141" s="38"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="77">
-        <v>5</v>
-      </c>
-      <c r="B142" s="78" t="s">
+      <c r="A142" s="76">
+        <v>5</v>
+      </c>
+      <c r="B142" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="79">
+      <c r="C142" s="78">
         <v>0</v>
       </c>
-      <c r="D142" s="80"/>
-      <c r="E142" s="81" t="s">
+      <c r="D142" s="79"/>
+      <c r="E142" s="80" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5679,13 +5701,13 @@
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="67"/>
+      <c r="E146" s="66"/>
     </row>
     <row r="147" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="69"/>
+      <c r="E147" s="68"/>
       <c r="F147" s="26"/>
     </row>
     <row r="148" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -5699,7 +5721,7 @@
       <c r="D148" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E148" s="64">
+      <c r="E148" s="63">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
@@ -5799,7 +5821,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="33"/>
-      <c r="E155" s="53"/>
+      <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
@@ -5842,7 +5864,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="33"/>
-      <c r="E158" s="53"/>
+      <c r="E158" s="52"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
@@ -5871,7 +5893,7 @@
       <c r="E160" s="38"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="61">
+      <c r="A161" s="60">
         <v>12</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -5912,7 +5934,7 @@
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="67"/>
+      <c r="E164" s="66"/>
     </row>
     <row r="165" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
@@ -5925,7 +5947,7 @@
       <c r="D165" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E165" s="64">
+      <c r="E165" s="63">
         <f>SUMPRODUCT(Table15[G],Table15[N])/SUM(Table15[G])</f>
         <v>0</v>
       </c>
@@ -5992,7 +6014,7 @@
       <c r="A170" s="9">
         <v>4</v>
       </c>
-      <c r="B170" s="57" t="s">
+      <c r="B170" s="56" t="s">
         <v>129</v>
       </c>
       <c r="C170" s="34">
@@ -6004,14 +6026,14 @@
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
-      <c r="E171" s="67"/>
-    </row>
-    <row r="173" spans="1:6" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="55" t="s">
+      <c r="E171" s="66"/>
+    </row>
+    <row r="173" spans="1:6" s="55" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E173" s="71"/>
-      <c r="F173" s="82" t="s">
+      <c r="E173" s="70"/>
+      <c r="F173" s="81" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6026,311 +6048,311 @@
       <c r="D174" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E174" s="64">
+      <c r="E174" s="63">
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
-      <c r="F174" s="82">
+      <c r="F174" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F175" s="82"/>
+      <c r="F175" s="81"/>
     </row>
     <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="50" t="s">
+      <c r="A176" s="49" t="s">
         <v>87</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="10"/>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E176" s="72">
+      <c r="E176" s="71">
         <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
-      <c r="F176" s="82">
+      <c r="F176" s="81">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A177" s="50" t="s">
+      <c r="A177" s="49" t="s">
         <v>88</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="10"/>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="72">
+      <c r="E177" s="71">
         <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
         <v>0</v>
       </c>
-      <c r="F177" s="82">
+      <c r="F177" s="81">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A178" s="50" t="s">
+      <c r="A178" s="49" t="s">
         <v>89</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C178" s="10"/>
-      <c r="D178" s="51" t="s">
+      <c r="D178" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="72">
+      <c r="E178" s="71">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-      <c r="F178" s="82">
+      <c r="F178" s="81">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A179" s="48">
+      <c r="A179" s="47">
         <v>2</v>
       </c>
-      <c r="B179" s="49" t="s">
+      <c r="B179" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E179" s="73">
+      <c r="E179" s="72">
         <f>SUMPRODUCT(F176:F178,E176:E178)/SUM(F176:F178)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="82">
+      <c r="F179" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F180" s="82"/>
+      <c r="F180" s="81"/>
     </row>
     <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A181" s="50" t="s">
+      <c r="A181" s="49" t="s">
         <v>77</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C181" s="10"/>
-      <c r="D181" s="51" t="s">
+      <c r="D181" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E181" s="72">
+      <c r="E181" s="71">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
-      <c r="F181" s="82">
+      <c r="F181" s="81">
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182" s="50" t="s">
+      <c r="A182" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C182" s="10"/>
-      <c r="D182" s="51" t="s">
+      <c r="D182" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E182" s="72">
+      <c r="E182" s="71">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
-      <c r="F182" s="82">
+      <c r="F182" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="50" t="s">
+      <c r="A183" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C183" s="10"/>
-      <c r="D183" s="51" t="s">
+      <c r="D183" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="72">
+      <c r="E183" s="71">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
-      <c r="F183" s="82">
+      <c r="F183" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A184" s="50" t="s">
+      <c r="A184" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C184" s="10"/>
-      <c r="D184" s="51" t="s">
+      <c r="D184" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="72">
+      <c r="E184" s="71">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
-      <c r="F184" s="82">
+      <c r="F184" s="81">
         <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A185" s="50" t="s">
+      <c r="A185" s="49" t="s">
         <v>81</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C185" s="10"/>
-      <c r="D185" s="51" t="s">
+      <c r="D185" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E185" s="72">
+      <c r="E185" s="71">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
-      <c r="F185" s="82">
+      <c r="F185" s="81">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A186" s="50" t="s">
+      <c r="A186" s="49" t="s">
         <v>99</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C186" s="10"/>
-      <c r="D186" s="51" t="s">
+      <c r="D186" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E186" s="72">
+      <c r="E186" s="71">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
-      <c r="F186" s="82">
+      <c r="F186" s="81">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A187" s="50" t="s">
+      <c r="A187" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C187" s="10"/>
-      <c r="D187" s="51" t="s">
+      <c r="D187" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E187" s="72">
+      <c r="E187" s="71">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
-      <c r="F187" s="82">
+      <c r="F187" s="81">
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A188" s="50" t="s">
+      <c r="A188" s="49" t="s">
         <v>83</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C188" s="10"/>
-      <c r="D188" s="51" t="s">
+      <c r="D188" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E188" s="72">
+      <c r="E188" s="71">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
-      <c r="F188" s="82">
+      <c r="F188" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A189" s="50" t="s">
+      <c r="A189" s="49" t="s">
         <v>84</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C189" s="10"/>
-      <c r="D189" s="51" t="s">
+      <c r="D189" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E189" s="72">
+      <c r="E189" s="71">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
-      <c r="F189" s="82">
+      <c r="F189" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A190" s="50" t="s">
+      <c r="A190" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C190" s="52"/>
-      <c r="D190" s="51" t="s">
+      <c r="C190" s="51"/>
+      <c r="D190" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E190" s="72">
+      <c r="E190" s="71">
         <v>0</v>
       </c>
-      <c r="F190" s="82">
+      <c r="F190" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A191" s="48">
+      <c r="A191" s="47">
         <v>2</v>
       </c>
-      <c r="B191" s="49" t="s">
+      <c r="B191" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E191" s="73">
+      <c r="E191" s="72">
         <f>SUMPRODUCT(F181:F190,E181:E190)/SUM(F181:F190)</f>
         <v>0</v>
       </c>
-      <c r="F191" s="82">
+      <c r="F191" s="81">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F192" s="82"/>
+      <c r="F192" s="81"/>
     </row>
     <row r="193" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F193" s="82"/>
+      <c r="F193" s="81"/>
     </row>
     <row r="194" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>102</v>
       </c>
-      <c r="E194" s="62">
+      <c r="E194" s="61">
         <f>((E174*F174)+E179*F179+E191*F191)/(F174+F179+F191)</f>
         <v>0</v>
       </c>
-      <c r="F194" s="82"/>
+      <c r="F194" s="81"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="196">
   <si>
     <t>#</t>
   </si>
@@ -531,12 +531,6 @@
     <t>2 Dokumente (Bericht und Technischer Teil) mit gleicher Seitennummerierung sind ok</t>
   </si>
   <si>
-    <t>empfehlenswert (üben für Bachelorarbeit)</t>
-  </si>
-  <si>
-    <t>Management Summary</t>
-  </si>
-  <si>
     <t>Komplexität von Project Flip 2.0 ist hoch</t>
   </si>
   <si>
@@ -586,9 +580,6 @@
     <t>Inhaltsverzeichnis mit HTML nicht nötig, sofern gut beschriftete Ordner</t>
   </si>
   <si>
-    <t>Association for Computer Machinery, acm.org</t>
-  </si>
-  <si>
     <t>enthält Problemstellung und Demo. Demo auch auf Bildschrim möglich (falls Surface2 nicht vorhanden)</t>
   </si>
   <si>
@@ -632,6 +623,56 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Resultat Metrik-Auswertung</t>
+  </si>
+  <si>
+    <t>was wird alles an Software benötigt für Checkout</t>
+  </si>
+  <si>
+    <t>Schreiben was man mit Unit Tests testen will</t>
+  </si>
+  <si>
+    <t>Package Dependency Übersicht sehr wichtig. Dependency berechnen mit NDepend (ev Plugin Resharper).</t>
+  </si>
+  <si>
+    <t>Abnahme-Sitzung zu jedem Sprint inkl. Abnahmedokument (z.B. was verschoben+wieso).</t>
+  </si>
+  <si>
+    <t>Farbenblindheit (Check mit Farben)</t>
+  </si>
+  <si>
+    <t>Falls es mehrere Screen gibt braucht es ein Navigation Map</t>
+  </si>
+  <si>
+    <t>Dokument für Anforderungsspezifikation mit Liste der User Stories</t>
+  </si>
+  <si>
+    <t>Konkurrenz ist bestehende Lösung (Papier)</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Brochure Text = Management Summary</t>
+  </si>
+  <si>
+    <t>empfehlenswert (üben für Bachelorarbeit), kann auch nach Abgabe erstellt werden von allem anderen</t>
+  </si>
+  <si>
+    <t>Evt. mit Präsentation der Arbeit ink. Feedback</t>
+  </si>
+  <si>
+    <t>Verschiedene Zielgruppen bei Abstract, Management Summaries (jemand von aussen der sich detailiert informieren will mit Fokus auf Business Value), Technischer Report (für Leute mit technischem Hintergrund), Projektdokumente für Maitenance.
+Management Summary: Nicht mehr Text als in Abstract. Die Vision kann auf Management Summary verweisen.
+Extended Management Summary: In Dokument ist länger als Management Summary. Damit man gut versteht was gemacht wurde. Etwa 2-4 Seiten</t>
+  </si>
+  <si>
+    <t>Association for Computer Machinery, acm.org, Punkt wird verlangt. Paper raussuchen zu unserem Thema</t>
   </si>
 </sst>
 </file>
@@ -641,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +893,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -861,7 +909,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -875,6 +923,15 @@
       <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,7 +1061,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1226,6 +1283,18 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="123">
@@ -1353,7 +1422,7 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="115">
     <dxf>
       <font>
         <b val="0"/>
@@ -1520,6 +1589,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1827,6 +1914,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3253,197 +3358,199 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A59:E65" totalsRowShown="0" headerRowDxfId="112" tableBorderDxfId="111">
-  <autoFilter ref="A59:E65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A60:E66" totalsRowShown="0" headerRowDxfId="114" tableBorderDxfId="113">
+  <autoFilter ref="A60:E66"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="110"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="109"/>
-    <tableColumn id="5" name="G" dataDxfId="108"/>
-    <tableColumn id="3" name="N" dataDxfId="107"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="106"/>
+    <tableColumn id="1" name="#" dataDxfId="112"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="111"/>
+    <tableColumn id="5" name="G" dataDxfId="110"/>
+    <tableColumn id="3" name="N" dataDxfId="109"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="39" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="38" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="N" dataDxfId="36" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="35" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="34" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="G" dataDxfId="39" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="N" dataDxfId="38" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="37" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="36" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A86:E92" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
-  <autoFilter ref="A86:E92"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="30"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="29"/>
-    <tableColumn id="5" name="G" dataDxfId="28"/>
-    <tableColumn id="3" name="N" dataDxfId="27"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A87:F93"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="32"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
+    <tableColumn id="5" name="G" dataDxfId="30"/>
+    <tableColumn id="3" name="N" dataDxfId="29"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="28"/>
+    <tableColumn id="6" name="Column1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A77:E82" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A77:E82"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="22"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="21"/>
-    <tableColumn id="5" name="G" dataDxfId="20"/>
-    <tableColumn id="3" name="N" dataDxfId="19"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="A78:F83"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="23"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="22"/>
+    <tableColumn id="5" name="G" dataDxfId="21"/>
+    <tableColumn id="3" name="N" dataDxfId="20"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="19"/>
+    <tableColumn id="6" name="Column1" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A137:E145" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A137:E145"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A138:E146"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="16"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
-    <tableColumn id="5" name="G" dataDxfId="14"/>
-    <tableColumn id="3" name="N" dataDxfId="13"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="17"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
+    <tableColumn id="5" name="G" dataDxfId="15"/>
+    <tableColumn id="3" name="N" dataDxfId="14"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A124:E134" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A124:E134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A125:E135"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="10"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
-    <tableColumn id="5" name="G" dataDxfId="8"/>
-    <tableColumn id="3" name="N" dataDxfId="7"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="11"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="10"/>
+    <tableColumn id="5" name="G" dataDxfId="9"/>
+    <tableColumn id="3" name="N" dataDxfId="8"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="104" tableBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105">
   <autoFilter ref="A36:E47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="102"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="101"/>
-    <tableColumn id="5" name="G" dataDxfId="100"/>
-    <tableColumn id="3" name="N" dataDxfId="99"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="98"/>
+    <tableColumn id="1" name="#" dataDxfId="104"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="103"/>
+    <tableColumn id="5" name="G" dataDxfId="102"/>
+    <tableColumn id="3" name="N" dataDxfId="101"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A95:E103" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95">
-  <autoFilter ref="A95:E103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A96:E104" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="98" tableBorderDxfId="97">
+  <autoFilter ref="A96:E104"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="94"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="93"/>
-    <tableColumn id="5" name="G" dataDxfId="92"/>
-    <tableColumn id="3" name="N" dataDxfId="91"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="90"/>
+    <tableColumn id="1" name="#" dataDxfId="96"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="95"/>
+    <tableColumn id="5" name="G" dataDxfId="94"/>
+    <tableColumn id="3" name="N" dataDxfId="93"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A106:E110" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87">
-  <autoFilter ref="A106:E110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:E111" totalsRowShown="0" headerRowDxfId="91" headerRowBorderDxfId="90" tableBorderDxfId="89">
+  <autoFilter ref="A107:E111"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="86"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="85"/>
-    <tableColumn id="5" name="G" dataDxfId="84"/>
-    <tableColumn id="3" name="N" dataDxfId="83"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="82"/>
+    <tableColumn id="1" name="#" dataDxfId="88"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="87"/>
+    <tableColumn id="5" name="G" dataDxfId="86"/>
+    <tableColumn id="3" name="N" dataDxfId="85"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A113:E121" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79">
-  <autoFilter ref="A113:E121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:E122" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
+  <autoFilter ref="A114:E122"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="78"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="77"/>
-    <tableColumn id="5" name="G" dataDxfId="76"/>
-    <tableColumn id="3" name="N" dataDxfId="75"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="74"/>
+    <tableColumn id="1" name="#" dataDxfId="80"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="79"/>
+    <tableColumn id="5" name="G" dataDxfId="78"/>
+    <tableColumn id="3" name="N" dataDxfId="77"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A149:E163" totalsRowShown="0" headerRowDxfId="73">
-  <autoFilter ref="A149:E163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:E164" totalsRowShown="0" headerRowDxfId="75">
+  <autoFilter ref="A150:E164"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="72"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="71"/>
-    <tableColumn id="5" name="G" dataDxfId="70"/>
-    <tableColumn id="3" name="N" dataDxfId="69"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="68"/>
+    <tableColumn id="1" name="#" dataDxfId="74"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="73"/>
+    <tableColumn id="5" name="G" dataDxfId="72"/>
+    <tableColumn id="3" name="N" dataDxfId="71"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A68:E73" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65">
-  <autoFilter ref="A68:E73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
+  <autoFilter ref="A69:E74"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="64"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="63"/>
-    <tableColumn id="5" name="G" dataDxfId="62"/>
-    <tableColumn id="3" name="N" dataDxfId="61"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="60"/>
+    <tableColumn id="1" name="#" dataDxfId="66"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="65"/>
+    <tableColumn id="5" name="G" dataDxfId="64"/>
+    <tableColumn id="3" name="N" dataDxfId="63"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E56" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A50:E56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+  <autoFilter ref="A50:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="56"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="55"/>
-    <tableColumn id="5" name="G" dataDxfId="54"/>
-    <tableColumn id="3" name="N" dataDxfId="53"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="52"/>
+    <tableColumn id="1" name="#" dataDxfId="58"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="57"/>
+    <tableColumn id="5" name="G" dataDxfId="56"/>
+    <tableColumn id="3" name="N" dataDxfId="55"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A166:E170" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
-  <autoFilter ref="A166:E170"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
+  <autoFilter ref="A167:E171"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="48"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="47"/>
-    <tableColumn id="5" name="G" dataDxfId="46"/>
-    <tableColumn id="3" name="N" dataDxfId="45"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="44"/>
+    <tableColumn id="1" name="#" dataDxfId="50"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="49"/>
+    <tableColumn id="5" name="G" dataDxfId="48"/>
+    <tableColumn id="3" name="N" dataDxfId="47"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3739,10 +3846,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,7 +3858,7 @@
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" style="61" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="73" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3801,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
@@ -3823,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="40">
         <v>5</v>
@@ -3844,7 +3951,7 @@
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="74"/>
     </row>
@@ -3869,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="40">
         <v>5</v>
@@ -3885,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="40">
         <v>5</v>
@@ -3931,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="40">
         <v>5</v>
@@ -4066,7 +4173,7 @@
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="74"/>
     </row>
@@ -4075,7 +4182,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="40">
         <v>5</v>
@@ -4117,7 +4224,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="40">
         <v>5</v>
@@ -4131,7 +4238,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="40">
         <v>5</v>
@@ -4152,7 +4259,7 @@
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="74"/>
     </row>
@@ -4182,7 +4289,7 @@
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F30" s="74"/>
     </row>
@@ -4219,7 +4326,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C33" s="40">
         <v>5</v>
@@ -4281,7 +4388,7 @@
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F37" s="73"/>
     </row>
@@ -4406,7 +4513,7 @@
       <c r="D46" s="33"/>
       <c r="E46" s="43"/>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>13</v>
       </c>
@@ -4418,7 +4525,7 @@
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="43" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F47" s="73"/>
     </row>
@@ -4540,214 +4647,212 @@
       <c r="D56" s="33"/>
       <c r="E56" s="43"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="66"/>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="23" t="s">
+    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="38"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="66"/>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="28" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="63">
+      <c r="E59" s="63">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C60" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D60" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E60" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>1</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="38">
+      <c r="C61" s="38">
         <v>9</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="38">
-        <v>5</v>
-      </c>
       <c r="D61" s="33"/>
-      <c r="E61" s="38"/>
+      <c r="E61" s="38" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="38">
+        <v>5</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="38"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>3</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="38">
-        <v>5</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C63" s="38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D63" s="33"/>
-      <c r="E63" s="38"/>
+      <c r="E63" s="38" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="38">
+        <v>9</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="38"/>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="38">
-        <v>5</v>
-      </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="C65" s="38">
+        <v>5</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>6</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C66" s="38">
         <v>0</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="66"/>
-    </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A67" s="23" t="s">
+      <c r="D66" s="33"/>
+      <c r="E66" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="66"/>
+    </row>
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A68" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D68" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="63">
+      <c r="E68" s="63">
         <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C69" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D69" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E69" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>1</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="34">
-        <v>5</v>
-      </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
+        <v>1</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="34">
+        <v>5</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>2</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="34">
-        <v>5</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>3</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C71" s="34">
         <v>5</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" s="38"/>
+      <c r="E71" s="38" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C72" s="34">
         <v>5</v>
@@ -4756,11 +4861,11 @@
       <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>5</v>
+      <c r="A73" s="9">
+        <v>4</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="C73" s="34">
         <v>5</v>
@@ -4768,68 +4873,71 @@
       <c r="D73" s="33"/>
       <c r="E73" s="38"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="66"/>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="34">
+        <v>5</v>
+      </c>
+      <c r="D74" s="33"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="66"/>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A76" s="23" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="66"/>
+    </row>
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A77" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D77" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="63">
+      <c r="E77" s="63">
         <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
-      <c r="F76" s="26"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C78" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D78" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E78" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>1</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="34">
-        <v>5</v>
-      </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="38"/>
+      <c r="F78" s="88" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C79" s="34">
         <v>5</v>
@@ -4838,103 +4946,120 @@
       <c r="E79" s="38"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
-        <v>3</v>
+      <c r="A80" s="5">
+        <v>2</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="C80" s="34">
         <v>5</v>
       </c>
       <c r="D80" s="33"/>
       <c r="E80" s="38"/>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F80" s="73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C81" s="34">
         <v>5</v>
       </c>
       <c r="D81" s="33"/>
       <c r="E81" s="38"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>5</v>
+      <c r="F81" s="73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>4</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="34">
+        <v>5</v>
+      </c>
+      <c r="D82" s="33"/>
+      <c r="E82" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82" s="73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="34">
-        <v>5</v>
-      </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="38"/>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="26"/>
-    </row>
-    <row r="85" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A85" s="23" t="s">
+      <c r="C83" s="34">
+        <v>5</v>
+      </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A86" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="28" t="s">
+      <c r="C86" s="1"/>
+      <c r="D86" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="63">
+      <c r="E86" s="63">
         <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C87" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D87" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="35" t="s">
+      <c r="E87" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>1</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="38">
-        <v>5</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="38"/>
+      <c r="F87" s="87" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C88" s="38">
         <v>5</v>
@@ -4943,24 +5068,25 @@
       <c r="E88" s="38"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
-        <v>3</v>
+      <c r="A89" s="5">
+        <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C89" s="38">
         <v>5</v>
       </c>
       <c r="D89" s="33"/>
       <c r="E89" s="38"/>
+      <c r="F89" s="86"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="C90" s="38">
         <v>5</v>
@@ -4969,11 +5095,11 @@
       <c r="E90" s="38"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>5</v>
+      <c r="A91" s="9">
+        <v>4</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C91" s="38">
         <v>5</v>
@@ -4983,76 +5109,82 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C92" s="38">
         <v>5</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="38"/>
-    </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="26"/>
-    </row>
-    <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A94" s="23" t="s">
+      <c r="F92" s="86">
+        <v>40826</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>6</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="38">
+        <v>5</v>
+      </c>
+      <c r="D93" s="33"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="86">
+        <v>40826</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="26"/>
+    </row>
+    <row r="95" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A95" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="28" t="s">
+      <c r="C95" s="1"/>
+      <c r="D95" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="63">
+      <c r="E95" s="63">
         <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C96" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D95" s="36" t="s">
+      <c r="D96" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E96" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>1</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="34">
-        <v>5</v>
-      </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="38"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>2</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C97" s="34">
         <v>5</v>
@@ -5060,25 +5192,27 @@
       <c r="D97" s="33"/>
       <c r="E97" s="38"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>3</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C98" s="34">
         <v>5</v>
       </c>
       <c r="D98" s="33"/>
-      <c r="E98" s="38"/>
+      <c r="E98" s="38" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C99" s="34">
         <v>5</v>
@@ -5087,24 +5221,24 @@
       <c r="E99" s="38"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
-        <v>5</v>
+      <c r="A100" s="5">
+        <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C100" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D100" s="33"/>
       <c r="E100" s="38"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="C101" s="34">
         <v>0</v>
@@ -5114,117 +5248,117 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
+        <v>6</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="34">
+        <v>0</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="38"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>7</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="34">
-        <v>5</v>
-      </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="34">
+        <v>5</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
         <v>8</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="34">
-        <v>5</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="38"/>
-    </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="56"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="26"/>
-    </row>
-    <row r="105" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A105" s="23" t="s">
+      <c r="C104" s="34">
+        <v>5</v>
+      </c>
+      <c r="D104" s="33"/>
+      <c r="E104" s="38"/>
+    </row>
+    <row r="105" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="56"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="26"/>
+    </row>
+    <row r="106" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A106" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="28" t="s">
+      <c r="C106" s="1"/>
+      <c r="D106" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="63">
+      <c r="E106" s="63">
         <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C107" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="36" t="s">
+      <c r="D107" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="35" t="s">
+      <c r="E107" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>1</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" s="34">
-        <v>5</v>
-      </c>
-      <c r="D107" s="33"/>
-      <c r="E107" s="38"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C108" s="34">
         <v>5</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="67"/>
+      <c r="E108" s="38"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C109" s="34">
         <v>5</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="38"/>
+      <c r="E109" s="67"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C110" s="34">
         <v>5</v>
@@ -5232,65 +5366,65 @@
       <c r="D110" s="33"/>
       <c r="E110" s="38"/>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="56"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="26"/>
-    </row>
-    <row r="112" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A112" s="23" t="s">
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="34">
+        <v>5</v>
+      </c>
+      <c r="D111" s="33"/>
+      <c r="E111" s="38"/>
+    </row>
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="56"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="26"/>
+    </row>
+    <row r="113" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A113" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="28" t="s">
+      <c r="C113" s="1"/>
+      <c r="D113" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="63">
+      <c r="E113" s="63">
         <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B114" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C114" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D113" s="36" t="s">
+      <c r="D114" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E114" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
-        <v>1</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C114" s="34">
-        <v>5</v>
-      </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="38"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C115" s="34">
         <v>5</v>
@@ -5300,10 +5434,10 @@
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C116" s="34">
         <v>5</v>
@@ -5311,25 +5445,27 @@
       <c r="D116" s="33"/>
       <c r="E116" s="38"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
-        <v>4</v>
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C117" s="34">
         <v>5</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="38"/>
+      <c r="E117" s="38" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C118" s="34">
         <v>5</v>
@@ -5339,10 +5475,10 @@
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C119" s="34">
         <v>5</v>
@@ -5351,11 +5487,11 @@
       <c r="E119" s="38"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
-        <v>7</v>
+      <c r="A120" s="9">
+        <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C120" s="34">
         <v>5</v>
@@ -5365,76 +5501,80 @@
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
+        <v>7</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="34">
+        <v>5</v>
+      </c>
+      <c r="D121" s="33"/>
+      <c r="E121" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="34">
-        <v>5</v>
-      </c>
-      <c r="D121" s="33"/>
-      <c r="E121" s="38"/>
-    </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B122"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="26"/>
-    </row>
-    <row r="123" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A123" s="23" t="s">
+      <c r="C122" s="34">
+        <v>5</v>
+      </c>
+      <c r="D122" s="33"/>
+      <c r="E122" s="38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="26"/>
+    </row>
+    <row r="124" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A124" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="28" t="s">
+      <c r="C124" s="1"/>
+      <c r="D124" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="63">
+      <c r="E124" s="63">
         <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C125" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D124" s="36" t="s">
+      <c r="D125" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E124" s="35" t="s">
+      <c r="E125" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>1</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C125" s="34">
-        <v>5</v>
-      </c>
-      <c r="D125" s="33"/>
-      <c r="E125" s="38"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>2</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C126" s="34">
         <v>5</v>
@@ -5442,81 +5582,81 @@
       <c r="D126" s="33"/>
       <c r="E126" s="38"/>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>2</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="34">
+        <v>5</v>
+      </c>
+      <c r="D127" s="33"/>
+      <c r="E127" s="38"/>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
         <v>3</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="34"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
-        <v>4</v>
-      </c>
-      <c r="B128" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C128" s="34">
-        <v>5</v>
-      </c>
+      <c r="C128" s="34"/>
       <c r="D128" s="33"/>
-      <c r="E128" s="38"/>
+      <c r="E128" s="38" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
-        <v>5</v>
-      </c>
-      <c r="B129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="34">
+        <v>5</v>
+      </c>
+      <c r="D129" s="33"/>
+      <c r="E129" s="38"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C129" s="34">
-        <v>5</v>
-      </c>
-      <c r="D129" s="33"/>
-      <c r="E129" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
-        <v>6</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="C130" s="34">
         <v>5</v>
       </c>
       <c r="D130" s="33"/>
       <c r="E130" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
+        <v>6</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="34">
+        <v>5</v>
+      </c>
+      <c r="D131" s="33"/>
+      <c r="E131" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
         <v>7</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B132" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="C131" s="34">
-        <v>5</v>
-      </c>
-      <c r="D131" s="33"/>
-      <c r="E131" s="38"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>8</v>
-      </c>
-      <c r="B132" s="56" t="s">
-        <v>135</v>
       </c>
       <c r="C132" s="34">
         <v>5</v>
@@ -5525,11 +5665,11 @@
       <c r="E132" s="38"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
-        <v>9</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>23</v>
+      <c r="A133" s="5">
+        <v>8</v>
+      </c>
+      <c r="B133" s="56" t="s">
+        <v>135</v>
       </c>
       <c r="C133" s="34">
         <v>5</v>
@@ -5537,93 +5677,95 @@
       <c r="D133" s="33"/>
       <c r="E133" s="38"/>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="26">
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>9</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="34">
+        <v>5</v>
+      </c>
+      <c r="D134" s="33"/>
+      <c r="E134" s="38"/>
+    </row>
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="26">
         <v>10</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B135" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C134" s="34">
-        <v>5</v>
-      </c>
-      <c r="D134" s="33"/>
-      <c r="E134" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="26"/>
-    </row>
-    <row r="136" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A136" s="23" t="s">
+      <c r="C135" s="34">
+        <v>5</v>
+      </c>
+      <c r="D135" s="33"/>
+      <c r="E135" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="26"/>
+    </row>
+    <row r="137" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A137" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="28" t="s">
+      <c r="C137" s="1"/>
+      <c r="D137" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="63">
+      <c r="E137" s="63">
         <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B138" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C138" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D137" s="36" t="s">
+      <c r="D138" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E137" s="35" t="s">
+      <c r="E138" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
         <v>1</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C138" s="34">
-        <v>5</v>
-      </c>
-      <c r="D138" s="33"/>
-      <c r="E138" s="38"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
-        <v>2</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C139" s="34">
         <v>5</v>
       </c>
       <c r="D139" s="33"/>
-      <c r="E139" s="38"/>
+      <c r="E139" s="38" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
-        <v>3</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C140" s="34">
         <v>5</v>
@@ -5633,10 +5775,10 @@
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C141" s="34">
         <v>5</v>
@@ -5645,52 +5787,52 @@
       <c r="E141" s="38"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="76">
-        <v>5</v>
-      </c>
-      <c r="B142" s="77" t="s">
+      <c r="A142" s="9">
+        <v>4</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="34">
+        <v>5</v>
+      </c>
+      <c r="D142" s="33"/>
+      <c r="E142" s="38"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="76">
+        <v>5</v>
+      </c>
+      <c r="B143" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="78">
+      <c r="C143" s="78">
         <v>0</v>
       </c>
-      <c r="D142" s="79"/>
-      <c r="E142" s="80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>6</v>
-      </c>
-      <c r="B143" t="s">
-        <v>136</v>
-      </c>
-      <c r="C143" s="34"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="38" t="s">
-        <v>173</v>
+      <c r="D143" s="79"/>
+      <c r="E143" s="80" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" s="34"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
         <v>7</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C144" s="34">
-        <v>5</v>
-      </c>
-      <c r="D144" s="33"/>
-      <c r="E144" s="38"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
-        <v>8</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="C145" s="34">
         <v>5</v>
@@ -5698,98 +5840,100 @@
       <c r="D145" s="33"/>
       <c r="E145" s="38"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="66"/>
-    </row>
-    <row r="147" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147"/>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
+        <v>8</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="34">
+        <v>5</v>
+      </c>
+      <c r="D146" s="33"/>
+      <c r="E146" s="38"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="26"/>
-    </row>
-    <row r="148" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A148" s="23" t="s">
+      <c r="E147" s="66"/>
+    </row>
+    <row r="148" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="26"/>
+    </row>
+    <row r="149" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A149" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B149" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="28" t="s">
+      <c r="C149" s="1"/>
+      <c r="D149" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E148" s="63">
+      <c r="E149" s="63">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B150" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C150" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D149" s="36" t="s">
+      <c r="D150" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E149" s="35" t="s">
+      <c r="E150" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="20">
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="20">
         <v>1</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B151" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C150" s="34">
-        <v>5</v>
-      </c>
-      <c r="D150" s="33"/>
-      <c r="E150" s="38"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
-        <v>2</v>
-      </c>
-      <c r="B151" t="s">
-        <v>19</v>
       </c>
       <c r="C151" s="34">
         <v>5</v>
       </c>
       <c r="D151" s="33"/>
       <c r="E151" s="38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="34">
+        <v>5</v>
+      </c>
+      <c r="D152" s="33"/>
+      <c r="E152" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
         <v>3</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C152" s="34">
-        <v>5</v>
-      </c>
-      <c r="D152" s="33"/>
-      <c r="E152" s="38"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
-        <v>4</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="C153" s="34">
         <v>5</v>
@@ -5799,10 +5943,10 @@
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
-        <v>5</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C154" s="34">
         <v>5</v>
@@ -5810,81 +5954,83 @@
       <c r="D154" s="33"/>
       <c r="E154" s="38"/>
     </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="9">
+        <v>5</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="34">
+        <v>5</v>
+      </c>
+      <c r="D155" s="33"/>
+      <c r="E155" s="38"/>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
         <v>6</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="34">
-        <v>5</v>
-      </c>
-      <c r="D155" s="33"/>
-      <c r="E155" s="52"/>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
+      <c r="C156" s="34">
+        <v>5</v>
+      </c>
+      <c r="D156" s="33"/>
+      <c r="E156" s="52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
         <v>7</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B157" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="C156" s="34">
-        <v>5</v>
-      </c>
-      <c r="D156" s="33"/>
-      <c r="E156" s="38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
-        <v>8</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C157" s="34">
         <v>5</v>
       </c>
       <c r="D157" s="33"/>
       <c r="E157" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
-        <v>9</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C158" s="34">
         <v>5</v>
       </c>
       <c r="D158" s="33"/>
-      <c r="E158" s="52"/>
+      <c r="E158" s="38" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
+        <v>9</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C159" s="34">
+        <v>5</v>
+      </c>
+      <c r="D159" s="33"/>
+      <c r="E159" s="52"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
         <v>10</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C159" s="34">
-        <v>5</v>
-      </c>
-      <c r="D159" s="33"/>
-      <c r="E159" s="38"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="20">
-        <v>11</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="C160" s="34">
         <v>5</v>
@@ -5893,11 +6039,11 @@
       <c r="E160" s="38"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="60">
-        <v>12</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>124</v>
+      <c r="A161" s="20">
+        <v>11</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C161" s="34">
         <v>5</v>
@@ -5906,11 +6052,11 @@
       <c r="E161" s="38"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="26">
-        <v>13</v>
+      <c r="A162" s="60">
+        <v>12</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C162" s="34">
         <v>5</v>
@@ -5920,10 +6066,10 @@
     </row>
     <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C163" s="34">
         <v>5</v>
@@ -5931,78 +6077,78 @@
       <c r="D163" s="33"/>
       <c r="E163" s="38"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="66"/>
-    </row>
-    <row r="165" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A165" s="23" t="s">
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="26">
+        <v>14</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" s="34">
+        <v>5</v>
+      </c>
+      <c r="D164" s="33"/>
+      <c r="E164" s="38"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="66"/>
+    </row>
+    <row r="166" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A166" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B166" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C165" s="7"/>
-      <c r="D165" s="28" t="s">
+      <c r="C166" s="7"/>
+      <c r="D166" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E165" s="63">
+      <c r="E166" s="63">
         <f>SUMPRODUCT(Table15[G],Table15[N])/SUM(Table15[G])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B167" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C167" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D166" s="36" t="s">
+      <c r="D167" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E166" s="35" t="s">
+      <c r="E167" s="35" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
-        <v>1</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" s="34">
-        <v>5</v>
-      </c>
-      <c r="D167" s="33"/>
-      <c r="E167" s="38" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="C168" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D168" s="33"/>
-      <c r="E168" s="38"/>
+      <c r="E168" s="38" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C169" s="34">
         <v>0</v>
@@ -6011,11 +6157,11 @@
       <c r="E169" s="38"/>
     </row>
     <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
-        <v>4</v>
-      </c>
-      <c r="B170" s="56" t="s">
-        <v>129</v>
+      <c r="A170" s="5">
+        <v>3</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C170" s="34">
         <v>0</v>
@@ -6023,74 +6169,68 @@
       <c r="D170" s="33"/>
       <c r="E170" s="38"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="66"/>
-    </row>
-    <row r="173" spans="1:6" s="55" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="54" t="s">
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
+        <v>4</v>
+      </c>
+      <c r="B171" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C171" s="34">
+        <v>0</v>
+      </c>
+      <c r="D171" s="33"/>
+      <c r="E171" s="38"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="66"/>
+    </row>
+    <row r="174" spans="1:6" s="55" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A174" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E173" s="70"/>
-      <c r="F173" s="81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A174" s="24" t="s">
+      <c r="E174" s="70"/>
+      <c r="F174" s="81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A175" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B175" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C174" s="27"/>
-      <c r="D174" s="28" t="s">
+      <c r="C175" s="27"/>
+      <c r="D175" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E174" s="63">
+      <c r="E175" s="63">
         <f>SUMPRODUCT(Table2[G],Table2[N])/SUM(Table2[G])</f>
         <v>0</v>
       </c>
-      <c r="F174" s="81">
+      <c r="F175" s="81">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F175" s="81"/>
-    </row>
     <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E176" s="71">
-        <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
-        <v>0</v>
-      </c>
-      <c r="F176" s="81">
-        <v>3</v>
-      </c>
+      <c r="F176" s="81"/>
     </row>
     <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E177" s="71">
-        <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
+        <f>SUMPRODUCT(Table6[G],Table6[N])/SUM(Table6[G])</f>
         <v>0</v>
       </c>
       <c r="F177" s="81">
@@ -6099,92 +6239,92 @@
     </row>
     <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E178" s="71">
+        <f>SUMPRODUCT(Table12[G],Table12[N])/SUM(Table12[G])</f>
+        <v>0</v>
+      </c>
+      <c r="F178" s="81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A179" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="71">
         <f>SUMPRODUCT(Table3[G],Table3[N])/SUM(Table3[G])</f>
         <v>0</v>
       </c>
-      <c r="F178" s="81">
+      <c r="F179" s="81">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A179" s="47">
+    <row r="180" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A180" s="47">
         <v>2</v>
       </c>
-      <c r="B179" s="48" t="s">
+      <c r="B180" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E179" s="72">
-        <f>SUMPRODUCT(F176:F178,E176:E178)/SUM(F176:F178)</f>
+      <c r="E180" s="72">
+        <f>SUMPRODUCT(F177:F179,E177:E179)/SUM(F177:F179)</f>
         <v>0</v>
       </c>
-      <c r="F179" s="81">
+      <c r="F180" s="81">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F180" s="81"/>
-    </row>
     <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A181" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E181" s="71">
-        <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
-        <v>0</v>
-      </c>
-      <c r="F181" s="81">
-        <v>4</v>
-      </c>
+      <c r="F181" s="81"/>
     </row>
     <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E182" s="71">
-        <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
+        <f>SUMPRODUCT(Table11[G],Table11[N])/SUM(Table11[G])</f>
         <v>0</v>
       </c>
       <c r="F182" s="81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E183" s="71">
-        <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
+        <f>SUMPRODUCT(Table71518[G],Table71518[N])/SUM(Table71518[G])</f>
         <v>0</v>
       </c>
       <c r="F183" s="81">
@@ -6193,55 +6333,55 @@
     </row>
     <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E184" s="71">
-        <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
+        <f>SUMPRODUCT(Table715[G],Table715[N])/SUM(Table715[G])</f>
         <v>0</v>
       </c>
       <c r="F184" s="81">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E185" s="71">
-        <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
+        <f>SUMPRODUCT(Table7[G],Table7[N])/SUM(Table7[G])</f>
         <v>0</v>
       </c>
       <c r="F185" s="81">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="49" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E186" s="71">
-        <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
+        <f>SUMPRODUCT(Table8[G],Table8[N])/SUM(Table8[G])</f>
         <v>0</v>
       </c>
       <c r="F186" s="81">
@@ -6250,122 +6390,141 @@
     </row>
     <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="49" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E187" s="71">
-        <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
+        <f>SUMPRODUCT(Table9[G],Table9[N])/SUM(Table9[G])</f>
         <v>0</v>
       </c>
       <c r="F187" s="81">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="71">
-        <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
+        <f>SUMPRODUCT(Table1021[G],Table1021[N])/SUM(Table1021[G])</f>
         <v>0</v>
       </c>
       <c r="F188" s="81">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="71">
+        <f>SUMPRODUCT(Table1020[G],Table1020[N])/SUM(Table1020[G])</f>
+        <v>0</v>
+      </c>
+      <c r="F189" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A190" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" s="71">
         <f>SUMPRODUCT(Table10[G],Table10[N])/SUM(Table10[G])</f>
         <v>0</v>
       </c>
-      <c r="F189" s="81">
+      <c r="F190" s="81">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A190" s="49" t="s">
+    <row r="191" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A191" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B191" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C190" s="51"/>
-      <c r="D190" s="50" t="s">
+      <c r="C191" s="51"/>
+      <c r="D191" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E190" s="71">
+      <c r="E191" s="71">
         <v>0</v>
       </c>
-      <c r="F190" s="81">
+      <c r="F191" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A191" s="47">
+    <row r="192" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A192" s="47">
         <v>2</v>
       </c>
-      <c r="B191" s="48" t="s">
+      <c r="B192" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E191" s="72">
-        <f>SUMPRODUCT(F181:F190,E181:E190)/SUM(F181:F190)</f>
+      <c r="E192" s="72">
+        <f>SUMPRODUCT(F182:F191,E182:E191)/SUM(F182:F191)</f>
         <v>0</v>
       </c>
-      <c r="F191" s="81">
+      <c r="F192" s="81">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F192" s="81"/>
     </row>
     <row r="193" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F193" s="81"/>
     </row>
     <row r="194" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B194" t="s">
+      <c r="F194" s="81"/>
+    </row>
+    <row r="195" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
         <v>102</v>
       </c>
-      <c r="E194" s="61">
-        <f>((E174*F174)+E179*F179+E191*F191)/(F174+F179+F191)</f>
+      <c r="E195" s="61">
+        <f>((E175*F175)+E180*F180+E192*F192)/(F175+F180+F192)</f>
         <v>0</v>
       </c>
-      <c r="F194" s="81"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="F195" s="81"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -1425,6 +1425,37 @@
   <dxfs count="115">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1439,7 +1470,450 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1470,596 +1944,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2091,6 +1975,37 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2142,7 +2057,62 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2174,6 +2144,36 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3375,70 +3375,70 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="G" dataDxfId="39" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="N" dataDxfId="38" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="37" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="36" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" name="N" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="31" totalsRowDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A87:F93"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="32"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
-    <tableColumn id="5" name="G" dataDxfId="30"/>
-    <tableColumn id="3" name="N" dataDxfId="29"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="28"/>
-    <tableColumn id="6" name="Column1" dataDxfId="27"/>
+    <tableColumn id="1" name="#" dataDxfId="26"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="25"/>
+    <tableColumn id="5" name="G" dataDxfId="24"/>
+    <tableColumn id="3" name="N" dataDxfId="23"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="22"/>
+    <tableColumn id="6" name="Column1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A78:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="23"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="22"/>
-    <tableColumn id="5" name="G" dataDxfId="21"/>
-    <tableColumn id="3" name="N" dataDxfId="20"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="19"/>
-    <tableColumn id="6" name="Column1" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="17"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
+    <tableColumn id="5" name="G" dataDxfId="15"/>
+    <tableColumn id="3" name="N" dataDxfId="14"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
+    <tableColumn id="6" name="Column1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A138:E146"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="17"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
-    <tableColumn id="5" name="G" dataDxfId="15"/>
-    <tableColumn id="3" name="N" dataDxfId="14"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
+    <tableColumn id="1" name="#" dataDxfId="10"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="5" name="G" dataDxfId="8"/>
+    <tableColumn id="3" name="N" dataDxfId="7"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A125:E135"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="11"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="10"/>
-    <tableColumn id="5" name="G" dataDxfId="9"/>
-    <tableColumn id="3" name="N" dataDxfId="8"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="7"/>
+    <tableColumn id="1" name="#" dataDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="5" name="G" dataDxfId="2"/>
+    <tableColumn id="3" name="N" dataDxfId="1"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3848,8 +3848,8 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,7 +5079,9 @@
       </c>
       <c r="D89" s="33"/>
       <c r="E89" s="38"/>
-      <c r="F89" s="86"/>
+      <c r="F89" s="86">
+        <v>40826</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
@@ -5093,6 +5095,9 @@
       </c>
       <c r="D90" s="33"/>
       <c r="E90" s="38"/>
+      <c r="F90" s="86">
+        <v>40826</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="9">

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -1298,67 +1298,67 @@
     </xf>
   </cellXfs>
   <cellStyles count="123">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1420,42 +1420,11 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="115">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1470,450 +1439,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1944,6 +1470,596 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1975,37 +2091,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2057,62 +2142,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2144,36 +2174,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3375,70 +3375,70 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" name="N" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="G" dataDxfId="39" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="N" dataDxfId="38" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="37" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="36" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A87:F93"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="26"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="25"/>
-    <tableColumn id="5" name="G" dataDxfId="24"/>
-    <tableColumn id="3" name="N" dataDxfId="23"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="22"/>
-    <tableColumn id="6" name="Column1" dataDxfId="21"/>
+    <tableColumn id="1" name="#" dataDxfId="32"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
+    <tableColumn id="5" name="G" dataDxfId="30"/>
+    <tableColumn id="3" name="N" dataDxfId="29"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="28"/>
+    <tableColumn id="6" name="Column1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A78:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="17"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
-    <tableColumn id="5" name="G" dataDxfId="15"/>
-    <tableColumn id="3" name="N" dataDxfId="14"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
-    <tableColumn id="6" name="Column1" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="23"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="22"/>
+    <tableColumn id="5" name="G" dataDxfId="21"/>
+    <tableColumn id="3" name="N" dataDxfId="20"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="19"/>
+    <tableColumn id="6" name="Column1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A138:E146"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#" dataDxfId="16"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
+    <tableColumn id="5" name="G" dataDxfId="14"/>
+    <tableColumn id="3" name="N" dataDxfId="13"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A125:E135"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="10"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
     <tableColumn id="5" name="G" dataDxfId="8"/>
     <tableColumn id="3" name="N" dataDxfId="7"/>
     <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A125:E135"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="5" name="G" dataDxfId="2"/>
-    <tableColumn id="3" name="N" dataDxfId="1"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3557,9 +3557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3597,7 +3597,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3669,7 +3669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3848,11 +3848,11 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
@@ -4031,7 +4031,9 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="74"/>
+      <c r="F12" s="75">
+        <v>40833</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="5">
@@ -4045,7 +4047,9 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="43"/>
-      <c r="F13" s="74"/>
+      <c r="F13" s="75">
+        <v>40833</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="5">
@@ -4075,7 +4079,9 @@
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="74"/>
+      <c r="F15" s="75">
+        <v>40833</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
@@ -6570,7 +6576,7 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -3849,7 +3849,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,7 +4065,9 @@
       <c r="E14" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="75">
+        <v>40840</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="9">

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="196">
   <si>
     <t>#</t>
   </si>
@@ -3848,8 +3848,8 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,13 +3947,15 @@
         <v>28</v>
       </c>
       <c r="C7" s="40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="74" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5">
@@ -4125,7 +4127,9 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="74"/>
+      <c r="F18" s="75">
+        <v>40847</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="25">

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="196">
   <si>
     <t>#</t>
   </si>
@@ -1298,67 +1298,67 @@
     </xf>
   </cellXfs>
   <cellStyles count="123">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1420,11 +1420,42 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="115">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1439,7 +1470,450 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1470,596 +1944,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2091,6 +1975,37 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2142,7 +2057,62 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2174,6 +2144,36 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3375,70 +3375,70 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="G" dataDxfId="39" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="N" dataDxfId="38" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="37" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="36" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" name="N" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="31" totalsRowDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A87:F93"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="32"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="31"/>
-    <tableColumn id="5" name="G" dataDxfId="30"/>
-    <tableColumn id="3" name="N" dataDxfId="29"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="28"/>
-    <tableColumn id="6" name="Column1" dataDxfId="27"/>
+    <tableColumn id="1" name="#" dataDxfId="26"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="25"/>
+    <tableColumn id="5" name="G" dataDxfId="24"/>
+    <tableColumn id="3" name="N" dataDxfId="23"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="22"/>
+    <tableColumn id="6" name="Column1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A78:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="23"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="22"/>
-    <tableColumn id="5" name="G" dataDxfId="21"/>
-    <tableColumn id="3" name="N" dataDxfId="20"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="19"/>
-    <tableColumn id="6" name="Column1" dataDxfId="18"/>
+    <tableColumn id="1" name="#" dataDxfId="17"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
+    <tableColumn id="5" name="G" dataDxfId="15"/>
+    <tableColumn id="3" name="N" dataDxfId="14"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
+    <tableColumn id="6" name="Column1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A138:E146"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="16"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
-    <tableColumn id="5" name="G" dataDxfId="14"/>
-    <tableColumn id="3" name="N" dataDxfId="13"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="10"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="5" name="G" dataDxfId="8"/>
+    <tableColumn id="3" name="N" dataDxfId="7"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A125:E135"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="10"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
-    <tableColumn id="5" name="G" dataDxfId="8"/>
-    <tableColumn id="3" name="N" dataDxfId="7"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="5" name="G" dataDxfId="2"/>
+    <tableColumn id="3" name="N" dataDxfId="1"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3557,9 +3557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3597,7 +3597,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3669,7 +3669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3848,11 +3848,11 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
@@ -4956,6 +4956,9 @@
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="38"/>
+      <c r="F79" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -5078,6 +5081,9 @@
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="38"/>
+      <c r="F88" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -6173,7 +6179,7 @@
       <c r="D169" s="33"/>
       <c r="E169" s="38"/>
     </row>
-    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>3</v>
       </c>
@@ -6582,7 +6588,7 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="197">
   <si>
     <t>#</t>
   </si>
@@ -673,6 +673,9 @@
   </si>
   <si>
     <t>Association for Computer Machinery, acm.org, Punkt wird verlangt. Paper raussuchen zu unserem Thema</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
   </si>
 </sst>
 </file>
@@ -1298,67 +1301,67 @@
     </xf>
   </cellXfs>
   <cellStyles count="123">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1420,9 +1423,63 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="118">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3358,208 +3415,211 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A60:E66" totalsRowShown="0" headerRowDxfId="114" tableBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A60:E66" totalsRowShown="0" headerRowDxfId="117" tableBorderDxfId="116">
   <autoFilter ref="A60:E66"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="112"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="111"/>
-    <tableColumn id="5" name="G" dataDxfId="110"/>
-    <tableColumn id="3" name="N" dataDxfId="109"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="108"/>
+    <tableColumn id="1" name="#" dataDxfId="115"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="114"/>
+    <tableColumn id="5" name="G" dataDxfId="113"/>
+    <tableColumn id="3" name="N" dataDxfId="112"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" name="N" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="1" name="#" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="6" name="G" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" name="N" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="34" totalsRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A87:F93"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="26"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="25"/>
-    <tableColumn id="5" name="G" dataDxfId="24"/>
-    <tableColumn id="3" name="N" dataDxfId="23"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="22"/>
-    <tableColumn id="6" name="Column1" dataDxfId="21"/>
+    <tableColumn id="1" name="#" dataDxfId="29"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="28"/>
+    <tableColumn id="5" name="G" dataDxfId="27"/>
+    <tableColumn id="3" name="N" dataDxfId="26"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="25"/>
+    <tableColumn id="6" name="Column1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A78:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="17"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
-    <tableColumn id="5" name="G" dataDxfId="15"/>
-    <tableColumn id="3" name="N" dataDxfId="14"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
-    <tableColumn id="6" name="Column1" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="20"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="19"/>
+    <tableColumn id="5" name="G" dataDxfId="18"/>
+    <tableColumn id="3" name="N" dataDxfId="17"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="16"/>
+    <tableColumn id="6" name="Column1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A138:E146"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="10"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
-    <tableColumn id="5" name="G" dataDxfId="8"/>
-    <tableColumn id="3" name="N" dataDxfId="7"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="13"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="12"/>
+    <tableColumn id="5" name="G" dataDxfId="11"/>
+    <tableColumn id="3" name="N" dataDxfId="10"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A125:E135"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="5" name="G" dataDxfId="2"/>
-    <tableColumn id="3" name="N" dataDxfId="1"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="7"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="6"/>
+    <tableColumn id="5" name="G" dataDxfId="5"/>
+    <tableColumn id="3" name="N" dataDxfId="4"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="110" headerRowBorderDxfId="109" tableBorderDxfId="108">
   <autoFilter ref="A36:E47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="104"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="103"/>
-    <tableColumn id="5" name="G" dataDxfId="102"/>
-    <tableColumn id="3" name="N" dataDxfId="101"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="100"/>
+    <tableColumn id="1" name="#" dataDxfId="107"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="106"/>
+    <tableColumn id="5" name="G" dataDxfId="105"/>
+    <tableColumn id="3" name="N" dataDxfId="104"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A96:E104" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="98" tableBorderDxfId="97">
-  <autoFilter ref="A96:E104"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="96"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="95"/>
-    <tableColumn id="5" name="G" dataDxfId="94"/>
-    <tableColumn id="3" name="N" dataDxfId="93"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A96:F104" totalsRowShown="0" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100">
+  <autoFilter ref="A96:F104"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="99"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="98"/>
+    <tableColumn id="5" name="G" dataDxfId="97"/>
+    <tableColumn id="3" name="N" dataDxfId="96"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="95"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:E111" totalsRowShown="0" headerRowDxfId="91" headerRowBorderDxfId="90" tableBorderDxfId="89">
-  <autoFilter ref="A107:E111"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="88"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="87"/>
-    <tableColumn id="5" name="G" dataDxfId="86"/>
-    <tableColumn id="3" name="N" dataDxfId="85"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:F111" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+  <autoFilter ref="A107:F111"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="91"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="90"/>
+    <tableColumn id="5" name="G" dataDxfId="89"/>
+    <tableColumn id="3" name="N" dataDxfId="88"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="87"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:E122" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
-  <autoFilter ref="A114:E122"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="80"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="79"/>
-    <tableColumn id="5" name="G" dataDxfId="78"/>
-    <tableColumn id="3" name="N" dataDxfId="77"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:F122" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84">
+  <autoFilter ref="A114:F122"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="83"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="82"/>
+    <tableColumn id="5" name="G" dataDxfId="81"/>
+    <tableColumn id="3" name="N" dataDxfId="80"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="79"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:E164" totalsRowShown="0" headerRowDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:E164" totalsRowShown="0" headerRowDxfId="78">
   <autoFilter ref="A150:E164"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="74"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="73"/>
-    <tableColumn id="5" name="G" dataDxfId="72"/>
-    <tableColumn id="3" name="N" dataDxfId="71"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="70"/>
+    <tableColumn id="1" name="#" dataDxfId="77"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="76"/>
+    <tableColumn id="5" name="G" dataDxfId="75"/>
+    <tableColumn id="3" name="N" dataDxfId="74"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70">
   <autoFilter ref="A69:E74"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="66"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="65"/>
-    <tableColumn id="5" name="G" dataDxfId="64"/>
-    <tableColumn id="3" name="N" dataDxfId="63"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="62"/>
+    <tableColumn id="1" name="#" dataDxfId="69"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="68"/>
+    <tableColumn id="5" name="G" dataDxfId="67"/>
+    <tableColumn id="3" name="N" dataDxfId="66"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="A50:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="58"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="57"/>
-    <tableColumn id="5" name="G" dataDxfId="56"/>
-    <tableColumn id="3" name="N" dataDxfId="55"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="54"/>
+    <tableColumn id="1" name="#" dataDxfId="61"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="60"/>
+    <tableColumn id="5" name="G" dataDxfId="59"/>
+    <tableColumn id="3" name="N" dataDxfId="58"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A167:E171"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="50"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="49"/>
-    <tableColumn id="5" name="G" dataDxfId="48"/>
-    <tableColumn id="3" name="N" dataDxfId="47"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="46"/>
+    <tableColumn id="1" name="#" dataDxfId="53"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="52"/>
+    <tableColumn id="5" name="G" dataDxfId="51"/>
+    <tableColumn id="3" name="N" dataDxfId="50"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3597,7 +3657,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3669,7 +3729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3848,11 +3908,11 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
@@ -5185,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -5200,6 +5260,9 @@
       </c>
       <c r="E96" s="35" t="s">
         <v>3</v>
+      </c>
+      <c r="F96" s="87" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5214,6 +5277,9 @@
       </c>
       <c r="D97" s="33"/>
       <c r="E97" s="38"/>
+      <c r="F97" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
@@ -5229,6 +5295,9 @@
       <c r="E98" s="38" t="s">
         <v>188</v>
       </c>
+      <c r="F98" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -5242,6 +5311,9 @@
       </c>
       <c r="D99" s="33"/>
       <c r="E99" s="38"/>
+      <c r="F99" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
@@ -5255,6 +5327,9 @@
       </c>
       <c r="D100" s="33"/>
       <c r="E100" s="38"/>
+      <c r="F100" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
@@ -5268,6 +5343,9 @@
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="38"/>
+      <c r="F101" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
@@ -5281,6 +5359,9 @@
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="38"/>
+      <c r="F102" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
@@ -5296,6 +5377,9 @@
       <c r="E103" s="38" t="s">
         <v>169</v>
       </c>
+      <c r="F103" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
@@ -5309,6 +5393,9 @@
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="38"/>
+      <c r="F104" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="105" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="56"/>
@@ -5333,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
@@ -5348,6 +5435,9 @@
       </c>
       <c r="E107" s="35" t="s">
         <v>3</v>
+      </c>
+      <c r="F107" s="87" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5362,6 +5452,9 @@
       </c>
       <c r="D108" s="33"/>
       <c r="E108" s="38"/>
+      <c r="F108" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -5375,6 +5468,9 @@
       </c>
       <c r="D109" s="33"/>
       <c r="E109" s="67"/>
+      <c r="F109" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
@@ -5388,6 +5484,9 @@
       </c>
       <c r="D110" s="33"/>
       <c r="E110" s="38"/>
+      <c r="F110" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
@@ -5401,6 +5500,9 @@
       </c>
       <c r="D111" s="33"/>
       <c r="E111" s="38"/>
+      <c r="F111" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="112" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="56"/>
@@ -5425,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>0</v>
       </c>
@@ -5440,6 +5542,9 @@
       </c>
       <c r="E114" s="35" t="s">
         <v>3</v>
+      </c>
+      <c r="F114" s="87" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5454,6 +5559,9 @@
       </c>
       <c r="D115" s="33"/>
       <c r="E115" s="38"/>
+      <c r="F115" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
@@ -5467,6 +5575,9 @@
       </c>
       <c r="D116" s="33"/>
       <c r="E116" s="38"/>
+      <c r="F116" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
@@ -5482,6 +5593,9 @@
       <c r="E117" s="38" t="s">
         <v>187</v>
       </c>
+      <c r="F117" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
@@ -5495,6 +5609,9 @@
       </c>
       <c r="D118" s="33"/>
       <c r="E118" s="38"/>
+      <c r="F118" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
@@ -5508,6 +5625,9 @@
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="38"/>
+      <c r="F119" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
@@ -5521,6 +5641,9 @@
       </c>
       <c r="D120" s="33"/>
       <c r="E120" s="38"/>
+      <c r="F120" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
@@ -5536,6 +5659,9 @@
       <c r="E121" s="38" t="s">
         <v>186</v>
       </c>
+      <c r="F121" s="73" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
@@ -5550,6 +5676,9 @@
       <c r="D122" s="33"/>
       <c r="E122" s="38" t="s">
         <v>185</v>
+      </c>
+      <c r="F122" s="73" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6588,7 +6717,7 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -664,9 +664,6 @@
     <t>empfehlenswert (üben für Bachelorarbeit), kann auch nach Abgabe erstellt werden von allem anderen</t>
   </si>
   <si>
-    <t>Evt. mit Präsentation der Arbeit ink. Feedback</t>
-  </si>
-  <si>
     <t>Verschiedene Zielgruppen bei Abstract, Management Summaries (jemand von aussen der sich detailiert informieren will mit Fokus auf Business Value), Technischer Report (für Leute mit technischem Hintergrund), Projektdokumente für Maitenance.
 Management Summary: Nicht mehr Text als in Abstract. Die Vision kann auf Management Summary verweisen.
 Extended Management Summary: In Dokument ist länger als Management Summary. Damit man gut versteht was gemacht wurde. Etwa 2-4 Seiten</t>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Evt. mit Präsentation der Arbeit inkl. Feedback</t>
   </si>
 </sst>
 </file>
@@ -1301,67 +1301,67 @@
     </xf>
   </cellXfs>
   <cellStyles count="123">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1423,63 +1423,9 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="118">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2744,6 +2690,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2868,6 +2832,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2980,6 +2962,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3429,73 +3429,73 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="6" name="G" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="3" name="N" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" name="N" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="31" totalsRowDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A87:F93"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="29"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="28"/>
-    <tableColumn id="5" name="G" dataDxfId="27"/>
-    <tableColumn id="3" name="N" dataDxfId="26"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="25"/>
-    <tableColumn id="6" name="Column1" dataDxfId="24"/>
+    <tableColumn id="1" name="#" dataDxfId="26"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="25"/>
+    <tableColumn id="5" name="G" dataDxfId="24"/>
+    <tableColumn id="3" name="N" dataDxfId="23"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="22"/>
+    <tableColumn id="6" name="Column1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A78:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="20"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="19"/>
-    <tableColumn id="5" name="G" dataDxfId="18"/>
-    <tableColumn id="3" name="N" dataDxfId="17"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="16"/>
-    <tableColumn id="6" name="Column1" dataDxfId="15"/>
+    <tableColumn id="1" name="#" dataDxfId="17"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
+    <tableColumn id="5" name="G" dataDxfId="15"/>
+    <tableColumn id="3" name="N" dataDxfId="14"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
+    <tableColumn id="6" name="Column1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A138:E146"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="13"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="12"/>
-    <tableColumn id="5" name="G" dataDxfId="11"/>
-    <tableColumn id="3" name="N" dataDxfId="10"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="9"/>
+    <tableColumn id="1" name="#" dataDxfId="10"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="5" name="G" dataDxfId="8"/>
+    <tableColumn id="3" name="N" dataDxfId="7"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A125:E135"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="7"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="6"/>
-    <tableColumn id="5" name="G" dataDxfId="5"/>
-    <tableColumn id="3" name="N" dataDxfId="4"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="3"/>
+    <tableColumn id="1" name="#" dataDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="5" name="G" dataDxfId="2"/>
+    <tableColumn id="3" name="N" dataDxfId="1"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3524,102 +3524,102 @@
     <tableColumn id="5" name="G" dataDxfId="97"/>
     <tableColumn id="3" name="N" dataDxfId="96"/>
     <tableColumn id="4" name="Kommentar" dataDxfId="95"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="2"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:F111" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:F111" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91">
   <autoFilter ref="A107:F111"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="91"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="90"/>
-    <tableColumn id="5" name="G" dataDxfId="89"/>
-    <tableColumn id="3" name="N" dataDxfId="88"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="87"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="1"/>
+    <tableColumn id="1" name="#" dataDxfId="90"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="89"/>
+    <tableColumn id="5" name="G" dataDxfId="88"/>
+    <tableColumn id="3" name="N" dataDxfId="87"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="86"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:F122" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:F122" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A114:F122"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="83"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="82"/>
-    <tableColumn id="5" name="G" dataDxfId="81"/>
-    <tableColumn id="3" name="N" dataDxfId="80"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="79"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="81"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="80"/>
+    <tableColumn id="5" name="G" dataDxfId="79"/>
+    <tableColumn id="3" name="N" dataDxfId="78"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="77"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:E164" totalsRowShown="0" headerRowDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:E164" totalsRowShown="0" headerRowDxfId="75">
   <autoFilter ref="A150:E164"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="77"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="76"/>
-    <tableColumn id="5" name="G" dataDxfId="75"/>
-    <tableColumn id="3" name="N" dataDxfId="74"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="73"/>
+    <tableColumn id="1" name="#" dataDxfId="74"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="73"/>
+    <tableColumn id="5" name="G" dataDxfId="72"/>
+    <tableColumn id="3" name="N" dataDxfId="71"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
   <autoFilter ref="A69:E74"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="69"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="68"/>
-    <tableColumn id="5" name="G" dataDxfId="67"/>
-    <tableColumn id="3" name="N" dataDxfId="66"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="65"/>
+    <tableColumn id="1" name="#" dataDxfId="66"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="65"/>
+    <tableColumn id="5" name="G" dataDxfId="64"/>
+    <tableColumn id="3" name="N" dataDxfId="63"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="A50:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="61"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="60"/>
-    <tableColumn id="5" name="G" dataDxfId="59"/>
-    <tableColumn id="3" name="N" dataDxfId="58"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="57"/>
+    <tableColumn id="1" name="#" dataDxfId="58"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="57"/>
+    <tableColumn id="5" name="G" dataDxfId="56"/>
+    <tableColumn id="3" name="N" dataDxfId="55"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A167:E171"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="53"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="52"/>
-    <tableColumn id="5" name="G" dataDxfId="51"/>
-    <tableColumn id="3" name="N" dataDxfId="50"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="49"/>
+    <tableColumn id="1" name="#" dataDxfId="50"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="49"/>
+    <tableColumn id="5" name="G" dataDxfId="48"/>
+    <tableColumn id="3" name="N" dataDxfId="47"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3657,7 +3657,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3729,7 +3729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3908,11 +3908,11 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="73"/>
     </row>
@@ -4722,7 +4722,7 @@
     <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="89"/>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D66" s="33"/>
       <c r="E66" s="38" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5437,7 +5437,7 @@
         <v>3</v>
       </c>
       <c r="F107" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6717,7 +6717,7 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -3909,7 +3909,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="198">
   <si>
     <t>#</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>Evt. mit Präsentation der Arbeit inkl. Feedback</t>
+  </si>
+  <si>
+    <t>mvvm, nicht dokumentiert</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -936,6 +939,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1064,7 +1078,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,6 +1312,9 @@
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="123">
@@ -1425,7 +1442,25 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="119">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3415,202 +3450,203 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A60:E66" totalsRowShown="0" headerRowDxfId="117" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A60:E66" totalsRowShown="0" headerRowDxfId="118" tableBorderDxfId="117">
   <autoFilter ref="A60:E66"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="115"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="114"/>
-    <tableColumn id="5" name="G" dataDxfId="113"/>
-    <tableColumn id="3" name="N" dataDxfId="112"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="111"/>
+    <tableColumn id="1" name="#" dataDxfId="116"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="115"/>
+    <tableColumn id="5" name="G" dataDxfId="114"/>
+    <tableColumn id="3" name="N" dataDxfId="113"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" name="G" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" name="N" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="1" name="#" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="6" name="G" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" name="N" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="32" totalsRowDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A87:F93"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="26"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="25"/>
-    <tableColumn id="5" name="G" dataDxfId="24"/>
-    <tableColumn id="3" name="N" dataDxfId="23"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="22"/>
-    <tableColumn id="6" name="Column1" dataDxfId="21"/>
+    <tableColumn id="1" name="#" dataDxfId="27"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="26"/>
+    <tableColumn id="5" name="G" dataDxfId="25"/>
+    <tableColumn id="3" name="N" dataDxfId="24"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="23"/>
+    <tableColumn id="6" name="Column1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A78:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="17"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="16"/>
-    <tableColumn id="5" name="G" dataDxfId="15"/>
-    <tableColumn id="3" name="N" dataDxfId="14"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="13"/>
-    <tableColumn id="6" name="Column1" dataDxfId="12"/>
+    <tableColumn id="1" name="#" dataDxfId="18"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="17"/>
+    <tableColumn id="5" name="G" dataDxfId="16"/>
+    <tableColumn id="3" name="N" dataDxfId="15"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="14"/>
+    <tableColumn id="6" name="Column1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A138:E146"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="10"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="9"/>
-    <tableColumn id="5" name="G" dataDxfId="8"/>
-    <tableColumn id="3" name="N" dataDxfId="7"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="11"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="10"/>
+    <tableColumn id="5" name="G" dataDxfId="9"/>
+    <tableColumn id="3" name="N" dataDxfId="8"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A125:E135"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="5" name="G" dataDxfId="2"/>
-    <tableColumn id="3" name="N" dataDxfId="1"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="5"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="4"/>
+    <tableColumn id="5" name="G" dataDxfId="3"/>
+    <tableColumn id="3" name="N" dataDxfId="2"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="110" headerRowBorderDxfId="109" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="111" headerRowBorderDxfId="110" tableBorderDxfId="109">
   <autoFilter ref="A36:E47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="107"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="106"/>
-    <tableColumn id="5" name="G" dataDxfId="105"/>
-    <tableColumn id="3" name="N" dataDxfId="104"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="103"/>
+    <tableColumn id="1" name="#" dataDxfId="108"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="107"/>
+    <tableColumn id="5" name="G" dataDxfId="106"/>
+    <tableColumn id="3" name="N" dataDxfId="105"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A96:F104" totalsRowShown="0" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A96:F104" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101">
   <autoFilter ref="A96:F104"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="99"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="98"/>
-    <tableColumn id="5" name="G" dataDxfId="97"/>
-    <tableColumn id="3" name="N" dataDxfId="96"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="95"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="94"/>
+    <tableColumn id="1" name="#" dataDxfId="100"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="99"/>
+    <tableColumn id="5" name="G" dataDxfId="98"/>
+    <tableColumn id="3" name="N" dataDxfId="97"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="96"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:F111" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:F111" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="A107:F111"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="90"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="89"/>
-    <tableColumn id="5" name="G" dataDxfId="88"/>
-    <tableColumn id="3" name="N" dataDxfId="87"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="86"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="85"/>
+    <tableColumn id="1" name="#" dataDxfId="91"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="90"/>
+    <tableColumn id="5" name="G" dataDxfId="89"/>
+    <tableColumn id="3" name="N" dataDxfId="88"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="87"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:F122" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:F122" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83">
   <autoFilter ref="A114:F122"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="81"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="80"/>
-    <tableColumn id="5" name="G" dataDxfId="79"/>
-    <tableColumn id="3" name="N" dataDxfId="78"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="77"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="76"/>
+    <tableColumn id="1" name="#" dataDxfId="82"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="81"/>
+    <tableColumn id="5" name="G" dataDxfId="80"/>
+    <tableColumn id="3" name="N" dataDxfId="79"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="78"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:E164" totalsRowShown="0" headerRowDxfId="75">
-  <autoFilter ref="A150:E164"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="74"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="73"/>
-    <tableColumn id="5" name="G" dataDxfId="72"/>
-    <tableColumn id="3" name="N" dataDxfId="71"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:F164" totalsRowShown="0" headerRowDxfId="76">
+  <autoFilter ref="A150:F164"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="75"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="74"/>
+    <tableColumn id="5" name="G" dataDxfId="73"/>
+    <tableColumn id="3" name="N" dataDxfId="72"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="71"/>
+    <tableColumn id="6" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="A69:E74"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="66"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="65"/>
-    <tableColumn id="5" name="G" dataDxfId="64"/>
-    <tableColumn id="3" name="N" dataDxfId="63"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="62"/>
+    <tableColumn id="1" name="#" dataDxfId="67"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="66"/>
+    <tableColumn id="5" name="G" dataDxfId="65"/>
+    <tableColumn id="3" name="N" dataDxfId="64"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A50:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="58"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="57"/>
-    <tableColumn id="5" name="G" dataDxfId="56"/>
-    <tableColumn id="3" name="N" dataDxfId="55"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="54"/>
+    <tableColumn id="1" name="#" dataDxfId="59"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="58"/>
+    <tableColumn id="5" name="G" dataDxfId="57"/>
+    <tableColumn id="3" name="N" dataDxfId="56"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A167:E171"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="50"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="49"/>
-    <tableColumn id="5" name="G" dataDxfId="48"/>
-    <tableColumn id="3" name="N" dataDxfId="47"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="46"/>
+    <tableColumn id="1" name="#" dataDxfId="51"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="50"/>
+    <tableColumn id="5" name="G" dataDxfId="49"/>
+    <tableColumn id="3" name="N" dataDxfId="48"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3908,8 +3944,8 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6049,6 +6085,9 @@
       <c r="E150" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="F150" s="90" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
@@ -6228,6 +6267,9 @@
       </c>
       <c r="D163" s="33"/>
       <c r="E163" s="38"/>
+      <c r="F163" s="73" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="26">

--- a/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
+++ b/doc/vorgaben/Kriterien SA SA-ElmerHeidtTreichler-ZuehlkePortfolioSurfaceV1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="198">
   <si>
     <t>#</t>
   </si>
@@ -1078,7 +1078,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1314,6 +1314,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1442,7 +1445,7 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="123">
     <dxf>
       <font>
         <b val="0"/>
@@ -1463,37 +1466,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1508,7 +1480,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1524,18 +1496,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1547,50 +1514,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1608,350 +1534,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1982,6 +1565,596 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF505050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2013,37 +2186,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF505050"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2095,62 +2237,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2206,36 +2293,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2622,6 +2679,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3450,37 +3525,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A60:E66" totalsRowShown="0" headerRowDxfId="118" tableBorderDxfId="117">
-  <autoFilter ref="A60:E66"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="116"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="115"/>
-    <tableColumn id="5" name="G" dataDxfId="114"/>
-    <tableColumn id="3" name="N" dataDxfId="113"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A60:F66" totalsRowShown="0" headerRowDxfId="122" tableBorderDxfId="121">
+  <autoFilter ref="A60:F66"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="120"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="119"/>
+    <tableColumn id="5" name="G" dataDxfId="118"/>
+    <tableColumn id="3" name="N" dataDxfId="117"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="116"/>
+    <tableColumn id="6" name="Column1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F34" totalsRowCount="1" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <autoFilter ref="A4:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="6" name="G" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="3" name="N" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="5" name="besprochen am" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="1" name="#" dataDxfId="45" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="44" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="G" dataDxfId="43" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="N" dataDxfId="42" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="41" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="besprochen am" dataDxfId="40" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table715" displayName="Table715" ref="A87:F93" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A87:F93"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="36"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="35"/>
+    <tableColumn id="5" name="G" dataDxfId="34"/>
+    <tableColumn id="3" name="N" dataDxfId="33"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="32"/>
+    <tableColumn id="6" name="Column1" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A78:F83"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#" dataDxfId="27"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="26"/>
@@ -3493,160 +3584,148 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table71518" displayName="Table71518" ref="A78:F83" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A78:F83"/>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:F146" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A138:F146"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="18"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="17"/>
-    <tableColumn id="5" name="G" dataDxfId="16"/>
-    <tableColumn id="3" name="N" dataDxfId="15"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="14"/>
-    <tableColumn id="6" name="Column1" dataDxfId="13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1020" displayName="Table1020" ref="A138:E146" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A138:E146"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="11"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="10"/>
-    <tableColumn id="5" name="G" dataDxfId="9"/>
-    <tableColumn id="3" name="N" dataDxfId="8"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="7"/>
+    <tableColumn id="1" name="#" dataDxfId="20"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="19"/>
+    <tableColumn id="5" name="G" dataDxfId="18"/>
+    <tableColumn id="3" name="N" dataDxfId="17"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="16"/>
+    <tableColumn id="6" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:E135" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A125:E135"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="5"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="4"/>
-    <tableColumn id="5" name="G" dataDxfId="3"/>
-    <tableColumn id="3" name="N" dataDxfId="2"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table1021" displayName="Table1021" ref="A125:F135" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A125:F135"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="14"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="13"/>
+    <tableColumn id="5" name="G" dataDxfId="12"/>
+    <tableColumn id="3" name="N" dataDxfId="11"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="10"/>
+    <tableColumn id="6" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="111" headerRowBorderDxfId="110" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A36:E47" totalsRowShown="0" headerRowDxfId="115" headerRowBorderDxfId="114" tableBorderDxfId="113">
   <autoFilter ref="A36:E47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="108"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="107"/>
-    <tableColumn id="5" name="G" dataDxfId="106"/>
-    <tableColumn id="3" name="N" dataDxfId="105"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="104"/>
+    <tableColumn id="1" name="#" dataDxfId="112"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="111"/>
+    <tableColumn id="5" name="G" dataDxfId="110"/>
+    <tableColumn id="3" name="N" dataDxfId="109"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A96:F104" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A96:F104" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105">
   <autoFilter ref="A96:F104"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="100"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="99"/>
-    <tableColumn id="5" name="G" dataDxfId="98"/>
-    <tableColumn id="3" name="N" dataDxfId="97"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="96"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="95"/>
+    <tableColumn id="1" name="#" dataDxfId="104"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="103"/>
+    <tableColumn id="5" name="G" dataDxfId="102"/>
+    <tableColumn id="3" name="N" dataDxfId="101"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="100"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:F111" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A107:F111" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
   <autoFilter ref="A107:F111"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="91"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="90"/>
-    <tableColumn id="5" name="G" dataDxfId="89"/>
-    <tableColumn id="3" name="N" dataDxfId="88"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="87"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="86"/>
+    <tableColumn id="1" name="#" dataDxfId="95"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="94"/>
+    <tableColumn id="5" name="G" dataDxfId="93"/>
+    <tableColumn id="3" name="N" dataDxfId="92"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="91"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:F122" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A114:F122" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87">
   <autoFilter ref="A114:F122"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="82"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="81"/>
-    <tableColumn id="5" name="G" dataDxfId="80"/>
-    <tableColumn id="3" name="N" dataDxfId="79"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="78"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="77"/>
+    <tableColumn id="1" name="#" dataDxfId="86"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="85"/>
+    <tableColumn id="5" name="G" dataDxfId="84"/>
+    <tableColumn id="3" name="N" dataDxfId="83"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="82"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:F164" totalsRowShown="0" headerRowDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A150:F164" totalsRowShown="0" headerRowDxfId="80">
   <autoFilter ref="A150:F164"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="75"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="74"/>
-    <tableColumn id="5" name="G" dataDxfId="73"/>
-    <tableColumn id="3" name="N" dataDxfId="72"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="71"/>
-    <tableColumn id="6" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="79"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="78"/>
+    <tableColumn id="5" name="G" dataDxfId="77"/>
+    <tableColumn id="3" name="N" dataDxfId="76"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="75"/>
+    <tableColumn id="6" name="Column1" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A69:E74" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71">
   <autoFilter ref="A69:E74"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="67"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="66"/>
-    <tableColumn id="5" name="G" dataDxfId="65"/>
-    <tableColumn id="3" name="N" dataDxfId="64"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="63"/>
+    <tableColumn id="1" name="#" dataDxfId="70"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="69"/>
+    <tableColumn id="5" name="G" dataDxfId="68"/>
+    <tableColumn id="3" name="N" dataDxfId="67"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:E57" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
-  <autoFilter ref="A50:E57"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="59"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="58"/>
-    <tableColumn id="5" name="G" dataDxfId="57"/>
-    <tableColumn id="3" name="N" dataDxfId="56"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A50:F57" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63">
+  <autoFilter ref="A50:F57"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="62"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="61"/>
+    <tableColumn id="5" name="G" dataDxfId="60"/>
+    <tableColumn id="3" name="N" dataDxfId="59"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="58"/>
+    <tableColumn id="6" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A167:E171" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="A167:E171"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="51"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="50"/>
-    <tableColumn id="5" name="G" dataDxfId="49"/>
-    <tableColumn id="3" name="N" dataDxfId="48"/>
-    <tableColumn id="4" name="Kommentar" dataDxfId="47"/>
+    <tableColumn id="1" name="#" dataDxfId="54"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="53"/>
+    <tableColumn id="5" name="G" dataDxfId="52"/>
+    <tableColumn id="3" name="N" dataDxfId="51"/>
+    <tableColumn id="4" name="Kommentar" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3944,8 +4023,8 @@
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4195,7 +4274,9 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="74"/>
+      <c r="F16" s="75">
+        <v>40896</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="5">
@@ -4209,7 +4290,9 @@
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="74"/>
+      <c r="F17" s="75">
+        <v>40896</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="5">
@@ -4239,7 +4322,9 @@
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="74"/>
+      <c r="F19" s="75">
+        <v>40896</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="30">
@@ -4253,7 +4338,9 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="74"/>
+      <c r="F20" s="75">
+        <v>40896</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="25">
@@ -4658,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -4673,6 +4760,9 @@
       </c>
       <c r="E50" s="35" t="s">
         <v>3</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4687,6 +4777,9 @@
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="67"/>
+      <c r="F51" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="52" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
@@ -4700,7 +4793,9 @@
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="38"/>
-      <c r="F52" s="73"/>
+      <c r="F52" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -4714,6 +4809,9 @@
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="38"/>
+      <c r="F53" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -4727,7 +4825,9 @@
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="52"/>
-      <c r="F54" s="26"/>
+      <c r="F54" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -4741,6 +4841,9 @@
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="38"/>
+      <c r="F55" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -4754,6 +4857,9 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="43"/>
+      <c r="F56" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
@@ -4763,6 +4869,9 @@
       <c r="C57" s="34"/>
       <c r="D57" s="89"/>
       <c r="E57" s="38"/>
+      <c r="F57" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
@@ -4802,6 +4911,9 @@
       <c r="E60" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="F60" s="91" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -4816,6 +4928,9 @@
       <c r="D61" s="33"/>
       <c r="E61" s="38" t="s">
         <v>165</v>
+      </c>
+      <c r="F61" s="73" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5756,6 +5871,9 @@
       <c r="E125" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="F125" s="90" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
@@ -5769,6 +5887,9 @@
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="38"/>
+      <c r="F126" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
@@ -5782,6 +5903,9 @@
       </c>
       <c r="D127" s="33"/>
       <c r="E127" s="38"/>
+      <c r="F127" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
@@ -5795,6 +5919,9 @@
       <c r="E128" s="38" t="s">
         <v>184</v>
       </c>
+      <c r="F128" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
@@ -5808,6 +5935,9 @@
       </c>
       <c r="D129" s="33"/>
       <c r="E129" s="38"/>
+      <c r="F129" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
@@ -5823,6 +5953,9 @@
       <c r="E130" s="38" t="s">
         <v>171</v>
       </c>
+      <c r="F130" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
@@ -5838,6 +5971,9 @@
       <c r="E131" s="38" t="s">
         <v>172</v>
       </c>
+      <c r="F131" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
@@ -5851,6 +5987,9 @@
       </c>
       <c r="D132" s="33"/>
       <c r="E132" s="38"/>
+      <c r="F132" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
@@ -5864,6 +6003,9 @@
       </c>
       <c r="D133" s="33"/>
       <c r="E133" s="38"/>
+      <c r="F133" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
@@ -5877,6 +6019,9 @@
       </c>
       <c r="D134" s="33"/>
       <c r="E134" s="38"/>
+      <c r="F134" s="86">
+        <v>40896</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="26">
@@ -5891,6 +6036,9 @@
       <c r="D135" s="33"/>
       <c r="E135" s="38" t="s">
         <v>173</v>
+      </c>
+      <c r="F135" s="86">
+        <v>40896</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5932,6 +6080,9 @@
       <c r="E138" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="F138" s="90" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
@@ -5947,6 +6098,7 @@
       <c r="E139" s="38" t="s">
         <v>183</v>
       </c>
+      <c r="F139" s="86"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
@@ -5960,6 +6112,7 @@
       </c>
       <c r="D140" s="33"/>
       <c r="E140" s="38"/>
+      <c r="F140" s="86"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
@@ -5973,6 +6126,7 @@
       </c>
       <c r="D141" s="33"/>
       <c r="E141" s="38"/>
+      <c r="F141" s="86"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
@@ -5986,6 +6140,7 @@
       </c>
       <c r="D142" s="33"/>
       <c r="E142" s="38"/>
+      <c r="F142" s="86"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="76">
@@ -6001,6 +6156,7 @@
       <c r="E143" s="80" t="s">
         <v>174</v>
       </c>
+      <c r="F143" s="86"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
@@ -6014,6 +6170,7 @@
       <c r="E144" s="38" t="s">
         <v>170</v>
       </c>
+      <c r="F144" s="86"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
@@ -6027,6 +6184,7 @@
       </c>
       <c r="D145" s="33"/>
       <c r="E145" s="38"/>
+      <c r="F145" s="86"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
@@ -6040,6 +6198,7 @@
       </c>
       <c r="D146" s="33"/>
       <c r="E146" s="38"/>
+      <c r="F146" s="86"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C147" s="7"/>
